--- a/data_quarter/zb/国民经济核算/国内生产总值(现价).xlsx
+++ b/data_quarter/zb/国民经济核算/国内生产总值(现价).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG89"/>
+  <dimension ref="A1:AW89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,11 +594,91 @@
           <t>金融业增加值_累计值</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>交通运输、仓储和邮政业增加值</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>住宿和餐饮业增加值</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>信息传输、软件和信息技术服务业增加值</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>其他行业增加值</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>农林牧渔业增加值</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>制造业增加值</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>国内生产总值</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>工业增加值</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业增加值</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>房地产业增加值</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>批发和零售业增加值</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>租赁和商务服务业增加值</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>第一产业增加值</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>第三产业增加值</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>第二产业增加值</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>金融业增加值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年第一季度</t>
+          <t>2000年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -685,193 +765,319 @@
       <c r="AG2" t="n">
         <v>1237.7</v>
       </c>
+      <c r="AH2" t="n">
+        <v>1379.4</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>570.5</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="n">
+        <v>3586.7</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1947.5</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="n">
+        <v>21329.9</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8798.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>777.1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>931.4</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2101.2</v>
+      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="n">
+        <v>1908.3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9873.9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>9547.799999999999</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1237.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年第三季度</t>
+          <t>2000年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1370</v>
+        <v>1571.7</v>
       </c>
       <c r="C3" t="n">
-        <v>4321.1</v>
+        <v>2951.1</v>
       </c>
       <c r="D3" t="n">
-        <v>523.2</v>
+        <v>536.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1630.2</v>
+        <v>1107</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>3518.7</v>
+        <v>3465.5</v>
       </c>
       <c r="I3" t="n">
-        <v>10570.9</v>
+        <v>7052.1</v>
       </c>
       <c r="J3" t="n">
-        <v>4196.1</v>
+        <v>3209.7</v>
       </c>
       <c r="K3" t="n">
-        <v>9353.4</v>
+        <v>5157.2</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>25712.5</v>
+        <v>24043.4</v>
       </c>
       <c r="O3" t="n">
-        <v>71085.89999999999</v>
+        <v>45373.3</v>
       </c>
       <c r="P3" t="n">
-        <v>10502.8</v>
+        <v>9799.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>29100.9</v>
+        <v>18598.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1417.4</v>
+        <v>1359</v>
       </c>
       <c r="S3" t="n">
-        <v>3553.5</v>
+        <v>2136.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1068.9</v>
+        <v>903</v>
       </c>
       <c r="U3" t="n">
-        <v>2903.3</v>
+        <v>1834.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1943.5</v>
+        <v>2073.3</v>
       </c>
       <c r="W3" t="n">
-        <v>6118</v>
+        <v>4174.6</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>4140.6</v>
+        <v>3158.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>9207.200000000001</v>
+        <v>5066.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>9685.299999999999</v>
+        <v>9758</v>
       </c>
       <c r="AC3" t="n">
-        <v>29317.1</v>
+        <v>19631.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>11886.6</v>
+        <v>11127.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>32561.6</v>
+        <v>20675</v>
       </c>
       <c r="AF3" t="n">
-        <v>1171.8</v>
+        <v>1125.2</v>
       </c>
       <c r="AG3" t="n">
-        <v>3534.7</v>
+        <v>2362.8</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1571.7</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>536.5</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="n">
+        <v>3465.400000000001</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3209.7</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="n">
+        <v>24043.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9799.599999999999</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1359</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>903.0000000000001</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2073.400000000001</v>
+      </c>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="n">
+        <v>3158.2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9757.9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>11127.2</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1125.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年第二季度</t>
+          <t>2000年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1571.7</v>
+        <v>1370</v>
       </c>
       <c r="C4" t="n">
-        <v>2951.1</v>
+        <v>4321.1</v>
       </c>
       <c r="D4" t="n">
-        <v>536.5</v>
+        <v>523.2</v>
       </c>
       <c r="E4" t="n">
-        <v>1107</v>
+        <v>1630.2</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>3465.5</v>
+        <v>3518.7</v>
       </c>
       <c r="I4" t="n">
-        <v>7052.1</v>
+        <v>10570.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3209.7</v>
+        <v>4196.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5157.2</v>
+        <v>9353.4</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>24043.4</v>
+        <v>25712.5</v>
       </c>
       <c r="O4" t="n">
-        <v>45373.3</v>
+        <v>71085.89999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>9799.6</v>
+        <v>10502.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>18598.1</v>
+        <v>29100.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1359</v>
+        <v>1417.4</v>
       </c>
       <c r="S4" t="n">
-        <v>2136.1</v>
+        <v>3553.5</v>
       </c>
       <c r="T4" t="n">
-        <v>903</v>
+        <v>1068.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1834.4</v>
+        <v>2903.3</v>
       </c>
       <c r="V4" t="n">
-        <v>2073.3</v>
+        <v>1943.5</v>
       </c>
       <c r="W4" t="n">
-        <v>4174.6</v>
+        <v>6118</v>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>3158.2</v>
+        <v>4140.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>5066.5</v>
+        <v>9207.200000000001</v>
       </c>
       <c r="AB4" t="n">
-        <v>9758</v>
+        <v>9685.299999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>19631.8</v>
+        <v>29317.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>11127.2</v>
+        <v>11886.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>20675</v>
+        <v>32561.6</v>
       </c>
       <c r="AF4" t="n">
-        <v>1125.2</v>
+        <v>1171.8</v>
       </c>
       <c r="AG4" t="n">
-        <v>2362.8</v>
+        <v>3534.7</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1370</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>523.2</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="n">
+        <v>3518.799999999999</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>4196.2</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="n">
+        <v>25712.59999999999</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>10502.8</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1417.4</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1068.9</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1943.4</v>
+      </c>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="n">
+        <v>4140.700000000001</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9685.299999999999</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>11886.6</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1171.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年第四季度</t>
+          <t>2000年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -958,11 +1164,53 @@
       <c r="AG5" t="n">
         <v>4842.2</v>
       </c>
+      <c r="AH5" t="n">
+        <v>1840.799999999999</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>516.1000000000001</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
+        <v>3522</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>5590.200000000001</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="n">
+        <v>29194.20000000001</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11157.6</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1980.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1237.599999999999</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>2041.8</v>
+      </c>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="n">
+        <v>5510.199999999999</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>10582</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>13102.1</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1307.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2001年第一季度</t>
+          <t>2001年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1049,193 +1297,319 @@
       <c r="AG6" t="n">
         <v>1343.4</v>
       </c>
+      <c r="AH6" t="n">
+        <v>1604.1</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>638.6</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="n">
+        <v>4342.6</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2061.6</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="n">
+        <v>24086.4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9838</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>834.2</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1071.9</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>2351.9</v>
+      </c>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="n">
+        <v>2015.3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>11429.7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>10641.4</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1343.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年第三季度</t>
+          <t>2001年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1521.2</v>
+        <v>1764.6</v>
       </c>
       <c r="C7" t="n">
-        <v>4889.9</v>
+        <v>3368.7</v>
       </c>
       <c r="D7" t="n">
-        <v>588</v>
+        <v>599.6</v>
       </c>
       <c r="E7" t="n">
-        <v>1826.2</v>
+        <v>1238.2</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>4234.9</v>
+        <v>4188.1</v>
       </c>
       <c r="I7" t="n">
-        <v>12765.6</v>
+        <v>8530.700000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>4524</v>
+        <v>3297</v>
       </c>
       <c r="K7" t="n">
-        <v>9882.5</v>
+        <v>5358.5</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>28333.3</v>
+        <v>26726.6</v>
       </c>
       <c r="O7" t="n">
-        <v>79146.3</v>
+        <v>50813</v>
       </c>
       <c r="P7" t="n">
-        <v>11294</v>
+        <v>10874.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>32006.8</v>
+        <v>20712.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1532.2</v>
+        <v>1472.7</v>
       </c>
       <c r="S7" t="n">
-        <v>3839.2</v>
+        <v>2307</v>
       </c>
       <c r="T7" t="n">
-        <v>1213</v>
+        <v>1012.9</v>
       </c>
       <c r="U7" t="n">
-        <v>3297.8</v>
+        <v>2084.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2161.4</v>
+        <v>2307.7</v>
       </c>
       <c r="W7" t="n">
-        <v>6821.1</v>
+        <v>4659.7</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>4453.8</v>
+        <v>3235</v>
       </c>
       <c r="AA7" t="n">
-        <v>9704.1</v>
+        <v>5250.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>11089.6</v>
+        <v>11179</v>
       </c>
       <c r="AC7" t="n">
-        <v>33698.3</v>
+        <v>22608.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>12790</v>
+        <v>12312.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>35743.9</v>
+        <v>22954</v>
       </c>
       <c r="AF7" t="n">
-        <v>1264.6</v>
+        <v>1209.2</v>
       </c>
       <c r="AG7" t="n">
-        <v>3817.2</v>
+        <v>2552.6</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1764.6</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>599.6</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="n">
+        <v>4188.1</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>3296.9</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="n">
+        <v>26726.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>10874.8</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1472.8</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1012.9</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>2307.8</v>
+      </c>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="n">
+        <v>3235.099999999999</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>11179</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>12312.6</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1209.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年第二季度</t>
+          <t>2001年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1764.6</v>
+        <v>1521.2</v>
       </c>
       <c r="C8" t="n">
-        <v>3368.7</v>
+        <v>4889.9</v>
       </c>
       <c r="D8" t="n">
-        <v>599.6</v>
+        <v>588</v>
       </c>
       <c r="E8" t="n">
-        <v>1238.2</v>
+        <v>1826.2</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>4188.1</v>
+        <v>4234.9</v>
       </c>
       <c r="I8" t="n">
-        <v>8530.700000000001</v>
+        <v>12765.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3297</v>
+        <v>4524</v>
       </c>
       <c r="K8" t="n">
-        <v>5358.5</v>
+        <v>9882.5</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>26726.6</v>
+        <v>28333.3</v>
       </c>
       <c r="O8" t="n">
-        <v>50813</v>
+        <v>79146.3</v>
       </c>
       <c r="P8" t="n">
-        <v>10874.8</v>
+        <v>11294</v>
       </c>
       <c r="Q8" t="n">
-        <v>20712.8</v>
+        <v>32006.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1472.7</v>
+        <v>1532.2</v>
       </c>
       <c r="S8" t="n">
-        <v>2307</v>
+        <v>3839.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1012.9</v>
+        <v>1213</v>
       </c>
       <c r="U8" t="n">
-        <v>2084.8</v>
+        <v>3297.8</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.7</v>
+        <v>2161.4</v>
       </c>
       <c r="W8" t="n">
-        <v>4659.7</v>
+        <v>6821.1</v>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>3235</v>
+        <v>4453.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>5250.4</v>
+        <v>9704.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>11179</v>
+        <v>11089.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>22608.7</v>
+        <v>33698.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>12312.6</v>
+        <v>12790</v>
       </c>
       <c r="AE8" t="n">
-        <v>22954</v>
+        <v>35743.9</v>
       </c>
       <c r="AF8" t="n">
-        <v>1209.2</v>
+        <v>1264.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>2552.6</v>
+        <v>3817.2</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1521.2</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>588</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="n">
+        <v>4234.9</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>4524</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="n">
+        <v>28333.3</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>11294</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1532.2</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1213</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>2161.400000000001</v>
+      </c>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="n">
+        <v>4453.700000000001</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>11089.6</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>12789.9</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1264.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2001年第四季度</t>
+          <t>2001年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1322,11 +1696,53 @@
       <c r="AG9" t="n">
         <v>5202.8</v>
       </c>
+      <c r="AH9" t="n">
+        <v>1981.400000000001</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>573.8999999999999</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="n">
+        <v>4216.999999999998</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>5897.5</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="n">
+        <v>31716.8</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11847.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2106.3</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1408</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>2299.699999999999</v>
+      </c>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="n">
+        <v>5798.4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>12002.89999999999</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>13915.5</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1385.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2002年第一季度</t>
+          <t>2002年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1413,193 +1829,319 @@
       <c r="AG10" t="n">
         <v>1434.3</v>
       </c>
+      <c r="AH10" t="n">
+        <v>1722.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>728.6</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="n">
+        <v>5072.7</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>2206.3</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="n">
+        <v>26295</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>10438</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>914.6</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1201.4</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>2576.7</v>
+      </c>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="n">
+        <v>2147.6</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>12827.6</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>11319.7</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1434.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2002年第三季度</t>
+          <t>2002年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1677.5</v>
+        <v>1901.9</v>
       </c>
       <c r="C11" t="n">
-        <v>5301.9</v>
+        <v>3624.4</v>
       </c>
       <c r="D11" t="n">
-        <v>669.2</v>
+        <v>674.9</v>
       </c>
       <c r="E11" t="n">
-        <v>2072.7</v>
+        <v>1403.5</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>4943.4</v>
+        <v>4867.7</v>
       </c>
       <c r="I11" t="n">
-        <v>14883.7</v>
+        <v>9940.299999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>4820.1</v>
+        <v>3463.1</v>
       </c>
       <c r="K11" t="n">
-        <v>10489.5</v>
+        <v>5669.5</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>31257.3</v>
+        <v>29194.8</v>
       </c>
       <c r="O11" t="n">
-        <v>86747.10000000001</v>
+        <v>55489.8</v>
       </c>
       <c r="P11" t="n">
-        <v>12378.4</v>
+        <v>11716.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>34532.5</v>
+        <v>22154.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1685.3</v>
+        <v>1621.2</v>
       </c>
       <c r="S11" t="n">
-        <v>4221.1</v>
+        <v>2535.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1381.9</v>
+        <v>1142.3</v>
       </c>
       <c r="U11" t="n">
-        <v>3725.5</v>
+        <v>2343.7</v>
       </c>
       <c r="V11" t="n">
-        <v>2361.2</v>
+        <v>2516.2</v>
       </c>
       <c r="W11" t="n">
-        <v>7454.1</v>
+        <v>5092.9</v>
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>4731.2</v>
+        <v>3385.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>10264.7</v>
+        <v>5533.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>12502.1</v>
+        <v>12509.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>37838.9</v>
+        <v>25336.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>14024</v>
+        <v>13299.8</v>
       </c>
       <c r="AE11" t="n">
-        <v>38643.5</v>
+        <v>24619.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>1340.4</v>
+        <v>1291.3</v>
       </c>
       <c r="AG11" t="n">
-        <v>4066</v>
+        <v>2725.6</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1901.9</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>674.9</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="n">
+        <v>4867.599999999999</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>3463.2</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="n">
+        <v>29194.8</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11716.1</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1621.2</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1142.3</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>2516.2</v>
+      </c>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="n">
+        <v>3385.8</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>12509.2</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>13299.8</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1291.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2002年第二季度</t>
+          <t>2002年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1901.9</v>
+        <v>1677.5</v>
       </c>
       <c r="C12" t="n">
-        <v>3624.4</v>
+        <v>5301.9</v>
       </c>
       <c r="D12" t="n">
-        <v>674.9</v>
+        <v>669.2</v>
       </c>
       <c r="E12" t="n">
-        <v>1403.5</v>
+        <v>2072.7</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>4867.7</v>
+        <v>4943.4</v>
       </c>
       <c r="I12" t="n">
-        <v>9940.299999999999</v>
+        <v>14883.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3463.1</v>
+        <v>4820.1</v>
       </c>
       <c r="K12" t="n">
-        <v>5669.5</v>
+        <v>10489.5</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>29194.8</v>
+        <v>31257.3</v>
       </c>
       <c r="O12" t="n">
-        <v>55489.8</v>
+        <v>86747.10000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>11716.1</v>
+        <v>12378.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>22154.1</v>
+        <v>34532.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1621.2</v>
+        <v>1685.3</v>
       </c>
       <c r="S12" t="n">
-        <v>2535.8</v>
+        <v>4221.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1142.3</v>
+        <v>1381.9</v>
       </c>
       <c r="U12" t="n">
-        <v>2343.7</v>
+        <v>3725.5</v>
       </c>
       <c r="V12" t="n">
-        <v>2516.2</v>
+        <v>2361.2</v>
       </c>
       <c r="W12" t="n">
-        <v>5092.9</v>
+        <v>7454.1</v>
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>3385.8</v>
+        <v>4731.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>5533.4</v>
+        <v>10264.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>12509.2</v>
+        <v>12502.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>25336.8</v>
+        <v>37838.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>13299.8</v>
+        <v>14024</v>
       </c>
       <c r="AE12" t="n">
-        <v>24619.5</v>
+        <v>38643.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>1291.3</v>
+        <v>1340.4</v>
       </c>
       <c r="AG12" t="n">
-        <v>2725.6</v>
+        <v>4066</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1677.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>669.1999999999998</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="n">
+        <v>4943.400000000001</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>4820</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="n">
+        <v>31257.3</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>12378.4</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1685.3</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1381.8</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>2361.200000000001</v>
+      </c>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="n">
+        <v>4731.300000000001</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>12502.1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>14024</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1340.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2002年第四季度</t>
+          <t>2002年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1686,11 +2228,53 @@
       <c r="AG13" t="n">
         <v>5555.8</v>
       </c>
+      <c r="AH13" t="n">
+        <v>2192.400000000001</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>652.1000000000004</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="n">
+        <v>4934.899999999998</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>6046.200000000001</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="n">
+        <v>34970.29999999999</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>13242.4</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>2261</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1609</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>2542.699999999999</v>
+      </c>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="n">
+        <v>5925.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>13584.2</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>15460.6</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1489.8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2003年第一季度</t>
+          <t>2003年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1777,193 +2361,319 @@
       <c r="AG14" t="n">
         <v>1588.8</v>
       </c>
+      <c r="AH14" t="n">
+        <v>1840.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>817.9</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="n">
+        <v>5893.4</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>2292.1</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="n">
+        <v>29825.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12127.9</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1056.5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1390.2</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>2818</v>
+      </c>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="n">
+        <v>2222.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>14456.8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>13146.2</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1588.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2003年第三季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1793.6</v>
+        <v>1941</v>
       </c>
       <c r="C15" t="n">
-        <v>5575.2</v>
+        <v>3781.6</v>
       </c>
       <c r="D15" t="n">
-        <v>801.2</v>
+        <v>738.8</v>
       </c>
       <c r="E15" t="n">
-        <v>2357.9</v>
+        <v>1556.7</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>5426.7</v>
+        <v>5514.4</v>
       </c>
       <c r="I15" t="n">
-        <v>16834.6</v>
+        <v>11407.9</v>
       </c>
       <c r="J15" t="n">
-        <v>5154.5</v>
+        <v>3537.3</v>
       </c>
       <c r="K15" t="n">
-        <v>10984</v>
+        <v>5829.5</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>35291.9</v>
+        <v>32537.3</v>
       </c>
       <c r="O15" t="n">
-        <v>97654.7</v>
+        <v>62362.8</v>
       </c>
       <c r="P15" t="n">
-        <v>14303.9</v>
+        <v>13398.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>39830.3</v>
+        <v>25526.4</v>
       </c>
       <c r="R15" t="n">
-        <v>2040.4</v>
+        <v>1864</v>
       </c>
       <c r="S15" t="n">
-        <v>4960.9</v>
+        <v>2920.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1557.5</v>
+        <v>1351.2</v>
       </c>
       <c r="U15" t="n">
-        <v>4298.9</v>
+        <v>2741.4</v>
       </c>
       <c r="V15" t="n">
-        <v>2752.9</v>
+        <v>2784.6</v>
       </c>
       <c r="W15" t="n">
-        <v>8355.5</v>
+        <v>5602.6</v>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
-        <v>5046.1</v>
+        <v>3447.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>10715.9</v>
+        <v>5669.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>13947.3</v>
+        <v>13870.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>42274.7</v>
+        <v>28327.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>16298.4</v>
+        <v>15219.6</v>
       </c>
       <c r="AE15" t="n">
-        <v>44664.1</v>
+        <v>28365.8</v>
       </c>
       <c r="AF15" t="n">
-        <v>1461.2</v>
+        <v>1407.4</v>
       </c>
       <c r="AG15" t="n">
-        <v>4457.5</v>
+        <v>2996.2</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1941.1</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>738.8000000000001</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="n">
+        <v>5514.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>3537.4</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="n">
+        <v>32537.3</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13398.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1864</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1351.2</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>2784.6</v>
+      </c>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="n">
+        <v>3447.2</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>13870.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>15219.6</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>1407.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1941</v>
+        <v>1793.6</v>
       </c>
       <c r="C16" t="n">
-        <v>3781.6</v>
+        <v>5575.2</v>
       </c>
       <c r="D16" t="n">
-        <v>738.8</v>
+        <v>801.2</v>
       </c>
       <c r="E16" t="n">
-        <v>1556.7</v>
+        <v>2357.9</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>5514.4</v>
+        <v>5426.7</v>
       </c>
       <c r="I16" t="n">
-        <v>11407.9</v>
+        <v>16834.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3537.3</v>
+        <v>5154.5</v>
       </c>
       <c r="K16" t="n">
-        <v>5829.5</v>
+        <v>10984</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>32537.3</v>
+        <v>35291.9</v>
       </c>
       <c r="O16" t="n">
-        <v>62362.8</v>
+        <v>97654.7</v>
       </c>
       <c r="P16" t="n">
-        <v>13398.5</v>
+        <v>14303.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>25526.4</v>
+        <v>39830.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1864</v>
+        <v>2040.4</v>
       </c>
       <c r="S16" t="n">
-        <v>2920.5</v>
+        <v>4960.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1351.2</v>
+        <v>1557.5</v>
       </c>
       <c r="U16" t="n">
-        <v>2741.4</v>
+        <v>4298.9</v>
       </c>
       <c r="V16" t="n">
-        <v>2784.6</v>
+        <v>2752.9</v>
       </c>
       <c r="W16" t="n">
-        <v>5602.6</v>
+        <v>8355.5</v>
       </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>3447.2</v>
+        <v>5046.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>5669.7</v>
+        <v>10715.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>13870.6</v>
+        <v>13947.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>28327.3</v>
+        <v>42274.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>15219.6</v>
+        <v>16298.4</v>
       </c>
       <c r="AE16" t="n">
-        <v>28365.8</v>
+        <v>44664.1</v>
       </c>
       <c r="AF16" t="n">
-        <v>1407.4</v>
+        <v>1461.2</v>
       </c>
       <c r="AG16" t="n">
-        <v>2996.2</v>
+        <v>4457.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1793.6</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>801.2</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="n">
+        <v>5426.699999999999</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>5154.5</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="n">
+        <v>35291.89999999999</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>14303.9</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>2040.4</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>1557.5</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>2752.9</v>
+      </c>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="n">
+        <v>5046.2</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>13947.4</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>16298.3</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>1461.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2003年第四季度</t>
+          <t>2003年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2050,11 +2760,53 @@
       <c r="AG17" t="n">
         <v>6045.7</v>
       </c>
+      <c r="AH17" t="n">
+        <v>2339.6</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>768.1999999999998</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="n">
+        <v>5919.200000000001</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>6396.599999999999</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="n">
+        <v>39767.3</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>15531.89999999999</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2549.900000000001</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1858.1</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>2815.700000000001</v>
+      </c>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="n">
+        <v>6254.300000000001</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>15481.3</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>18031.7</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>1588.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2141,193 +2893,319 @@
       <c r="AG18" t="n">
         <v>1764.3</v>
       </c>
+      <c r="AH18" t="n">
+        <v>2159.8</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>898.1</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="n">
+        <v>7090.2</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2698.4</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="n">
+        <v>34544.6</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>14093.6</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1242.8</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1628.1</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>2969.4</v>
+      </c>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="n">
+        <v>2615.6</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>16637</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>15292.1</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1764.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2137.3</v>
+        <v>2375.7</v>
       </c>
       <c r="C19" t="n">
-        <v>6672.8</v>
+        <v>4535.4</v>
       </c>
       <c r="D19" t="n">
-        <v>927.6</v>
+        <v>896.7</v>
       </c>
       <c r="E19" t="n">
-        <v>2722.4</v>
+        <v>1794.9</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>6412.7</v>
+        <v>6684.4</v>
       </c>
       <c r="I19" t="n">
-        <v>20187.3</v>
+        <v>13774.5</v>
       </c>
       <c r="J19" t="n">
-        <v>6494.9</v>
+        <v>4360.7</v>
       </c>
       <c r="K19" t="n">
-        <v>13554</v>
+        <v>7059.1</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>41855</v>
+        <v>38700.8</v>
       </c>
       <c r="O19" t="n">
-        <v>115100.4</v>
+        <v>73245.39999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>17019.6</v>
+        <v>15965.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>47078.9</v>
+        <v>30059.3</v>
       </c>
       <c r="R19" t="n">
-        <v>2406.8</v>
+        <v>2170.6</v>
       </c>
       <c r="S19" t="n">
-        <v>5820.2</v>
+        <v>3413.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1800.2</v>
+        <v>1603</v>
       </c>
       <c r="U19" t="n">
-        <v>5031.2</v>
+        <v>3231</v>
       </c>
       <c r="V19" t="n">
-        <v>3084</v>
+        <v>3128.7</v>
       </c>
       <c r="W19" t="n">
-        <v>9182.200000000001</v>
+        <v>6098.2</v>
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
-        <v>6358.6</v>
+        <v>4250.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>13224.7</v>
+        <v>6866.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>16124.3</v>
+        <v>16364.9</v>
       </c>
       <c r="AC19" t="n">
-        <v>49126.2</v>
+        <v>33001.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>19372.1</v>
+        <v>18085.4</v>
       </c>
       <c r="AE19" t="n">
-        <v>52749.5</v>
+        <v>33377.4</v>
       </c>
       <c r="AF19" t="n">
-        <v>1571.9</v>
+        <v>1515.3</v>
       </c>
       <c r="AG19" t="n">
-        <v>4851.5</v>
+        <v>3279.6</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2375.599999999999</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>896.8000000000001</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="n">
+        <v>6684.3</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>4360.700000000001</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="n">
+        <v>38700.8</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>15965.7</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>2170.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1602.9</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>3128.8</v>
+      </c>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="n">
+        <v>4250.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>16364.9</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>18085.3</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>1515.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2375.7</v>
+        <v>2137.3</v>
       </c>
       <c r="C20" t="n">
-        <v>4535.4</v>
+        <v>6672.8</v>
       </c>
       <c r="D20" t="n">
-        <v>896.7</v>
+        <v>927.6</v>
       </c>
       <c r="E20" t="n">
-        <v>1794.9</v>
+        <v>2722.4</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>6684.4</v>
+        <v>6412.7</v>
       </c>
       <c r="I20" t="n">
-        <v>13774.5</v>
+        <v>20187.3</v>
       </c>
       <c r="J20" t="n">
-        <v>4360.7</v>
+        <v>6494.9</v>
       </c>
       <c r="K20" t="n">
-        <v>7059.1</v>
+        <v>13554</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>38700.8</v>
+        <v>41855</v>
       </c>
       <c r="O20" t="n">
-        <v>73245.39999999999</v>
+        <v>115100.4</v>
       </c>
       <c r="P20" t="n">
-        <v>15965.7</v>
+        <v>17019.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>30059.3</v>
+        <v>47078.9</v>
       </c>
       <c r="R20" t="n">
-        <v>2170.6</v>
+        <v>2406.8</v>
       </c>
       <c r="S20" t="n">
-        <v>3413.4</v>
+        <v>5820.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1603</v>
+        <v>1800.2</v>
       </c>
       <c r="U20" t="n">
-        <v>3231</v>
+        <v>5031.2</v>
       </c>
       <c r="V20" t="n">
-        <v>3128.7</v>
+        <v>3084</v>
       </c>
       <c r="W20" t="n">
-        <v>6098.2</v>
+        <v>9182.200000000001</v>
       </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
-        <v>4250.5</v>
+        <v>6358.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>6866.1</v>
+        <v>13224.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>16364.9</v>
+        <v>16124.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>33001.9</v>
+        <v>49126.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>18085.4</v>
+        <v>19372.1</v>
       </c>
       <c r="AE20" t="n">
-        <v>33377.4</v>
+        <v>52749.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>1515.3</v>
+        <v>1571.9</v>
       </c>
       <c r="AG20" t="n">
-        <v>3279.6</v>
+        <v>4851.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>2137.400000000001</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>927.5</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="n">
+        <v>6412.799999999999</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>6494.9</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="n">
+        <v>41855</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>17019.6</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>2406.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1800.2</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>3084.000000000001</v>
+      </c>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="n">
+        <v>6358.6</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>16124.3</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>19372.1</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1571.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2414,11 +3292,53 @@
       <c r="AG21" t="n">
         <v>6600.2</v>
       </c>
+      <c r="AH21" t="n">
+        <v>2633.7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>942.4000000000001</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="n">
+        <v>6567.299999999999</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>7856.700000000001</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="n">
+        <v>46739.80000000002</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>18695.99999999999</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2900.3</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>2120.900000000001</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>3273.599999999999</v>
+      </c>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="n">
+        <v>7679.599999999999</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>17524.7</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>21535.5</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>1748.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2505,193 +3425,319 @@
       <c r="AG22" t="n">
         <v>1935.9</v>
       </c>
+      <c r="AH22" t="n">
+        <v>2554.9</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1048.4</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="n">
+        <v>8381.200000000001</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2986.8</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="n">
+        <v>40453.3</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>16766.2</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1451.8</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1988.4</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>3339.7</v>
+      </c>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="n">
+        <v>2884</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>19410.3</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>18159</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1935.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.5</v>
+        <v>2867.6</v>
       </c>
       <c r="C23" t="n">
-        <v>7963</v>
+        <v>5422.5</v>
       </c>
       <c r="D23" t="n">
-        <v>1052.5</v>
+        <v>1035.4</v>
       </c>
       <c r="E23" t="n">
-        <v>3136.3</v>
+        <v>2083.8</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>7569.6</v>
+        <v>7739</v>
       </c>
       <c r="I23" t="n">
-        <v>23689.9</v>
+        <v>16120.2</v>
       </c>
       <c r="J23" t="n">
-        <v>6690.4</v>
+        <v>4571</v>
       </c>
       <c r="K23" t="n">
-        <v>14248.3</v>
+        <v>7557.8</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>48047.8</v>
+        <v>44793.1</v>
       </c>
       <c r="O23" t="n">
-        <v>133294.1</v>
+        <v>85246.39999999999</v>
       </c>
       <c r="P23" t="n">
-        <v>20073.1</v>
+        <v>18925</v>
       </c>
       <c r="Q23" t="n">
-        <v>55764.3</v>
+        <v>35691.1</v>
       </c>
       <c r="R23" t="n">
-        <v>2773.6</v>
+        <v>2568.9</v>
       </c>
       <c r="S23" t="n">
-        <v>6794.4</v>
+        <v>4020.8</v>
       </c>
       <c r="T23" t="n">
-        <v>2098.7</v>
+        <v>1945.6</v>
       </c>
       <c r="U23" t="n">
-        <v>6032.6</v>
+        <v>3933.9</v>
       </c>
       <c r="V23" t="n">
-        <v>3446.8</v>
+        <v>3459.1</v>
       </c>
       <c r="W23" t="n">
-        <v>10245.6</v>
+        <v>6798.8</v>
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
-        <v>6527.7</v>
+        <v>4438.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>13850.3</v>
+        <v>7322.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>18746</v>
+        <v>18929.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>57085.5</v>
+        <v>38339.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>22774</v>
+        <v>21425.3</v>
       </c>
       <c r="AE23" t="n">
-        <v>62358.3</v>
+        <v>39584.3</v>
       </c>
       <c r="AF23" t="n">
-        <v>1802.4</v>
+        <v>1681.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>5419.8</v>
+        <v>3617.4</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>2867.6</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1035.4</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="n">
+        <v>7739</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>4571</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="n">
+        <v>44793.09999999999</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>18924.9</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>2569</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1945.5</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>3459.1</v>
+      </c>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="n">
+        <v>4438.6</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>18929.2</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>21425.3</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1681.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2867.6</v>
+        <v>2540.5</v>
       </c>
       <c r="C24" t="n">
-        <v>5422.5</v>
+        <v>7963</v>
       </c>
       <c r="D24" t="n">
-        <v>1035.4</v>
+        <v>1052.5</v>
       </c>
       <c r="E24" t="n">
-        <v>2083.8</v>
+        <v>3136.3</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>7739</v>
+        <v>7569.6</v>
       </c>
       <c r="I24" t="n">
-        <v>16120.2</v>
+        <v>23689.9</v>
       </c>
       <c r="J24" t="n">
-        <v>4571</v>
+        <v>6690.4</v>
       </c>
       <c r="K24" t="n">
-        <v>7557.8</v>
+        <v>14248.3</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>44793.1</v>
+        <v>48047.8</v>
       </c>
       <c r="O24" t="n">
-        <v>85246.39999999999</v>
+        <v>133294.1</v>
       </c>
       <c r="P24" t="n">
-        <v>18925</v>
+        <v>20073.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>35691.1</v>
+        <v>55764.3</v>
       </c>
       <c r="R24" t="n">
-        <v>2568.9</v>
+        <v>2773.6</v>
       </c>
       <c r="S24" t="n">
-        <v>4020.8</v>
+        <v>6794.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1945.6</v>
+        <v>2098.7</v>
       </c>
       <c r="U24" t="n">
-        <v>3933.9</v>
+        <v>6032.6</v>
       </c>
       <c r="V24" t="n">
-        <v>3459.1</v>
+        <v>3446.8</v>
       </c>
       <c r="W24" t="n">
-        <v>6798.8</v>
+        <v>10245.6</v>
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
-        <v>4438.6</v>
+        <v>6527.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>7322.6</v>
+        <v>13850.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>18929.2</v>
+        <v>18746</v>
       </c>
       <c r="AC24" t="n">
-        <v>38339.5</v>
+        <v>57085.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>21425.3</v>
+        <v>22774</v>
       </c>
       <c r="AE24" t="n">
-        <v>39584.3</v>
+        <v>62358.3</v>
       </c>
       <c r="AF24" t="n">
-        <v>1681.5</v>
+        <v>1802.4</v>
       </c>
       <c r="AG24" t="n">
-        <v>3617.4</v>
+        <v>5419.8</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>2540.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1052.5</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="n">
+        <v>7569.700000000001</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>6690.499999999999</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="n">
+        <v>48047.70000000001</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>20073.2</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>2773.599999999999</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2098.7</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>3446.8</v>
+      </c>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="n">
+        <v>6527.699999999999</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>18746</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>22774</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1802.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2778,11 +3824,53 @@
       <c r="AG25" t="n">
         <v>7486</v>
       </c>
+      <c r="AH25" t="n">
+        <v>2705.799999999999</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1059.4</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="n">
+        <v>8052.199999999997</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>8167.900000000001</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="n">
+        <v>54024.79999999999</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>22194</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>3606.1</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>2450.1</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>3722.9</v>
+      </c>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="n">
+        <v>7956.400000000001</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>20344.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>25723.89999999999</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>2066.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2869,193 +3957,319 @@
       <c r="AG26" t="n">
         <v>2466.3</v>
       </c>
+      <c r="AH26" t="n">
+        <v>2868.8</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1178.2</v>
+      </c>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="n">
+        <v>9594</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>3133.1</v>
+      </c>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="n">
+        <v>47078.9</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>19734.7</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1753.1</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>2410.3</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>3940.4</v>
+      </c>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="n">
+        <v>3012.7</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>22648</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>21418.2</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>2466.3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2899.7</v>
+        <v>3161.8</v>
       </c>
       <c r="C27" t="n">
-        <v>8930.200000000001</v>
+        <v>6030.5</v>
       </c>
       <c r="D27" t="n">
-        <v>1212.2</v>
+        <v>1158.1</v>
       </c>
       <c r="E27" t="n">
-        <v>3548.5</v>
+        <v>2336.3</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>8842</v>
+        <v>9023.6</v>
       </c>
       <c r="I27" t="n">
-        <v>27459.6</v>
+        <v>18617.6</v>
       </c>
       <c r="J27" t="n">
-        <v>7129.6</v>
+        <v>4907.4</v>
       </c>
       <c r="K27" t="n">
-        <v>15170.2</v>
+        <v>8040.5</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>56064.7</v>
+        <v>52673.3</v>
       </c>
       <c r="O27" t="n">
-        <v>155816.8</v>
+        <v>99752.2</v>
       </c>
       <c r="P27" t="n">
-        <v>23720.7</v>
+        <v>22619.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>66075.3</v>
+        <v>42354.6</v>
       </c>
       <c r="R27" t="n">
-        <v>3301.6</v>
+        <v>3036.7</v>
       </c>
       <c r="S27" t="n">
-        <v>8091.4</v>
+        <v>4789.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2489.8</v>
+        <v>2401.4</v>
       </c>
       <c r="U27" t="n">
-        <v>7301.5</v>
+        <v>4811.7</v>
       </c>
       <c r="V27" t="n">
-        <v>4088.1</v>
+        <v>4094.7</v>
       </c>
       <c r="W27" t="n">
-        <v>12123.1</v>
+        <v>8035.1</v>
       </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
-        <v>6937.7</v>
+        <v>4750</v>
       </c>
       <c r="AA27" t="n">
-        <v>14700.4</v>
+        <v>7762.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>22190.4</v>
+        <v>22348.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>67187</v>
+        <v>44996.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>26936.6</v>
+        <v>25574.7</v>
       </c>
       <c r="AE27" t="n">
-        <v>73929.5</v>
+        <v>46992.9</v>
       </c>
       <c r="AF27" t="n">
-        <v>2381</v>
+        <v>2269.7</v>
       </c>
       <c r="AG27" t="n">
-        <v>7117</v>
+        <v>4736</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>3161.7</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1158.1</v>
+      </c>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="n">
+        <v>9023.599999999999</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>4907.4</v>
+      </c>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="n">
+        <v>52673.3</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>22619.9</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>3036.7</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>2401.4</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>4094.7</v>
+      </c>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="n">
+        <v>4750</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>22348.5</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>25574.7</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>2269.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3161.8</v>
+        <v>2899.7</v>
       </c>
       <c r="C28" t="n">
-        <v>6030.5</v>
+        <v>8930.200000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>1158.1</v>
+        <v>1212.2</v>
       </c>
       <c r="E28" t="n">
-        <v>2336.3</v>
+        <v>3548.5</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>9023.6</v>
+        <v>8842</v>
       </c>
       <c r="I28" t="n">
-        <v>18617.6</v>
+        <v>27459.6</v>
       </c>
       <c r="J28" t="n">
-        <v>4907.4</v>
+        <v>7129.6</v>
       </c>
       <c r="K28" t="n">
-        <v>8040.5</v>
+        <v>15170.2</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>52673.3</v>
+        <v>56064.7</v>
       </c>
       <c r="O28" t="n">
-        <v>99752.2</v>
+        <v>155816.8</v>
       </c>
       <c r="P28" t="n">
-        <v>22619.9</v>
+        <v>23720.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>42354.6</v>
+        <v>66075.3</v>
       </c>
       <c r="R28" t="n">
-        <v>3036.7</v>
+        <v>3301.6</v>
       </c>
       <c r="S28" t="n">
-        <v>4789.8</v>
+        <v>8091.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2401.4</v>
+        <v>2489.8</v>
       </c>
       <c r="U28" t="n">
-        <v>4811.7</v>
+        <v>7301.5</v>
       </c>
       <c r="V28" t="n">
-        <v>4094.7</v>
+        <v>4088.1</v>
       </c>
       <c r="W28" t="n">
-        <v>8035.1</v>
+        <v>12123.1</v>
       </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
-        <v>4750</v>
+        <v>6937.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>7762.7</v>
+        <v>14700.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>22348.5</v>
+        <v>22190.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>44996.5</v>
+        <v>67187</v>
       </c>
       <c r="AD28" t="n">
-        <v>25574.7</v>
+        <v>26936.6</v>
       </c>
       <c r="AE28" t="n">
-        <v>46992.9</v>
+        <v>73929.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>2269.7</v>
+        <v>2381</v>
       </c>
       <c r="AG28" t="n">
-        <v>4736</v>
+        <v>7117</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>2899.700000000001</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1212.2</v>
+      </c>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="n">
+        <v>8842</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>7129.700000000001</v>
+      </c>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="n">
+        <v>56064.59999999999</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>23720.7</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>3301.599999999999</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>2489.8</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>4088</v>
+      </c>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="n">
+        <v>6937.7</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>22190.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>26936.6</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>2381</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3142,11 +4356,53 @@
       <c r="AG29" t="n">
         <v>9972.299999999999</v>
       </c>
+      <c r="AH29" t="n">
+        <v>3256.099999999999</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1244.1</v>
+      </c>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="n">
+        <v>9451.200000000004</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>8866.200000000001</v>
+      </c>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="n">
+        <v>63621.70000000001</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>26160.5</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>4358.700000000001</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>3019.4</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>4410.300000000001</v>
+      </c>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="n">
+        <v>8616.6</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>24575.2</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>30429.7</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2855.299999999999</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3233,193 +4489,319 @@
       <c r="AG30" t="n">
         <v>3730.7</v>
       </c>
+      <c r="AH30" t="n">
+        <v>3354.3</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1322.3</v>
+      </c>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="n">
+        <v>11222.3</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>3606.9</v>
+      </c>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="n">
+        <v>57159.3</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>23903.3</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>2167.4</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>2986.9</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>4865.2</v>
+      </c>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="n">
+        <v>3473</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>27703.2</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>25983.1</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>3730.7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3448.8</v>
+        <v>3814.9</v>
       </c>
       <c r="C31" t="n">
-        <v>10618</v>
+        <v>7169.2</v>
       </c>
       <c r="D31" t="n">
-        <v>1366.5</v>
+        <v>1295.8</v>
       </c>
       <c r="E31" t="n">
-        <v>3984.6</v>
+        <v>2618.1</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>10825.1</v>
+        <v>10706.5</v>
       </c>
       <c r="I31" t="n">
-        <v>32754</v>
+        <v>21928.8</v>
       </c>
       <c r="J31" t="n">
-        <v>8572</v>
+        <v>5683.1</v>
       </c>
       <c r="K31" t="n">
-        <v>17862</v>
+        <v>9290</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>69482.10000000001</v>
+        <v>64781.6</v>
       </c>
       <c r="O31" t="n">
-        <v>191423.1</v>
+        <v>121940.9</v>
       </c>
       <c r="P31" t="n">
-        <v>28741.8</v>
+        <v>27482.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>80127.60000000001</v>
+        <v>51385.7</v>
       </c>
       <c r="R31" t="n">
-        <v>4024.2</v>
+        <v>3745.1</v>
       </c>
       <c r="S31" t="n">
-        <v>9936.700000000001</v>
+        <v>5912.5</v>
       </c>
       <c r="T31" t="n">
-        <v>3419.3</v>
+        <v>3227.7</v>
       </c>
       <c r="U31" t="n">
-        <v>9633.9</v>
+        <v>6214.6</v>
       </c>
       <c r="V31" t="n">
-        <v>5186.4</v>
+        <v>5136.7</v>
       </c>
       <c r="W31" t="n">
-        <v>15188.2</v>
+        <v>10001.9</v>
       </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
-        <v>8352.6</v>
+        <v>5510.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>17335.7</v>
+        <v>8983.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>28469.4</v>
+        <v>28145.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>84317.89999999999</v>
+        <v>55848.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>32660.2</v>
+        <v>31126.2</v>
       </c>
       <c r="AE31" t="n">
-        <v>89769.5</v>
+        <v>57109.3</v>
       </c>
       <c r="AF31" t="n">
-        <v>3898.1</v>
+        <v>3689.4</v>
       </c>
       <c r="AG31" t="n">
-        <v>11318.2</v>
+        <v>7420.2</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>3814.9</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1295.8</v>
+      </c>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="n">
+        <v>10706.5</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>5683.1</v>
+      </c>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="n">
+        <v>64781.59999999999</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>27482.4</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>3745.1</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>3227.7</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>5136.7</v>
+      </c>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="n">
+        <v>5510.1</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>28145.3</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>31126.2</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>3689.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3814.9</v>
+        <v>3448.8</v>
       </c>
       <c r="C32" t="n">
-        <v>7169.2</v>
+        <v>10618</v>
       </c>
       <c r="D32" t="n">
-        <v>1295.8</v>
+        <v>1366.5</v>
       </c>
       <c r="E32" t="n">
-        <v>2618.1</v>
+        <v>3984.6</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>10706.5</v>
+        <v>10825.1</v>
       </c>
       <c r="I32" t="n">
-        <v>21928.8</v>
+        <v>32754</v>
       </c>
       <c r="J32" t="n">
-        <v>5683.1</v>
+        <v>8572</v>
       </c>
       <c r="K32" t="n">
-        <v>9290</v>
+        <v>17862</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>64781.6</v>
+        <v>69482.10000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>121940.9</v>
+        <v>191423.1</v>
       </c>
       <c r="P32" t="n">
-        <v>27482.4</v>
+        <v>28741.8</v>
       </c>
       <c r="Q32" t="n">
-        <v>51385.7</v>
+        <v>80127.60000000001</v>
       </c>
       <c r="R32" t="n">
-        <v>3745.1</v>
+        <v>4024.2</v>
       </c>
       <c r="S32" t="n">
-        <v>5912.5</v>
+        <v>9936.700000000001</v>
       </c>
       <c r="T32" t="n">
-        <v>3227.7</v>
+        <v>3419.3</v>
       </c>
       <c r="U32" t="n">
-        <v>6214.6</v>
+        <v>9633.9</v>
       </c>
       <c r="V32" t="n">
-        <v>5136.7</v>
+        <v>5186.4</v>
       </c>
       <c r="W32" t="n">
-        <v>10001.9</v>
+        <v>15188.2</v>
       </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
-        <v>5510.1</v>
+        <v>8352.6</v>
       </c>
       <c r="AA32" t="n">
-        <v>8983.1</v>
+        <v>17335.7</v>
       </c>
       <c r="AB32" t="n">
-        <v>28145.3</v>
+        <v>28469.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>55848.5</v>
+        <v>84317.89999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>31126.2</v>
+        <v>32660.2</v>
       </c>
       <c r="AE32" t="n">
-        <v>57109.3</v>
+        <v>89769.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>3689.4</v>
+        <v>3898.1</v>
       </c>
       <c r="AG32" t="n">
-        <v>7420.2</v>
+        <v>11318.2</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>3448.8</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1366.5</v>
+      </c>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="n">
+        <v>10825.2</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>8572</v>
+      </c>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="n">
+        <v>69482.20000000001</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>28741.90000000001</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>4024.200000000001</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>3419.299999999999</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>5186.300000000001</v>
+      </c>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="n">
+        <v>8352.6</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>28469.39999999999</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>32660.2</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>3898.000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3506,11 +4888,53 @@
       <c r="AG33" t="n">
         <v>15200</v>
       </c>
+      <c r="AH33" t="n">
+        <v>3987.1</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1563.5</v>
+      </c>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="n">
+        <v>11807.5</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>10621.7</v>
+      </c>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="n">
+        <v>78669.19999999998</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>31563.2</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>5411.299999999999</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>4080.1</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>5752.899999999998</v>
+      </c>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="n">
+        <v>10338.4</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>31469.8</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>36861</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>3881.799999999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3597,193 +5021,319 @@
       <c r="AG34" t="n">
         <v>4516.8</v>
       </c>
+      <c r="AH34" t="n">
+        <v>3892.4</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1602.3</v>
+      </c>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="n">
+        <v>13539.4</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>4536.9</v>
+      </c>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="n">
+        <v>69373.60000000001</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>29039.5</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>2699.7</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3514.9</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>6031.9</v>
+      </c>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="n">
+        <v>4367.5</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>33392.9</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>31613.2</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>4516.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3984.7</v>
+        <v>4383.3</v>
       </c>
       <c r="C35" t="n">
-        <v>12260.4</v>
+        <v>8275.6</v>
       </c>
       <c r="D35" t="n">
-        <v>1647.8</v>
+        <v>1535.2</v>
       </c>
       <c r="E35" t="n">
-        <v>4785.3</v>
+        <v>3137.5</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>13031.6</v>
+        <v>12874</v>
       </c>
       <c r="I35" t="n">
-        <v>39445</v>
+        <v>26413.4</v>
       </c>
       <c r="J35" t="n">
-        <v>10084.2</v>
+        <v>7046.5</v>
       </c>
       <c r="K35" t="n">
-        <v>21667.6</v>
+        <v>11583.4</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>82460.10000000001</v>
+        <v>78711.8</v>
       </c>
       <c r="O35" t="n">
-        <v>230545.6</v>
+        <v>148085.5</v>
       </c>
       <c r="P35" t="n">
-        <v>34146.8</v>
+        <v>33719.7</v>
       </c>
       <c r="Q35" t="n">
-        <v>96905.89999999999</v>
+        <v>62759.2</v>
       </c>
       <c r="R35" t="n">
-        <v>4898.1</v>
+        <v>4677.4</v>
       </c>
       <c r="S35" t="n">
-        <v>12275.1</v>
+        <v>7377.1</v>
       </c>
       <c r="T35" t="n">
-        <v>3445.7</v>
+        <v>3615</v>
       </c>
       <c r="U35" t="n">
-        <v>10575.6</v>
+        <v>7129.9</v>
       </c>
       <c r="V35" t="n">
-        <v>6613.8</v>
+        <v>6459</v>
       </c>
       <c r="W35" t="n">
-        <v>19104.7</v>
+        <v>12490.9</v>
       </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
-        <v>9825.299999999999</v>
+        <v>6831.2</v>
       </c>
       <c r="AA35" t="n">
-        <v>21024</v>
+        <v>11198.7</v>
       </c>
       <c r="AB35" t="n">
-        <v>33739.9</v>
+        <v>33632.3</v>
       </c>
       <c r="AC35" t="n">
-        <v>100765.1</v>
+        <v>67025.2</v>
       </c>
       <c r="AD35" t="n">
-        <v>38895</v>
+        <v>38248.4</v>
       </c>
       <c r="AE35" t="n">
-        <v>108756.6</v>
+        <v>69861.60000000001</v>
       </c>
       <c r="AF35" t="n">
-        <v>4607.4</v>
+        <v>4401.7</v>
       </c>
       <c r="AG35" t="n">
-        <v>13526</v>
+        <v>8918.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>4383.200000000001</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1535.2</v>
+      </c>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="n">
+        <v>12874</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>7046.5</v>
+      </c>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="n">
+        <v>78711.89999999999</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>33719.7</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>4677.400000000001</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>3615</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>6459</v>
+      </c>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="n">
+        <v>6831.200000000001</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>33632.3</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>38248.40000000001</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>4401.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4383.3</v>
+        <v>3984.7</v>
       </c>
       <c r="C36" t="n">
-        <v>8275.6</v>
+        <v>12260.4</v>
       </c>
       <c r="D36" t="n">
-        <v>1535.2</v>
+        <v>1647.8</v>
       </c>
       <c r="E36" t="n">
-        <v>3137.5</v>
+        <v>4785.3</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>12874</v>
+        <v>13031.6</v>
       </c>
       <c r="I36" t="n">
-        <v>26413.4</v>
+        <v>39445</v>
       </c>
       <c r="J36" t="n">
-        <v>7046.5</v>
+        <v>10084.2</v>
       </c>
       <c r="K36" t="n">
-        <v>11583.4</v>
+        <v>21667.6</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>78711.8</v>
+        <v>82460.10000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>148085.5</v>
+        <v>230545.6</v>
       </c>
       <c r="P36" t="n">
-        <v>33719.7</v>
+        <v>34146.8</v>
       </c>
       <c r="Q36" t="n">
-        <v>62759.2</v>
+        <v>96905.89999999999</v>
       </c>
       <c r="R36" t="n">
-        <v>4677.4</v>
+        <v>4898.1</v>
       </c>
       <c r="S36" t="n">
-        <v>7377.1</v>
+        <v>12275.1</v>
       </c>
       <c r="T36" t="n">
-        <v>3615</v>
+        <v>3445.7</v>
       </c>
       <c r="U36" t="n">
-        <v>7129.9</v>
+        <v>10575.6</v>
       </c>
       <c r="V36" t="n">
-        <v>6459</v>
+        <v>6613.8</v>
       </c>
       <c r="W36" t="n">
-        <v>12490.9</v>
+        <v>19104.7</v>
       </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
-        <v>6831.2</v>
+        <v>9825.299999999999</v>
       </c>
       <c r="AA36" t="n">
-        <v>11198.7</v>
+        <v>21024</v>
       </c>
       <c r="AB36" t="n">
-        <v>33632.3</v>
+        <v>33739.9</v>
       </c>
       <c r="AC36" t="n">
-        <v>67025.2</v>
+        <v>100765.1</v>
       </c>
       <c r="AD36" t="n">
-        <v>38248.4</v>
+        <v>38895</v>
       </c>
       <c r="AE36" t="n">
-        <v>69861.60000000001</v>
+        <v>108756.6</v>
       </c>
       <c r="AF36" t="n">
-        <v>4401.7</v>
+        <v>4607.4</v>
       </c>
       <c r="AG36" t="n">
-        <v>8918.5</v>
+        <v>13526</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>3984.799999999999</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1647.8</v>
+      </c>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="n">
+        <v>13031.6</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>10084.2</v>
+      </c>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="n">
+        <v>82460.10000000001</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>34146.7</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>4898</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>3445.700000000001</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>6613.800000000001</v>
+      </c>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="n">
+        <v>9825.299999999999</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>33739.90000000001</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>38895</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>4607.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3870,11 +5420,53 @@
       <c r="AG37" t="n">
         <v>18345.6</v>
       </c>
+      <c r="AH37" t="n">
+        <v>4107.200000000001</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1830.8</v>
+      </c>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="n">
+        <v>13724.3</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>11760.5</v>
+      </c>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="n">
+        <v>88698.99999999997</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>34818.10000000001</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>6532.499999999998</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>4024.699999999999</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>7081.5</v>
+      </c>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="n">
+        <v>11440.1</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>36062.39999999999</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>41196.29999999999</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>4819.599999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3961,193 +5553,319 @@
       <c r="AG38" t="n">
         <v>5277.7</v>
       </c>
+      <c r="AH38" t="n">
+        <v>3702.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1689.5</v>
+      </c>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="n">
+        <v>15252.1</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>4544.7</v>
+      </c>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="n">
+        <v>73979.2</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>29382.8</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>3294.1</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>4098.8</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>6737</v>
+      </c>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="n">
+        <v>4364.8</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>37065.4</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>32549</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>5277.7</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4266.8</v>
+        <v>4137.7</v>
       </c>
       <c r="C39" t="n">
-        <v>12107.1</v>
+        <v>7840.3</v>
       </c>
       <c r="D39" t="n">
-        <v>1722.7</v>
+        <v>1616.3</v>
       </c>
       <c r="E39" t="n">
-        <v>5028.4</v>
+        <v>3305.7</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>14654.8</v>
+        <v>14502.3</v>
       </c>
       <c r="I39" t="n">
-        <v>44409.3</v>
+        <v>29754.4</v>
       </c>
       <c r="J39" t="n">
-        <v>10281.5</v>
+        <v>7104.3</v>
       </c>
       <c r="K39" t="n">
-        <v>21930.6</v>
+        <v>11649</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>89846.89999999999</v>
+        <v>83865.8</v>
       </c>
       <c r="O39" t="n">
-        <v>247691.9</v>
+        <v>157845</v>
       </c>
       <c r="P39" t="n">
-        <v>35371.7</v>
+        <v>33842.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>98596.8</v>
+        <v>63225.1</v>
       </c>
       <c r="R39" t="n">
-        <v>6096.7</v>
+        <v>5684.8</v>
       </c>
       <c r="S39" t="n">
-        <v>15075.6</v>
+        <v>8978.9</v>
       </c>
       <c r="T39" t="n">
-        <v>4643.5</v>
+        <v>4691.5</v>
       </c>
       <c r="U39" t="n">
-        <v>13433.8</v>
+        <v>8790.299999999999</v>
       </c>
       <c r="V39" t="n">
-        <v>7259.1</v>
+        <v>7011.1</v>
       </c>
       <c r="W39" t="n">
-        <v>21007.2</v>
+        <v>13748.1</v>
       </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
-        <v>9994.799999999999</v>
+        <v>6868.3</v>
       </c>
       <c r="AA39" t="n">
-        <v>21227.9</v>
+        <v>11233.1</v>
       </c>
       <c r="AB39" t="n">
-        <v>38539.1</v>
+        <v>37618.9</v>
       </c>
       <c r="AC39" t="n">
-        <v>113223.4</v>
+        <v>74684.3</v>
       </c>
       <c r="AD39" t="n">
-        <v>41313</v>
+        <v>39378.6</v>
       </c>
       <c r="AE39" t="n">
-        <v>113240.6</v>
+        <v>71927.60000000001</v>
       </c>
       <c r="AF39" t="n">
-        <v>5550</v>
+        <v>5275.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>16103.1</v>
+        <v>10553.2</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>4137.8</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1616.2</v>
+      </c>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="n">
+        <v>14502.3</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>7104.3</v>
+      </c>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="n">
+        <v>83865.8</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>33842.3</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>5684.799999999999</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>4691.499999999999</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>7011.1</v>
+      </c>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="n">
+        <v>6868.3</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>37618.9</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>39378.60000000001</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>5275.500000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4137.7</v>
+        <v>4266.8</v>
       </c>
       <c r="C40" t="n">
-        <v>7840.3</v>
+        <v>12107.1</v>
       </c>
       <c r="D40" t="n">
-        <v>1616.3</v>
+        <v>1722.7</v>
       </c>
       <c r="E40" t="n">
-        <v>3305.7</v>
+        <v>5028.4</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>14502.3</v>
+        <v>14654.8</v>
       </c>
       <c r="I40" t="n">
-        <v>29754.4</v>
+        <v>44409.3</v>
       </c>
       <c r="J40" t="n">
-        <v>7104.3</v>
+        <v>10281.5</v>
       </c>
       <c r="K40" t="n">
-        <v>11649</v>
+        <v>21930.6</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>83865.8</v>
+        <v>89846.89999999999</v>
       </c>
       <c r="O40" t="n">
-        <v>157845</v>
+        <v>247691.9</v>
       </c>
       <c r="P40" t="n">
-        <v>33842.3</v>
+        <v>35371.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>63225.1</v>
+        <v>98596.8</v>
       </c>
       <c r="R40" t="n">
-        <v>5684.8</v>
+        <v>6096.7</v>
       </c>
       <c r="S40" t="n">
-        <v>8978.9</v>
+        <v>15075.6</v>
       </c>
       <c r="T40" t="n">
-        <v>4691.5</v>
+        <v>4643.5</v>
       </c>
       <c r="U40" t="n">
-        <v>8790.299999999999</v>
+        <v>13433.8</v>
       </c>
       <c r="V40" t="n">
-        <v>7011.1</v>
+        <v>7259.1</v>
       </c>
       <c r="W40" t="n">
-        <v>13748.1</v>
+        <v>21007.2</v>
       </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="n">
-        <v>6868.3</v>
+        <v>9994.799999999999</v>
       </c>
       <c r="AA40" t="n">
-        <v>11233.1</v>
+        <v>21227.9</v>
       </c>
       <c r="AB40" t="n">
-        <v>37618.9</v>
+        <v>38539.1</v>
       </c>
       <c r="AC40" t="n">
-        <v>74684.3</v>
+        <v>113223.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>39378.6</v>
+        <v>41313</v>
       </c>
       <c r="AE40" t="n">
-        <v>71927.60000000001</v>
+        <v>113240.6</v>
       </c>
       <c r="AF40" t="n">
-        <v>5275.5</v>
+        <v>5550</v>
       </c>
       <c r="AG40" t="n">
-        <v>10553.2</v>
+        <v>16103.1</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>4266.8</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1722.7</v>
+      </c>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="n">
+        <v>14654.9</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>10281.6</v>
+      </c>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="n">
+        <v>89846.89999999999</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>35371.7</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>6096.700000000001</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>4643.5</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>7259.1</v>
+      </c>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="n">
+        <v>9994.800000000001</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>38539.09999999999</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>41313</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>5549.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -4234,11 +5952,53 @@
       <c r="AG41" t="n">
         <v>21836.8</v>
       </c>
+      <c r="AH41" t="n">
+        <v>4415.300000000001</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1928.6</v>
+      </c>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="n">
+        <v>15593.3</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>12729.1</v>
+      </c>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="n">
+        <v>100825.8</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>39495.8</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>7605.9</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>5326.700000000001</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>7997.399999999998</v>
+      </c>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="n">
+        <v>12355.9</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>41541.70000000001</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>46928.19999999998</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>5733.699999999999</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -4325,193 +6085,319 @@
       <c r="AG42" t="n">
         <v>6282.9</v>
       </c>
+      <c r="AH42" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1814.8</v>
+      </c>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="n">
+        <v>17107.9</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>5020.8</v>
+      </c>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="n">
+        <v>87501.3</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>35588.2</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>3939</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>5289.4</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>8258.4</v>
+      </c>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="n">
+        <v>4826</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>43311.1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>39364.2</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>6282.9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4853.8</v>
+        <v>4763.8</v>
       </c>
       <c r="C43" t="n">
-        <v>13817.6</v>
+        <v>8963.799999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>1956.7</v>
+        <v>1768.8</v>
       </c>
       <c r="E43" t="n">
-        <v>5540.3</v>
+        <v>3583.6</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>16954.3</v>
+        <v>16705.8</v>
       </c>
       <c r="I43" t="n">
-        <v>50768</v>
+        <v>33813.7</v>
       </c>
       <c r="J43" t="n">
-        <v>11957</v>
+        <v>8044.6</v>
       </c>
       <c r="K43" t="n">
-        <v>25022.4</v>
+        <v>13065.4</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>105963.7</v>
+        <v>99347.39999999999</v>
       </c>
       <c r="O43" t="n">
-        <v>292812.4</v>
+        <v>186848.7</v>
       </c>
       <c r="P43" t="n">
-        <v>41795.8</v>
+        <v>40837.7</v>
       </c>
       <c r="Q43" t="n">
-        <v>118221.6</v>
+        <v>76425.89999999999</v>
       </c>
       <c r="R43" t="n">
-        <v>7302</v>
+        <v>6771.5</v>
       </c>
       <c r="S43" t="n">
-        <v>18012.5</v>
+        <v>10710.5</v>
       </c>
       <c r="T43" t="n">
-        <v>5623.2</v>
+        <v>5624.9</v>
       </c>
       <c r="U43" t="n">
-        <v>16537.5</v>
+        <v>10914.3</v>
       </c>
       <c r="V43" t="n">
-        <v>9001.5</v>
+        <v>8646.5</v>
       </c>
       <c r="W43" t="n">
-        <v>25906.4</v>
+        <v>16904.9</v>
       </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="n">
-        <v>11633.8</v>
+        <v>7785.6</v>
       </c>
       <c r="AA43" t="n">
-        <v>24245.4</v>
+        <v>12611.6</v>
       </c>
       <c r="AB43" t="n">
-        <v>45423.5</v>
+        <v>44139.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>132874</v>
+        <v>87450.60000000001</v>
       </c>
       <c r="AD43" t="n">
-        <v>48906.4</v>
+        <v>47422.3</v>
       </c>
       <c r="AE43" t="n">
-        <v>135693</v>
+        <v>86786.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>6519.6</v>
+        <v>6183.8</v>
       </c>
       <c r="AG43" t="n">
-        <v>18986.3</v>
+        <v>12466.7</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>4763.799999999999</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1768.8</v>
+      </c>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="n">
+        <v>16705.8</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>8044.599999999999</v>
+      </c>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="n">
+        <v>99347.40000000001</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>40837.7</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>6771.5</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>5624.9</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>8646.500000000002</v>
+      </c>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="n">
+        <v>7785.6</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>44139.50000000001</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>47422.3</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>6183.800000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4763.8</v>
+        <v>4853.8</v>
       </c>
       <c r="C44" t="n">
-        <v>8963.799999999999</v>
+        <v>13817.6</v>
       </c>
       <c r="D44" t="n">
-        <v>1768.8</v>
+        <v>1956.7</v>
       </c>
       <c r="E44" t="n">
-        <v>3583.6</v>
+        <v>5540.3</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>16705.8</v>
+        <v>16954.3</v>
       </c>
       <c r="I44" t="n">
-        <v>33813.7</v>
+        <v>50768</v>
       </c>
       <c r="J44" t="n">
-        <v>8044.6</v>
+        <v>11957</v>
       </c>
       <c r="K44" t="n">
-        <v>13065.4</v>
+        <v>25022.4</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>99347.39999999999</v>
+        <v>105963.7</v>
       </c>
       <c r="O44" t="n">
-        <v>186848.7</v>
+        <v>292812.4</v>
       </c>
       <c r="P44" t="n">
-        <v>40837.7</v>
+        <v>41795.8</v>
       </c>
       <c r="Q44" t="n">
-        <v>76425.89999999999</v>
+        <v>118221.6</v>
       </c>
       <c r="R44" t="n">
-        <v>6771.5</v>
+        <v>7302</v>
       </c>
       <c r="S44" t="n">
-        <v>10710.5</v>
+        <v>18012.5</v>
       </c>
       <c r="T44" t="n">
-        <v>5624.9</v>
+        <v>5623.2</v>
       </c>
       <c r="U44" t="n">
-        <v>10914.3</v>
+        <v>16537.5</v>
       </c>
       <c r="V44" t="n">
-        <v>8646.5</v>
+        <v>9001.5</v>
       </c>
       <c r="W44" t="n">
-        <v>16904.9</v>
+        <v>25906.4</v>
       </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="n">
-        <v>7785.6</v>
+        <v>11633.8</v>
       </c>
       <c r="AA44" t="n">
-        <v>12611.6</v>
+        <v>24245.4</v>
       </c>
       <c r="AB44" t="n">
-        <v>44139.5</v>
+        <v>45423.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>87450.60000000001</v>
+        <v>132874</v>
       </c>
       <c r="AD44" t="n">
-        <v>47422.3</v>
+        <v>48906.4</v>
       </c>
       <c r="AE44" t="n">
-        <v>86786.5</v>
+        <v>135693</v>
       </c>
       <c r="AF44" t="n">
-        <v>6183.8</v>
+        <v>6519.6</v>
       </c>
       <c r="AG44" t="n">
-        <v>12466.7</v>
+        <v>18986.3</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>4853.800000000001</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1956.7</v>
+      </c>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="n">
+        <v>16954.3</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>11957</v>
+      </c>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="n">
+        <v>105963.7</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>41795.70000000001</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>7302</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>5623.200000000001</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>9001.5</v>
+      </c>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="n">
+        <v>11633.8</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>45423.39999999999</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>48906.5</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>6519.599999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4598,11 +6484,53 @@
       <c r="AG45" t="n">
         <v>25733.1</v>
       </c>
+      <c r="AH45" t="n">
+        <v>4965.999999999998</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>2171.7</v>
+      </c>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="n">
+        <v>17886.7</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>14596.6</v>
+      </c>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="n">
+        <v>119306.9</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>46901.5</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>9246.799999999999</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>6789.099999999999</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>10001.5</v>
+      </c>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="n">
+        <v>14185.4</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>49187.89999999999</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>55933.5</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>6746.799999999999</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -4689,193 +6617,319 @@
       <c r="AG46" t="n">
         <v>7805.7</v>
       </c>
+      <c r="AH46" t="n">
+        <v>4865.6</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1996</v>
+      </c>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="n">
+        <v>20057.7</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>5808.3</v>
+      </c>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="n">
+        <v>104469.9</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>42670.3</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>4749</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>6541.9</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>9975.299999999999</v>
+      </c>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="n">
+        <v>5592.8</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>51683.2</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>47194</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>7805.7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5685.7</v>
+        <v>5518.1</v>
       </c>
       <c r="C47" t="n">
-        <v>16069.4</v>
+        <v>10383.7</v>
       </c>
       <c r="D47" t="n">
-        <v>2186.3</v>
+        <v>1961.9</v>
       </c>
       <c r="E47" t="n">
-        <v>6144.2</v>
+        <v>3957.9</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>20181.9</v>
+        <v>19922.1</v>
       </c>
       <c r="I47" t="n">
-        <v>60161.7</v>
+        <v>39979.8</v>
       </c>
       <c r="J47" t="n">
-        <v>14219.6</v>
+        <v>9440.9</v>
       </c>
       <c r="K47" t="n">
-        <v>29468.8</v>
+        <v>15249.2</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>126562.2</v>
+        <v>118895.9</v>
       </c>
       <c r="O47" t="n">
-        <v>349928</v>
+        <v>223365.8</v>
       </c>
       <c r="P47" t="n">
-        <v>49915.8</v>
+        <v>48964.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>141550.7</v>
+        <v>91634.89999999999</v>
       </c>
       <c r="R47" t="n">
-        <v>8970.4</v>
+        <v>8178</v>
       </c>
       <c r="S47" t="n">
-        <v>21897.4</v>
+        <v>12927</v>
       </c>
       <c r="T47" t="n">
-        <v>6773.7</v>
+        <v>6809.9</v>
       </c>
       <c r="U47" t="n">
-        <v>20125.5</v>
+        <v>13351.8</v>
       </c>
       <c r="V47" t="n">
-        <v>11040.3</v>
+        <v>10534.6</v>
       </c>
       <c r="W47" t="n">
-        <v>31550.2</v>
+        <v>20509.9</v>
       </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="n">
-        <v>13855.6</v>
+        <v>9143.299999999999</v>
       </c>
       <c r="AA47" t="n">
-        <v>28591.7</v>
+        <v>14736.1</v>
       </c>
       <c r="AB47" t="n">
-        <v>54084</v>
+        <v>52868.6</v>
       </c>
       <c r="AC47" t="n">
-        <v>158635.9</v>
+        <v>104551.8</v>
       </c>
       <c r="AD47" t="n">
-        <v>58622.5</v>
+        <v>56884</v>
       </c>
       <c r="AE47" t="n">
-        <v>162700.5</v>
+        <v>104077.9</v>
       </c>
       <c r="AF47" t="n">
-        <v>7588.4</v>
+        <v>7565.9</v>
       </c>
       <c r="AG47" t="n">
-        <v>22960.1</v>
+        <v>15371.6</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>5518.1</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1961.9</v>
+      </c>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="n">
+        <v>19922.1</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>9440.900000000001</v>
+      </c>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="n">
+        <v>118895.9</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>48964.59999999999</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>8178</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>6809.9</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>10534.6</v>
+      </c>
+      <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="n">
+        <v>9143.299999999999</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>52868.60000000001</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>56883.89999999999</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>7565.900000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5518.1</v>
+        <v>5685.7</v>
       </c>
       <c r="C48" t="n">
-        <v>10383.7</v>
+        <v>16069.4</v>
       </c>
       <c r="D48" t="n">
-        <v>1961.9</v>
+        <v>2186.3</v>
       </c>
       <c r="E48" t="n">
-        <v>3957.9</v>
+        <v>6144.2</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>19922.1</v>
+        <v>20181.9</v>
       </c>
       <c r="I48" t="n">
-        <v>39979.8</v>
+        <v>60161.7</v>
       </c>
       <c r="J48" t="n">
-        <v>9440.9</v>
+        <v>14219.6</v>
       </c>
       <c r="K48" t="n">
-        <v>15249.2</v>
+        <v>29468.8</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>118895.9</v>
+        <v>126562.2</v>
       </c>
       <c r="O48" t="n">
-        <v>223365.8</v>
+        <v>349928</v>
       </c>
       <c r="P48" t="n">
-        <v>48964.6</v>
+        <v>49915.8</v>
       </c>
       <c r="Q48" t="n">
-        <v>91634.89999999999</v>
+        <v>141550.7</v>
       </c>
       <c r="R48" t="n">
-        <v>8178</v>
+        <v>8970.4</v>
       </c>
       <c r="S48" t="n">
-        <v>12927</v>
+        <v>21897.4</v>
       </c>
       <c r="T48" t="n">
-        <v>6809.9</v>
+        <v>6773.7</v>
       </c>
       <c r="U48" t="n">
-        <v>13351.8</v>
+        <v>20125.5</v>
       </c>
       <c r="V48" t="n">
-        <v>10534.6</v>
+        <v>11040.3</v>
       </c>
       <c r="W48" t="n">
-        <v>20509.9</v>
+        <v>31550.2</v>
       </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="n">
-        <v>9143.299999999999</v>
+        <v>13855.6</v>
       </c>
       <c r="AA48" t="n">
-        <v>14736.1</v>
+        <v>28591.7</v>
       </c>
       <c r="AB48" t="n">
-        <v>52868.6</v>
+        <v>54084</v>
       </c>
       <c r="AC48" t="n">
-        <v>104551.8</v>
+        <v>158635.9</v>
       </c>
       <c r="AD48" t="n">
-        <v>56884</v>
+        <v>58622.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>104077.9</v>
+        <v>162700.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>7565.9</v>
+        <v>7588.4</v>
       </c>
       <c r="AG48" t="n">
-        <v>15371.6</v>
+        <v>22960.1</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>5685.699999999999</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2186.3</v>
+      </c>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="n">
+        <v>20181.89999999999</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>14219.6</v>
+      </c>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="n">
+        <v>126562.2</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>49915.80000000002</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>8970.400000000001</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>6773.700000000001</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>11040.3</v>
+      </c>
+      <c r="AS48" t="inlineStr"/>
+      <c r="AT48" t="n">
+        <v>13855.6</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>54084.09999999999</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>58622.60000000001</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>7588.499999999998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4962,11 +7016,53 @@
       <c r="AG49" t="n">
         <v>30747.2</v>
       </c>
+      <c r="AH49" t="n">
+        <v>5772.6</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>2421.2</v>
+      </c>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="n">
+        <v>20920.5</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>16653.8</v>
+      </c>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="n">
+        <v>138012.2</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>53588.39999999999</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>11029.1</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>7655.200000000001</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>12184.3</v>
+      </c>
+      <c r="AS49" t="inlineStr"/>
+      <c r="AT49" t="n">
+        <v>16189.8</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>57487.70000000001</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>64334.60000000001</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>7787.100000000002</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -5053,193 +7149,319 @@
       <c r="AG50" t="n">
         <v>8846.700000000001</v>
       </c>
+      <c r="AH50" t="n">
+        <v>5284.2</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>2230.9</v>
+      </c>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="n">
+        <v>23314.8</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>6685.4</v>
+      </c>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="n">
+        <v>117357.6</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>47151</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>5426.7</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>6890.2</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>11527.6</v>
+      </c>
+      <c r="AS50" t="inlineStr"/>
+      <c r="AT50" t="n">
+        <v>6446</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>58595.5</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>52316.2</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>8846.700000000001</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>6117.8</v>
+        <v>6030.5</v>
       </c>
       <c r="C51" t="n">
-        <v>17432.5</v>
+        <v>11314.7</v>
       </c>
       <c r="D51" t="n">
-        <v>2433.5</v>
+        <v>2181.6</v>
       </c>
       <c r="E51" t="n">
-        <v>6846</v>
+        <v>4412.5</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>22981.5</v>
+        <v>23026.4</v>
       </c>
       <c r="I51" t="n">
-        <v>69322.8</v>
+        <v>46341.2</v>
       </c>
       <c r="J51" t="n">
-        <v>15070.2</v>
+        <v>10238.5</v>
       </c>
       <c r="K51" t="n">
-        <v>31994.1</v>
+        <v>16923.9</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>138089.6</v>
+        <v>131320.6</v>
       </c>
       <c r="O51" t="n">
-        <v>386767.9</v>
+        <v>248678.3</v>
       </c>
       <c r="P51" t="n">
-        <v>52451.1</v>
+        <v>52495.9</v>
       </c>
       <c r="Q51" t="n">
-        <v>152098</v>
+        <v>99647</v>
       </c>
       <c r="R51" t="n">
-        <v>10096</v>
+        <v>9228.4</v>
       </c>
       <c r="S51" t="n">
-        <v>24751</v>
+        <v>14655</v>
       </c>
       <c r="T51" t="n">
-        <v>7677.6</v>
+        <v>7397.6</v>
       </c>
       <c r="U51" t="n">
-        <v>21965.3</v>
+        <v>14287.8</v>
       </c>
       <c r="V51" t="n">
-        <v>12452.9</v>
+        <v>12014.9</v>
       </c>
       <c r="W51" t="n">
-        <v>35995.4</v>
+        <v>23542.5</v>
       </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="n">
-        <v>14656</v>
+        <v>9911.4</v>
       </c>
       <c r="AA51" t="n">
-        <v>31013.4</v>
+        <v>16357.3</v>
       </c>
       <c r="AB51" t="n">
-        <v>61177.4</v>
+        <v>59976.1</v>
       </c>
       <c r="AC51" t="n">
-        <v>179749</v>
+        <v>118571.6</v>
       </c>
       <c r="AD51" t="n">
-        <v>62256.2</v>
+        <v>61433.2</v>
       </c>
       <c r="AE51" t="n">
-        <v>176005.6</v>
+        <v>113749.4</v>
       </c>
       <c r="AF51" t="n">
-        <v>8809</v>
+        <v>8707</v>
       </c>
       <c r="AG51" t="n">
-        <v>26362.8</v>
+        <v>17553.7</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>6030.500000000001</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2181.6</v>
+      </c>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="n">
+        <v>23026.4</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>10238.5</v>
+      </c>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="n">
+        <v>131320.7</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>52496</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>9228.299999999999</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>7397.599999999999</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>12014.9</v>
+      </c>
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="n">
+        <v>9911.299999999999</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>59976.10000000001</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>61433.2</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>8707</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6030.5</v>
+        <v>6117.8</v>
       </c>
       <c r="C52" t="n">
-        <v>11314.7</v>
+        <v>17432.5</v>
       </c>
       <c r="D52" t="n">
-        <v>2181.6</v>
+        <v>2433.5</v>
       </c>
       <c r="E52" t="n">
-        <v>4412.5</v>
+        <v>6846</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>23026.4</v>
+        <v>22981.5</v>
       </c>
       <c r="I52" t="n">
-        <v>46341.2</v>
+        <v>69322.8</v>
       </c>
       <c r="J52" t="n">
-        <v>10238.5</v>
+        <v>15070.2</v>
       </c>
       <c r="K52" t="n">
-        <v>16923.9</v>
+        <v>31994.1</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>131320.6</v>
+        <v>138089.6</v>
       </c>
       <c r="O52" t="n">
-        <v>248678.3</v>
+        <v>386767.9</v>
       </c>
       <c r="P52" t="n">
-        <v>52495.9</v>
+        <v>52451.1</v>
       </c>
       <c r="Q52" t="n">
-        <v>99647</v>
+        <v>152098</v>
       </c>
       <c r="R52" t="n">
-        <v>9228.4</v>
+        <v>10096</v>
       </c>
       <c r="S52" t="n">
-        <v>14655</v>
+        <v>24751</v>
       </c>
       <c r="T52" t="n">
-        <v>7397.6</v>
+        <v>7677.6</v>
       </c>
       <c r="U52" t="n">
-        <v>14287.8</v>
+        <v>21965.3</v>
       </c>
       <c r="V52" t="n">
-        <v>12014.9</v>
+        <v>12452.9</v>
       </c>
       <c r="W52" t="n">
-        <v>23542.5</v>
+        <v>35995.4</v>
       </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="n">
-        <v>9911.4</v>
+        <v>14656</v>
       </c>
       <c r="AA52" t="n">
-        <v>16357.3</v>
+        <v>31013.4</v>
       </c>
       <c r="AB52" t="n">
-        <v>59976.1</v>
+        <v>61177.4</v>
       </c>
       <c r="AC52" t="n">
-        <v>118571.6</v>
+        <v>179749</v>
       </c>
       <c r="AD52" t="n">
-        <v>61433.2</v>
+        <v>62256.2</v>
       </c>
       <c r="AE52" t="n">
-        <v>113749.4</v>
+        <v>176005.6</v>
       </c>
       <c r="AF52" t="n">
-        <v>8707</v>
+        <v>8809</v>
       </c>
       <c r="AG52" t="n">
-        <v>17553.7</v>
+        <v>26362.8</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>6117.799999999999</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>2433.5</v>
+      </c>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="n">
+        <v>22981.60000000001</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>15070.2</v>
+      </c>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="n">
+        <v>138089.6</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>52451</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>10096</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>7677.5</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>12452.9</v>
+      </c>
+      <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="n">
+        <v>14656.1</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>61177.39999999999</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>62256.20000000001</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>8809.099999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -5326,11 +7548,53 @@
       <c r="AG53" t="n">
         <v>35272.2</v>
       </c>
+      <c r="AH53" t="n">
+        <v>6330.700000000001</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>2690.9</v>
+      </c>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="n">
+        <v>23718.8</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>18587.1</v>
+      </c>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="n">
+        <v>151812.1</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>56803.39999999999</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>12145.1</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>8786.600000000002</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>13840.1</v>
+      </c>
+      <c r="AS53" t="inlineStr"/>
+      <c r="AT53" t="n">
+        <v>18071.2</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>65107.20000000001</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>68633.5</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>8909.399999999998</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -5417,193 +7681,319 @@
       <c r="AG54" t="n">
         <v>10406.7</v>
       </c>
+      <c r="AH54" t="n">
+        <v>5816.3</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>2394.5</v>
+      </c>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="n">
+        <v>26357.4</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>7130.2</v>
+      </c>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="n">
+        <v>129449.6</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>50127.3</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>6022.1</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>8214.799999999999</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>12980.3</v>
+      </c>
+      <c r="AS54" t="inlineStr"/>
+      <c r="AT54" t="n">
+        <v>6869.1</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>66719.3</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>55861.2</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>10406.7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6768.6</v>
+        <v>6529.6</v>
       </c>
       <c r="C55" t="n">
-        <v>19114.5</v>
+        <v>12345.9</v>
       </c>
       <c r="D55" t="n">
-        <v>2608.7</v>
+        <v>2341.1</v>
       </c>
       <c r="E55" t="n">
-        <v>7344.3</v>
+        <v>4735.6</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>26233</v>
+        <v>26240.1</v>
       </c>
       <c r="I55" t="n">
-        <v>78830.39999999999</v>
+        <v>52597.4</v>
       </c>
       <c r="J55" t="n">
-        <v>16367</v>
+        <v>10748.2</v>
       </c>
       <c r="K55" t="n">
-        <v>34245.4</v>
+        <v>17878.4</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>152222.7</v>
+        <v>143518.7</v>
       </c>
       <c r="O55" t="n">
-        <v>425190.9</v>
+        <v>272968.2</v>
       </c>
       <c r="P55" t="n">
-        <v>55882.1</v>
+        <v>55266.2</v>
       </c>
       <c r="Q55" t="n">
-        <v>161275.6</v>
+        <v>105393.6</v>
       </c>
       <c r="R55" t="n">
-        <v>11188</v>
+        <v>10181.8</v>
       </c>
       <c r="S55" t="n">
-        <v>27391.9</v>
+        <v>16203.9</v>
       </c>
       <c r="T55" t="n">
-        <v>8761.299999999999</v>
+        <v>8513.5</v>
       </c>
       <c r="U55" t="n">
-        <v>25489.5</v>
+        <v>16728.3</v>
       </c>
       <c r="V55" t="n">
-        <v>14094.2</v>
+        <v>13512.2</v>
       </c>
       <c r="W55" t="n">
-        <v>40586.7</v>
+        <v>26492.5</v>
       </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="n">
-        <v>15904.9</v>
+        <v>10389.7</v>
       </c>
       <c r="AA55" t="n">
-        <v>33163.7</v>
+        <v>17258.8</v>
       </c>
       <c r="AB55" t="n">
-        <v>69569.10000000001</v>
+        <v>67998.60000000001</v>
       </c>
       <c r="AC55" t="n">
-        <v>204287</v>
+        <v>134717.9</v>
       </c>
       <c r="AD55" t="n">
-        <v>66748.7</v>
+        <v>65130.3</v>
       </c>
       <c r="AE55" t="n">
-        <v>187740.2</v>
+        <v>120991.5</v>
       </c>
       <c r="AF55" t="n">
-        <v>10319.9</v>
+        <v>10186</v>
       </c>
       <c r="AG55" t="n">
-        <v>30912.6</v>
+        <v>20592.7</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>6529.599999999999</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>2341.1</v>
+      </c>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="n">
+        <v>26240</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>10748.2</v>
+      </c>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="n">
+        <v>143518.6</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>55266.3</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>10181.8</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>8513.5</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>13512.2</v>
+      </c>
+      <c r="AS55" t="inlineStr"/>
+      <c r="AT55" t="n">
+        <v>10389.7</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>67998.59999999999</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>65130.3</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>10186</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6529.6</v>
+        <v>6768.6</v>
       </c>
       <c r="C56" t="n">
-        <v>12345.9</v>
+        <v>19114.5</v>
       </c>
       <c r="D56" t="n">
-        <v>2341.1</v>
+        <v>2608.7</v>
       </c>
       <c r="E56" t="n">
-        <v>4735.6</v>
+        <v>7344.3</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>26240.1</v>
+        <v>26233</v>
       </c>
       <c r="I56" t="n">
-        <v>52597.4</v>
+        <v>78830.39999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>10748.2</v>
+        <v>16367</v>
       </c>
       <c r="K56" t="n">
-        <v>17878.4</v>
+        <v>34245.4</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>143518.7</v>
+        <v>152222.7</v>
       </c>
       <c r="O56" t="n">
-        <v>272968.2</v>
+        <v>425190.9</v>
       </c>
       <c r="P56" t="n">
-        <v>55266.2</v>
+        <v>55882.1</v>
       </c>
       <c r="Q56" t="n">
-        <v>105393.6</v>
+        <v>161275.6</v>
       </c>
       <c r="R56" t="n">
-        <v>10181.8</v>
+        <v>11188</v>
       </c>
       <c r="S56" t="n">
-        <v>16203.9</v>
+        <v>27391.9</v>
       </c>
       <c r="T56" t="n">
-        <v>8513.5</v>
+        <v>8761.299999999999</v>
       </c>
       <c r="U56" t="n">
-        <v>16728.3</v>
+        <v>25489.5</v>
       </c>
       <c r="V56" t="n">
-        <v>13512.2</v>
+        <v>14094.2</v>
       </c>
       <c r="W56" t="n">
-        <v>26492.5</v>
+        <v>40586.7</v>
       </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="n">
-        <v>10389.7</v>
+        <v>15904.9</v>
       </c>
       <c r="AA56" t="n">
-        <v>17258.8</v>
+        <v>33163.7</v>
       </c>
       <c r="AB56" t="n">
-        <v>67998.60000000001</v>
+        <v>69569.10000000001</v>
       </c>
       <c r="AC56" t="n">
-        <v>134717.9</v>
+        <v>204287</v>
       </c>
       <c r="AD56" t="n">
-        <v>65130.3</v>
+        <v>66748.7</v>
       </c>
       <c r="AE56" t="n">
-        <v>120991.5</v>
+        <v>187740.2</v>
       </c>
       <c r="AF56" t="n">
-        <v>10186</v>
+        <v>10319.9</v>
       </c>
       <c r="AG56" t="n">
-        <v>20592.7</v>
+        <v>30912.6</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>6768.6</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>2608.7</v>
+      </c>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="n">
+        <v>26232.99999999999</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>16367</v>
+      </c>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="n">
+        <v>152222.7</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>55882</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>11188</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>8761.200000000001</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>14094.2</v>
+      </c>
+      <c r="AS56" t="inlineStr"/>
+      <c r="AT56" t="n">
+        <v>15904.9</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>69569.10000000001</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>66748.70000000001</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>10319.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -5690,11 +8080,53 @@
       <c r="AG57" t="n">
         <v>41293.4</v>
       </c>
+      <c r="AH57" t="n">
+        <v>6928.200000000001</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>2883.999999999999</v>
+      </c>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="n">
+        <v>27016.90000000001</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>20447</v>
+      </c>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="n">
+        <v>167772.2999999999</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>61057.60000000001</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>13504.9</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>9850.900000000001</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>15702.2</v>
+      </c>
+      <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="n">
+        <v>19864.4</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>73696.5</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>74211.39999999999</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>10380.8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -5781,193 +8213,319 @@
       <c r="AG58" t="n">
         <v>11815.1</v>
       </c>
+      <c r="AH58" t="n">
+        <v>6317.1</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>2634.1</v>
+      </c>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="n">
+        <v>29628.4</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>7428.5</v>
+      </c>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="n">
+        <v>140759.8</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>52659.5</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>6764.7</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>8876.9</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>14635.5</v>
+      </c>
+      <c r="AS58" t="inlineStr"/>
+      <c r="AT58" t="n">
+        <v>7140</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>74492.39999999999</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>59127.4</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>11815.1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7411</v>
+        <v>7197</v>
       </c>
       <c r="C59" t="n">
-        <v>20925.1</v>
+        <v>13514.1</v>
       </c>
       <c r="D59" t="n">
-        <v>2858</v>
+        <v>2577.1</v>
       </c>
       <c r="E59" t="n">
-        <v>8069.2</v>
+        <v>5211.2</v>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>29775.4</v>
+        <v>29595.8</v>
       </c>
       <c r="I59" t="n">
-        <v>88999.60000000001</v>
+        <v>59224.2</v>
       </c>
       <c r="J59" t="n">
-        <v>17371</v>
+        <v>11500.6</v>
       </c>
       <c r="K59" t="n">
-        <v>36300.1</v>
+        <v>18929.1</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>165484.7</v>
+        <v>156489.6</v>
       </c>
       <c r="O59" t="n">
-        <v>462734.2</v>
+        <v>297249.5</v>
       </c>
       <c r="P59" t="n">
-        <v>58904</v>
+        <v>58432.3</v>
       </c>
       <c r="Q59" t="n">
-        <v>169995.8</v>
+        <v>111091.8</v>
       </c>
       <c r="R59" t="n">
-        <v>12400</v>
+        <v>11355.4</v>
       </c>
       <c r="S59" t="n">
-        <v>30520.2</v>
+        <v>18120.1</v>
       </c>
       <c r="T59" t="n">
-        <v>9332.5</v>
+        <v>9188.6</v>
       </c>
       <c r="U59" t="n">
-        <v>27398</v>
+        <v>18065.5</v>
       </c>
       <c r="V59" t="n">
-        <v>15812.2</v>
+        <v>15265.1</v>
       </c>
       <c r="W59" t="n">
-        <v>45712.8</v>
+        <v>29900.6</v>
       </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="n">
-        <v>16854.9</v>
+        <v>11109.4</v>
       </c>
       <c r="AA59" t="n">
-        <v>35104.3</v>
+        <v>18249.4</v>
       </c>
       <c r="AB59" t="n">
-        <v>77658.7</v>
+        <v>75921.89999999999</v>
       </c>
       <c r="AC59" t="n">
-        <v>228073</v>
+        <v>150414.3</v>
       </c>
       <c r="AD59" t="n">
-        <v>70971.10000000001</v>
+        <v>69458.3</v>
       </c>
       <c r="AE59" t="n">
-        <v>199556.9</v>
+        <v>128585.8</v>
       </c>
       <c r="AF59" t="n">
-        <v>11620.7</v>
+        <v>11377.7</v>
       </c>
       <c r="AG59" t="n">
-        <v>34813.5</v>
+        <v>23192.8</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>7197</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>2577.1</v>
+      </c>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="n">
+        <v>29595.8</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>11500.6</v>
+      </c>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="n">
+        <v>156489.7</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>58432.3</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>11355.4</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>9188.6</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>15265.1</v>
+      </c>
+      <c r="AS59" t="inlineStr"/>
+      <c r="AT59" t="n">
+        <v>11109.4</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>75921.89999999999</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>69458.39999999999</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>11377.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7197</v>
+        <v>7411</v>
       </c>
       <c r="C60" t="n">
-        <v>13514.1</v>
+        <v>20925.1</v>
       </c>
       <c r="D60" t="n">
-        <v>2577.1</v>
+        <v>2858</v>
       </c>
       <c r="E60" t="n">
-        <v>5211.2</v>
+        <v>8069.2</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>29595.8</v>
+        <v>29775.4</v>
       </c>
       <c r="I60" t="n">
-        <v>59224.2</v>
+        <v>88999.60000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>11500.6</v>
+        <v>17371</v>
       </c>
       <c r="K60" t="n">
-        <v>18929.1</v>
+        <v>36300.1</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>156489.6</v>
+        <v>165484.7</v>
       </c>
       <c r="O60" t="n">
-        <v>297249.5</v>
+        <v>462734.2</v>
       </c>
       <c r="P60" t="n">
-        <v>58432.3</v>
+        <v>58904</v>
       </c>
       <c r="Q60" t="n">
-        <v>111091.8</v>
+        <v>169995.8</v>
       </c>
       <c r="R60" t="n">
-        <v>11355.4</v>
+        <v>12400</v>
       </c>
       <c r="S60" t="n">
-        <v>18120.1</v>
+        <v>30520.2</v>
       </c>
       <c r="T60" t="n">
-        <v>9188.6</v>
+        <v>9332.5</v>
       </c>
       <c r="U60" t="n">
-        <v>18065.5</v>
+        <v>27398</v>
       </c>
       <c r="V60" t="n">
-        <v>15265.1</v>
+        <v>15812.2</v>
       </c>
       <c r="W60" t="n">
-        <v>29900.6</v>
+        <v>45712.8</v>
       </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="n">
-        <v>11109.4</v>
+        <v>16854.9</v>
       </c>
       <c r="AA60" t="n">
-        <v>18249.4</v>
+        <v>35104.3</v>
       </c>
       <c r="AB60" t="n">
-        <v>75921.89999999999</v>
+        <v>77658.7</v>
       </c>
       <c r="AC60" t="n">
-        <v>150414.3</v>
+        <v>228073</v>
       </c>
       <c r="AD60" t="n">
-        <v>69458.3</v>
+        <v>70971.10000000001</v>
       </c>
       <c r="AE60" t="n">
-        <v>128585.8</v>
+        <v>199556.9</v>
       </c>
       <c r="AF60" t="n">
-        <v>11377.7</v>
+        <v>11620.7</v>
       </c>
       <c r="AG60" t="n">
-        <v>23192.8</v>
+        <v>34813.5</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>7410.999999999998</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="n">
+        <v>29775.40000000001</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>17371</v>
+      </c>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="n">
+        <v>165484.7</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>58903.99999999999</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>12400.1</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>9332.5</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>15812.2</v>
+      </c>
+      <c r="AS60" t="inlineStr"/>
+      <c r="AT60" t="n">
+        <v>16854.9</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>77658.70000000001</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>70971.09999999999</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>11620.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -6054,11 +8612,53 @@
       <c r="AG61" t="n">
         <v>46853.4</v>
       </c>
+      <c r="AH61" t="n">
+        <v>7609.300000000003</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3159.500000000001</v>
+      </c>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="n">
+        <v>30618.89999999999</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>21172.1</v>
+      </c>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="n">
+        <v>180828.9</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>63201.60000000001</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>14881.5</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>10688.4</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>17457.6</v>
+      </c>
+      <c r="AS61" t="inlineStr"/>
+      <c r="AT61" t="n">
+        <v>20522</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>82581</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>77725.89999999999</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>12039.9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -6155,219 +8755,363 @@
         <v>14110.4</v>
       </c>
       <c r="AG62" t="n">
+        <v>14110.4</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>6810.5</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>2876.2</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>4485.1</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>24987.9</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>7686.8</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>45066.6</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>151137.9</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>53471.1</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>7350.9</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>9457.4</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>15649.5</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>4252</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>7373.2</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>83258.8</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>60505.9</v>
+      </c>
+      <c r="AW62" t="n">
         <v>14110.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7909.4</v>
+        <v>7702.4</v>
       </c>
       <c r="C63" t="n">
-        <v>22422.2</v>
+        <v>14512.8</v>
       </c>
       <c r="D63" t="n">
-        <v>3145.9</v>
+        <v>2815.2</v>
       </c>
       <c r="E63" t="n">
-        <v>8837.299999999999</v>
+        <v>5691.4</v>
       </c>
       <c r="F63" t="n">
-        <v>4048.6</v>
+        <v>4524</v>
       </c>
       <c r="G63" t="n">
-        <v>13057.8</v>
+        <v>9009.1</v>
       </c>
       <c r="H63" t="n">
-        <v>25519.1</v>
+        <v>24872.6</v>
       </c>
       <c r="I63" t="n">
-        <v>75379.60000000001</v>
+        <v>49860.5</v>
       </c>
       <c r="J63" t="n">
-        <v>17739.2</v>
+        <v>12296.2</v>
       </c>
       <c r="K63" t="n">
-        <v>37722.2</v>
+        <v>19983</v>
       </c>
       <c r="L63" t="n">
-        <v>49819.8</v>
+        <v>50493.3</v>
       </c>
       <c r="M63" t="n">
-        <v>145379.7</v>
+        <v>95559.89999999999</v>
       </c>
       <c r="N63" t="n">
-        <v>176597.7</v>
+        <v>168549.7</v>
       </c>
       <c r="O63" t="n">
-        <v>496285.3</v>
+        <v>319687.6</v>
       </c>
       <c r="P63" t="n">
-        <v>58993</v>
+        <v>59327.9</v>
       </c>
       <c r="Q63" t="n">
-        <v>171792</v>
+        <v>112799</v>
       </c>
       <c r="R63" t="n">
-        <v>12883.5</v>
+        <v>11972.9</v>
       </c>
       <c r="S63" t="n">
-        <v>32207.4</v>
+        <v>19323.9</v>
       </c>
       <c r="T63" t="n">
-        <v>10651.9</v>
+        <v>10459.3</v>
       </c>
       <c r="U63" t="n">
-        <v>30568.5</v>
+        <v>19916.7</v>
       </c>
       <c r="V63" t="n">
-        <v>16978.4</v>
+        <v>16318.6</v>
       </c>
       <c r="W63" t="n">
-        <v>48946.5</v>
+        <v>31968.1</v>
       </c>
       <c r="X63" t="n">
-        <v>4671.2</v>
+        <v>4282.6</v>
       </c>
       <c r="Y63" t="n">
-        <v>13205.8</v>
+        <v>8534.6</v>
       </c>
       <c r="Z63" t="n">
-        <v>17173.1</v>
+        <v>11852.2</v>
       </c>
       <c r="AA63" t="n">
-        <v>36398.5</v>
+        <v>19225.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>87897.89999999999</v>
+        <v>85747.39999999999</v>
       </c>
       <c r="AC63" t="n">
-        <v>256904.1</v>
+        <v>169006.2</v>
       </c>
       <c r="AD63" t="n">
-        <v>71526.7</v>
+        <v>70950</v>
       </c>
       <c r="AE63" t="n">
-        <v>202982.7</v>
+        <v>131455.9</v>
       </c>
       <c r="AF63" t="n">
-        <v>14057.5</v>
+        <v>13978</v>
       </c>
       <c r="AG63" t="n">
-        <v>42145.9</v>
+        <v>28088.4</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>7702.299999999999</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>2815.2</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>4524</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>24872.6</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>12296.2</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>50493.3</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>168549.7</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>59327.9</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>11973</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>10459.3</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>16318.6</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>4282.6</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>11852.3</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>85747.40000000001</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>70950</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>13978</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>7702.4</v>
+        <v>7909.4</v>
       </c>
       <c r="C64" t="n">
-        <v>14512.8</v>
+        <v>22422.2</v>
       </c>
       <c r="D64" t="n">
-        <v>2815.2</v>
+        <v>3145.9</v>
       </c>
       <c r="E64" t="n">
-        <v>5691.4</v>
+        <v>8837.299999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>4524</v>
+        <v>4048.6</v>
       </c>
       <c r="G64" t="n">
-        <v>9009.1</v>
+        <v>13057.8</v>
       </c>
       <c r="H64" t="n">
-        <v>24872.6</v>
+        <v>25519.1</v>
       </c>
       <c r="I64" t="n">
-        <v>49860.5</v>
+        <v>75379.60000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>12296.2</v>
+        <v>17739.2</v>
       </c>
       <c r="K64" t="n">
-        <v>19983</v>
+        <v>37722.2</v>
       </c>
       <c r="L64" t="n">
-        <v>50493.3</v>
+        <v>49819.8</v>
       </c>
       <c r="M64" t="n">
-        <v>95559.89999999999</v>
+        <v>145379.7</v>
       </c>
       <c r="N64" t="n">
-        <v>168549.7</v>
+        <v>176597.7</v>
       </c>
       <c r="O64" t="n">
-        <v>319687.6</v>
+        <v>496285.3</v>
       </c>
       <c r="P64" t="n">
-        <v>59327.9</v>
+        <v>58993</v>
       </c>
       <c r="Q64" t="n">
-        <v>112799</v>
+        <v>171792</v>
       </c>
       <c r="R64" t="n">
-        <v>11972.9</v>
+        <v>12883.5</v>
       </c>
       <c r="S64" t="n">
-        <v>19323.9</v>
+        <v>32207.4</v>
       </c>
       <c r="T64" t="n">
-        <v>10459.3</v>
+        <v>10651.9</v>
       </c>
       <c r="U64" t="n">
-        <v>19916.7</v>
+        <v>30568.5</v>
       </c>
       <c r="V64" t="n">
-        <v>16318.6</v>
+        <v>16978.4</v>
       </c>
       <c r="W64" t="n">
-        <v>31968.1</v>
+        <v>48946.5</v>
       </c>
       <c r="X64" t="n">
-        <v>4282.6</v>
+        <v>4671.2</v>
       </c>
       <c r="Y64" t="n">
-        <v>8534.6</v>
+        <v>13205.8</v>
       </c>
       <c r="Z64" t="n">
-        <v>11852.2</v>
+        <v>17173.1</v>
       </c>
       <c r="AA64" t="n">
-        <v>19225.5</v>
+        <v>36398.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>85747.39999999999</v>
+        <v>87897.89999999999</v>
       </c>
       <c r="AC64" t="n">
-        <v>169006.2</v>
+        <v>256904.1</v>
       </c>
       <c r="AD64" t="n">
-        <v>70950</v>
+        <v>71526.7</v>
       </c>
       <c r="AE64" t="n">
-        <v>131455.9</v>
+        <v>202982.7</v>
       </c>
       <c r="AF64" t="n">
-        <v>13978</v>
+        <v>14057.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>28088.4</v>
+        <v>42145.9</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>7909.400000000001</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>3145.9</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>4048.699999999999</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>25519.10000000001</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>17739.2</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>49819.80000000002</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>176597.7</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>58993</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>12883.5</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>10651.8</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>16978.4</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>4671.199999999999</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>17173</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>87897.89999999999</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>71526.80000000002</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>14057.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -6465,12 +9209,60 @@
       </c>
       <c r="AG65" t="n">
         <v>56299.8</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>8097.299999999999</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>3468.800000000001</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>4459</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>25870.29999999999</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>22130.4</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>54056.29999999999</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>192572.9</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>63176.89999999999</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>15553.9</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>12005.3</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>18773.10000000001</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>4883.900000000001</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>21376.1</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>92840.60000000001</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>78356.20000000001</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>14153.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -6567,219 +9359,363 @@
         <v>15340.4</v>
       </c>
       <c r="AG66" t="n">
+        <v>15340.4</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>7180.5</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>3181.6</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>5128.8</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>28368.1</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>8665.5</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>45784</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>162410</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>53666.4</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>7763</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>11283</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>16847.5</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>4985.3</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>8312.700000000001</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>92990.5</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>61106.8</v>
+      </c>
+      <c r="AW66" t="n">
         <v>15340.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>8591.6</v>
+        <v>8295</v>
       </c>
       <c r="C67" t="n">
-        <v>24067.1</v>
+        <v>15475.5</v>
       </c>
       <c r="D67" t="n">
-        <v>3473.2</v>
+        <v>3112.3</v>
       </c>
       <c r="E67" t="n">
-        <v>9767.1</v>
+        <v>6293.8</v>
       </c>
       <c r="F67" t="n">
-        <v>4662.3</v>
+        <v>5130.7</v>
       </c>
       <c r="G67" t="n">
-        <v>14921.8</v>
+        <v>10259.5</v>
       </c>
       <c r="H67" t="n">
-        <v>28822.1</v>
+        <v>28265.4</v>
       </c>
       <c r="I67" t="n">
-        <v>85455.5</v>
+        <v>56633.5</v>
       </c>
       <c r="J67" t="n">
-        <v>18162.2</v>
+        <v>13045.5</v>
       </c>
       <c r="K67" t="n">
-        <v>39873.2</v>
+        <v>21711</v>
       </c>
       <c r="L67" t="n">
-        <v>52468.3</v>
+        <v>52378.3</v>
       </c>
       <c r="M67" t="n">
-        <v>150630.6</v>
+        <v>98162.3</v>
       </c>
       <c r="N67" t="n">
-        <v>191010.6</v>
+        <v>181408.2</v>
       </c>
       <c r="O67" t="n">
-        <v>534828.9</v>
+        <v>343818.2</v>
       </c>
       <c r="P67" t="n">
-        <v>61902.5</v>
+        <v>60839.2</v>
       </c>
       <c r="Q67" t="n">
-        <v>176408.1</v>
+        <v>114505.6</v>
       </c>
       <c r="R67" t="n">
-        <v>13870.6</v>
+        <v>12943.8</v>
       </c>
       <c r="S67" t="n">
-        <v>34577.4</v>
+        <v>20706.8</v>
       </c>
       <c r="T67" t="n">
-        <v>12615.3</v>
+        <v>12209.7</v>
       </c>
       <c r="U67" t="n">
-        <v>36108</v>
+        <v>23492.7</v>
       </c>
       <c r="V67" t="n">
-        <v>18513</v>
+        <v>17679.8</v>
       </c>
       <c r="W67" t="n">
-        <v>53040.3</v>
+        <v>34527.4</v>
       </c>
       <c r="X67" t="n">
-        <v>5452.4</v>
+        <v>5075.1</v>
       </c>
       <c r="Y67" t="n">
-        <v>15512.8</v>
+        <v>10060.4</v>
       </c>
       <c r="Z67" t="n">
-        <v>17542.4</v>
+        <v>12555.9</v>
       </c>
       <c r="AA67" t="n">
-        <v>38411</v>
+        <v>20868.7</v>
       </c>
       <c r="AB67" t="n">
-        <v>98067.8</v>
+        <v>95435.8</v>
       </c>
       <c r="AC67" t="n">
-        <v>286494.1</v>
+        <v>188426.3</v>
       </c>
       <c r="AD67" t="n">
-        <v>75400.5</v>
+        <v>73416.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>209923.7</v>
+        <v>134523.3</v>
       </c>
       <c r="AF67" t="n">
-        <v>14945.4</v>
+        <v>14811.7</v>
       </c>
       <c r="AG67" t="n">
-        <v>45097.5</v>
+        <v>30152.1</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>8295</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>3112.2</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>5130.7</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>28265.4</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>13045.5</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>52378.3</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>181408.2</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>60839.2</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>12943.8</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>12209.7</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>17679.9</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>5075.099999999999</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>12556</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>95435.79999999999</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>73416.49999999999</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>14811.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>8295</v>
+        <v>8591.6</v>
       </c>
       <c r="C68" t="n">
-        <v>15475.5</v>
+        <v>24067.1</v>
       </c>
       <c r="D68" t="n">
-        <v>3112.3</v>
+        <v>3473.2</v>
       </c>
       <c r="E68" t="n">
-        <v>6293.8</v>
+        <v>9767.1</v>
       </c>
       <c r="F68" t="n">
-        <v>5130.7</v>
+        <v>4662.3</v>
       </c>
       <c r="G68" t="n">
-        <v>10259.5</v>
+        <v>14921.8</v>
       </c>
       <c r="H68" t="n">
-        <v>28265.4</v>
+        <v>28822.1</v>
       </c>
       <c r="I68" t="n">
-        <v>56633.5</v>
+        <v>85455.5</v>
       </c>
       <c r="J68" t="n">
-        <v>13045.5</v>
+        <v>18162.2</v>
       </c>
       <c r="K68" t="n">
-        <v>21711</v>
+        <v>39873.2</v>
       </c>
       <c r="L68" t="n">
-        <v>52378.3</v>
+        <v>52468.3</v>
       </c>
       <c r="M68" t="n">
-        <v>98162.3</v>
+        <v>150630.6</v>
       </c>
       <c r="N68" t="n">
-        <v>181408.2</v>
+        <v>191010.6</v>
       </c>
       <c r="O68" t="n">
-        <v>343818.2</v>
+        <v>534828.9</v>
       </c>
       <c r="P68" t="n">
-        <v>60839.2</v>
+        <v>61902.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>114505.6</v>
+        <v>176408.1</v>
       </c>
       <c r="R68" t="n">
-        <v>12943.8</v>
+        <v>13870.6</v>
       </c>
       <c r="S68" t="n">
-        <v>20706.8</v>
+        <v>34577.4</v>
       </c>
       <c r="T68" t="n">
-        <v>12209.7</v>
+        <v>12615.3</v>
       </c>
       <c r="U68" t="n">
-        <v>23492.7</v>
+        <v>36108</v>
       </c>
       <c r="V68" t="n">
-        <v>17679.8</v>
+        <v>18513</v>
       </c>
       <c r="W68" t="n">
-        <v>34527.4</v>
+        <v>53040.3</v>
       </c>
       <c r="X68" t="n">
-        <v>5075.1</v>
+        <v>5452.4</v>
       </c>
       <c r="Y68" t="n">
-        <v>10060.4</v>
+        <v>15512.8</v>
       </c>
       <c r="Z68" t="n">
-        <v>12555.9</v>
+        <v>17542.4</v>
       </c>
       <c r="AA68" t="n">
-        <v>20868.7</v>
+        <v>38411</v>
       </c>
       <c r="AB68" t="n">
-        <v>95435.8</v>
+        <v>98067.8</v>
       </c>
       <c r="AC68" t="n">
-        <v>188426.3</v>
+        <v>286494.1</v>
       </c>
       <c r="AD68" t="n">
-        <v>73416.5</v>
+        <v>75400.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>134523.3</v>
+        <v>209923.7</v>
       </c>
       <c r="AF68" t="n">
-        <v>14811.7</v>
+        <v>14945.4</v>
       </c>
       <c r="AG68" t="n">
-        <v>30152.1</v>
+        <v>45097.5</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>8591.599999999999</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>3473.3</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>4662.299999999999</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>28822</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>18162.2</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>52468.3</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>191010.7</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>61902.5</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>13870.6</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>12615.3</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>18512.9</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>5452.4</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>17542.3</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>98067.79999999999</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>75400.40000000002</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>14945.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -6877,12 +9813,60 @@
       </c>
       <c r="AG69" t="n">
         <v>59964</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>8961.599999999999</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>3840.699999999999</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>5202.299999999999</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>29636.10000000001</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>22577.8</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>58878.29999999999</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>211566.2</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>68998.29999999999</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>16921.5</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>13861.4</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>20684.2</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>6015.799999999999</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>21728.2</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>104334</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>85504.09999999998</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>14866.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -6979,219 +9963,363 @@
         <v>16758.8</v>
       </c>
       <c r="AG70" t="n">
+        <v>16758.8</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>8094.5</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3536.5</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>5915.2</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>31864.3</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>8595.799999999999</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>51419.7</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>181867.7</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>60909.3</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>8725.299999999999</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>13047</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>18608.9</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>5811.9</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>8205.9</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>104346.3</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>69315.5</v>
+      </c>
+      <c r="AW70" t="n">
         <v>16758.8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9688.700000000001</v>
+        <v>9397.700000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>27181</v>
+        <v>17492.3</v>
       </c>
       <c r="D71" t="n">
-        <v>3838.5</v>
+        <v>3440.9</v>
       </c>
       <c r="E71" t="n">
-        <v>10815.9</v>
+        <v>6977.4</v>
       </c>
       <c r="F71" t="n">
-        <v>5539.8</v>
+        <v>5977.9</v>
       </c>
       <c r="G71" t="n">
-        <v>17432.9</v>
+        <v>11893.1</v>
       </c>
       <c r="H71" t="n">
-        <v>32708</v>
+        <v>31998.1</v>
       </c>
       <c r="I71" t="n">
-        <v>96570.39999999999</v>
+        <v>63862.4</v>
       </c>
       <c r="J71" t="n">
-        <v>18944.2</v>
+        <v>13204.2</v>
       </c>
       <c r="K71" t="n">
-        <v>40744.2</v>
+        <v>21800</v>
       </c>
       <c r="L71" t="n">
-        <v>58632.6</v>
+        <v>58172.1</v>
       </c>
       <c r="M71" t="n">
-        <v>168224.3</v>
+        <v>109591.7</v>
       </c>
       <c r="N71" t="n">
-        <v>212789.3</v>
+        <v>201950.3</v>
       </c>
       <c r="O71" t="n">
-        <v>596607.3</v>
+        <v>383818</v>
       </c>
       <c r="P71" t="n">
-        <v>69327.2</v>
+        <v>68099.8</v>
       </c>
       <c r="Q71" t="n">
-        <v>198336.3</v>
+        <v>129009.1</v>
       </c>
       <c r="R71" t="n">
-        <v>15590.1</v>
+        <v>14574.4</v>
       </c>
       <c r="S71" t="n">
-        <v>38889.8</v>
+        <v>23299.7</v>
       </c>
       <c r="T71" t="n">
-        <v>14054.9</v>
+        <v>14059</v>
       </c>
       <c r="U71" t="n">
-        <v>41160.8</v>
+        <v>27106</v>
       </c>
       <c r="V71" t="n">
-        <v>20342.9</v>
+        <v>19473.6</v>
       </c>
       <c r="W71" t="n">
-        <v>58425.5</v>
+        <v>38082.6</v>
       </c>
       <c r="X71" t="n">
-        <v>6464.6</v>
+        <v>5868.4</v>
       </c>
       <c r="Y71" t="n">
-        <v>18144.9</v>
+        <v>11680.3</v>
       </c>
       <c r="Z71" t="n">
-        <v>18255.8</v>
+        <v>12644.9</v>
       </c>
       <c r="AA71" t="n">
-        <v>39106.6</v>
+        <v>20850.8</v>
       </c>
       <c r="AB71" t="n">
-        <v>109959.5</v>
+        <v>106982.4</v>
       </c>
       <c r="AC71" t="n">
-        <v>321288.2</v>
+        <v>211328.7</v>
       </c>
       <c r="AD71" t="n">
-        <v>84574.10000000001</v>
+        <v>82323</v>
       </c>
       <c r="AE71" t="n">
-        <v>236212.5</v>
+        <v>151638.4</v>
       </c>
       <c r="AF71" t="n">
-        <v>16290.4</v>
+        <v>15856.3</v>
       </c>
       <c r="AG71" t="n">
-        <v>48905.5</v>
+        <v>32615.1</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>9397.799999999999</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3440.9</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>5977.900000000001</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>31998.1</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>13204.2</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>58172</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>201950.3</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>68099.8</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>14574.4</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>14059</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>19473.7</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>5868.4</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>12644.9</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>106982.4</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>82322.89999999999</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>15856.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9397.700000000001</v>
+        <v>9688.700000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>17492.3</v>
+        <v>27181</v>
       </c>
       <c r="D72" t="n">
-        <v>3440.9</v>
+        <v>3838.5</v>
       </c>
       <c r="E72" t="n">
-        <v>6977.4</v>
+        <v>10815.9</v>
       </c>
       <c r="F72" t="n">
-        <v>5977.9</v>
+        <v>5539.8</v>
       </c>
       <c r="G72" t="n">
-        <v>11893.1</v>
+        <v>17432.9</v>
       </c>
       <c r="H72" t="n">
-        <v>31998.1</v>
+        <v>32708</v>
       </c>
       <c r="I72" t="n">
-        <v>63862.4</v>
+        <v>96570.39999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>13204.2</v>
+        <v>18944.2</v>
       </c>
       <c r="K72" t="n">
-        <v>21800</v>
+        <v>40744.2</v>
       </c>
       <c r="L72" t="n">
-        <v>58172.1</v>
+        <v>58632.6</v>
       </c>
       <c r="M72" t="n">
-        <v>109591.7</v>
+        <v>168224.3</v>
       </c>
       <c r="N72" t="n">
-        <v>201950.3</v>
+        <v>212789.3</v>
       </c>
       <c r="O72" t="n">
-        <v>383818</v>
+        <v>596607.3</v>
       </c>
       <c r="P72" t="n">
-        <v>68099.8</v>
+        <v>69327.2</v>
       </c>
       <c r="Q72" t="n">
-        <v>129009.1</v>
+        <v>198336.3</v>
       </c>
       <c r="R72" t="n">
-        <v>14574.4</v>
+        <v>15590.1</v>
       </c>
       <c r="S72" t="n">
-        <v>23299.7</v>
+        <v>38889.8</v>
       </c>
       <c r="T72" t="n">
-        <v>14059</v>
+        <v>14054.9</v>
       </c>
       <c r="U72" t="n">
-        <v>27106</v>
+        <v>41160.8</v>
       </c>
       <c r="V72" t="n">
-        <v>19473.6</v>
+        <v>20342.9</v>
       </c>
       <c r="W72" t="n">
-        <v>38082.6</v>
+        <v>58425.5</v>
       </c>
       <c r="X72" t="n">
-        <v>5868.4</v>
+        <v>6464.6</v>
       </c>
       <c r="Y72" t="n">
-        <v>11680.3</v>
+        <v>18144.9</v>
       </c>
       <c r="Z72" t="n">
-        <v>12644.9</v>
+        <v>18255.8</v>
       </c>
       <c r="AA72" t="n">
-        <v>20850.8</v>
+        <v>39106.6</v>
       </c>
       <c r="AB72" t="n">
-        <v>106982.4</v>
+        <v>109959.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>211328.7</v>
+        <v>321288.2</v>
       </c>
       <c r="AD72" t="n">
-        <v>82323</v>
+        <v>84574.10000000001</v>
       </c>
       <c r="AE72" t="n">
-        <v>151638.4</v>
+        <v>236212.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>15856.3</v>
+        <v>16290.4</v>
       </c>
       <c r="AG72" t="n">
-        <v>32615.1</v>
+        <v>48905.5</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>9688.700000000001</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3838.5</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>5539.800000000001</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>32707.99999999999</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>18944.2</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>58632.59999999999</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>212789.3</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>69327.19999999998</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>15590.1</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>14054.8</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>20342.9</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>6464.600000000002</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>18255.8</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>109959.5</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>84574.10000000001</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>16290.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -7289,12 +10417,60 @@
       </c>
       <c r="AG73" t="n">
         <v>64844.3</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>9940.900000000001</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>4240.1</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>6376</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>33433.70000000001</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>23915.8</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>65652.20000000001</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>235428.6</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>76783</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>19015.8</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>15925.2</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>22731.10000000001</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>7128.399999999998</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>22992.9</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>117067.7</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>95368</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>15938.8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -7391,219 +10567,363 @@
         <v>18050.6</v>
       </c>
       <c r="AG74" t="n">
+        <v>18050.6</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>8806.5</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3887.8</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>7212.2</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>35864.9</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>9005.799999999999</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>56631.9</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>202035.7</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>66905.60000000001</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>10073.8</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>14863.5</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>20485.5</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>6879.5</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>8575.700000000001</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>116861.8</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>76598.2</v>
+      </c>
+      <c r="AW74" t="n">
         <v>18050.6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>10582.3</v>
+        <v>10174.9</v>
       </c>
       <c r="C75" t="n">
-        <v>29563.7</v>
+        <v>18981.4</v>
       </c>
       <c r="D75" t="n">
-        <v>4212.6</v>
+        <v>3779.6</v>
       </c>
       <c r="E75" t="n">
-        <v>11880</v>
+        <v>7667.4</v>
       </c>
       <c r="F75" t="n">
-        <v>6690.9</v>
+        <v>7309.6</v>
       </c>
       <c r="G75" t="n">
-        <v>21212.7</v>
+        <v>14521.8</v>
       </c>
       <c r="H75" t="n">
-        <v>36930.6</v>
+        <v>35673.1</v>
       </c>
       <c r="I75" t="n">
-        <v>108468.5</v>
+        <v>71537.89999999999</v>
       </c>
       <c r="J75" t="n">
-        <v>18961.8</v>
+        <v>13662.2</v>
       </c>
       <c r="K75" t="n">
-        <v>41629.8</v>
+        <v>22668</v>
       </c>
       <c r="L75" t="n">
-        <v>64348.2</v>
+        <v>64294.9</v>
       </c>
       <c r="M75" t="n">
-        <v>185275.1</v>
+        <v>120926.9</v>
       </c>
       <c r="N75" t="n">
-        <v>234474.3</v>
+        <v>223962.2</v>
       </c>
       <c r="O75" t="n">
-        <v>660472.2</v>
+        <v>425997.9</v>
       </c>
       <c r="P75" t="n">
-        <v>76239.60000000001</v>
+        <v>75122.10000000001</v>
       </c>
       <c r="Q75" t="n">
-        <v>218267.2</v>
+        <v>142027.7</v>
       </c>
       <c r="R75" t="n">
-        <v>17294.5</v>
+        <v>16404.3</v>
       </c>
       <c r="S75" t="n">
-        <v>43772.7</v>
+        <v>26478.2</v>
       </c>
       <c r="T75" t="n">
-        <v>15914</v>
+        <v>16176.1</v>
       </c>
       <c r="U75" t="n">
-        <v>46953.5</v>
+        <v>31039.5</v>
       </c>
       <c r="V75" t="n">
-        <v>22334.1</v>
+        <v>21374.2</v>
       </c>
       <c r="W75" t="n">
-        <v>64193.8</v>
+        <v>41859.7</v>
       </c>
       <c r="X75" t="n">
-        <v>7533.3</v>
+        <v>6885.3</v>
       </c>
       <c r="Y75" t="n">
-        <v>21298.1</v>
+        <v>13764.8</v>
       </c>
       <c r="Z75" t="n">
-        <v>18226.9</v>
+        <v>13003.8</v>
       </c>
       <c r="AA75" t="n">
-        <v>39806.4</v>
+        <v>21579.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>123134.9</v>
+        <v>119857.8</v>
       </c>
       <c r="AC75" t="n">
-        <v>359854.5</v>
+        <v>236719.7</v>
       </c>
       <c r="AD75" t="n">
-        <v>93112.5</v>
+        <v>91100.60000000001</v>
       </c>
       <c r="AE75" t="n">
-        <v>260811.3</v>
+        <v>167698.8</v>
       </c>
       <c r="AF75" t="n">
-        <v>17780.6</v>
+        <v>17401</v>
       </c>
       <c r="AG75" t="n">
-        <v>53232.2</v>
+        <v>35451.6</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>10174.9</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3779.599999999999</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>7309.599999999999</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>35672.99999999999</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>13662.2</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>64294.99999999999</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>223962.2</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>75122.10000000001</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>16404.4</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>16176</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>21374.2</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>6885.299999999999</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>13003.8</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>119857.9</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>91100.59999999999</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>17401</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>10174.9</v>
+        <v>10582.3</v>
       </c>
       <c r="C76" t="n">
-        <v>18981.4</v>
+        <v>29563.7</v>
       </c>
       <c r="D76" t="n">
-        <v>3779.6</v>
+        <v>4212.6</v>
       </c>
       <c r="E76" t="n">
-        <v>7667.4</v>
+        <v>11880</v>
       </c>
       <c r="F76" t="n">
-        <v>7309.6</v>
+        <v>6690.9</v>
       </c>
       <c r="G76" t="n">
-        <v>14521.8</v>
+        <v>21212.7</v>
       </c>
       <c r="H76" t="n">
-        <v>35673.1</v>
+        <v>36930.6</v>
       </c>
       <c r="I76" t="n">
-        <v>71537.89999999999</v>
+        <v>108468.5</v>
       </c>
       <c r="J76" t="n">
-        <v>13662.2</v>
+        <v>18961.8</v>
       </c>
       <c r="K76" t="n">
-        <v>22668</v>
+        <v>41629.8</v>
       </c>
       <c r="L76" t="n">
-        <v>64294.9</v>
+        <v>64348.2</v>
       </c>
       <c r="M76" t="n">
-        <v>120926.9</v>
+        <v>185275.1</v>
       </c>
       <c r="N76" t="n">
-        <v>223962.2</v>
+        <v>234474.3</v>
       </c>
       <c r="O76" t="n">
-        <v>425997.9</v>
+        <v>660472.2</v>
       </c>
       <c r="P76" t="n">
-        <v>75122.10000000001</v>
+        <v>76239.60000000001</v>
       </c>
       <c r="Q76" t="n">
-        <v>142027.7</v>
+        <v>218267.2</v>
       </c>
       <c r="R76" t="n">
-        <v>16404.3</v>
+        <v>17294.5</v>
       </c>
       <c r="S76" t="n">
-        <v>26478.2</v>
+        <v>43772.7</v>
       </c>
       <c r="T76" t="n">
-        <v>16176.1</v>
+        <v>15914</v>
       </c>
       <c r="U76" t="n">
-        <v>31039.5</v>
+        <v>46953.5</v>
       </c>
       <c r="V76" t="n">
-        <v>21374.2</v>
+        <v>22334.1</v>
       </c>
       <c r="W76" t="n">
-        <v>41859.7</v>
+        <v>64193.8</v>
       </c>
       <c r="X76" t="n">
-        <v>6885.3</v>
+        <v>7533.3</v>
       </c>
       <c r="Y76" t="n">
-        <v>13764.8</v>
+        <v>21298.1</v>
       </c>
       <c r="Z76" t="n">
-        <v>13003.8</v>
+        <v>18226.9</v>
       </c>
       <c r="AA76" t="n">
-        <v>21579.5</v>
+        <v>39806.4</v>
       </c>
       <c r="AB76" t="n">
-        <v>119857.8</v>
+        <v>123134.9</v>
       </c>
       <c r="AC76" t="n">
-        <v>236719.7</v>
+        <v>359854.5</v>
       </c>
       <c r="AD76" t="n">
-        <v>91100.60000000001</v>
+        <v>93112.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>167698.8</v>
+        <v>260811.3</v>
       </c>
       <c r="AF76" t="n">
-        <v>17401</v>
+        <v>17780.6</v>
       </c>
       <c r="AG76" t="n">
-        <v>35451.6</v>
+        <v>53232.2</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>10582.3</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>4212.6</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>6690.900000000001</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>36930.60000000001</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>18961.8</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>64348.20000000001</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>234474.2999999999</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>76239.5</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>17294.5</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>15914</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>22334.10000000001</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>7533.299999999999</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>18226.9</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>123134.8</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>93112.5</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>17780.6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -7701,12 +11021,60 @@
       </c>
       <c r="AG77" t="n">
         <v>70610.3</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>10773.5</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>4640.599999999999</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>7520.799999999999</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>37474.60000000001</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>25928.89999999999</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>70662.10000000001</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>258808.9</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>82822.09999999998</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>21720.3</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>17669.5</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>24709.89999999999</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>8170.400000000001</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>24938.8</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>129846.3</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>104023.9</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>17378.10000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -7803,219 +11171,363 @@
         <v>19423</v>
       </c>
       <c r="AG78" t="n">
+        <v>19423</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>9316.299999999999</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>4203.2</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>8633.9</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>39661.2</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>9248.700000000001</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>59227.3</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>217168.3</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>69892.39999999999</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>11102.8</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>16180.1</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>21911.1</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>7595.8</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>8768.299999999999</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>127803.3</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>80596.7</v>
+      </c>
+      <c r="AW78" t="n">
         <v>19423</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>11231.6</v>
+        <v>10771.2</v>
       </c>
       <c r="C79" t="n">
-        <v>31319.1</v>
+        <v>20087.4</v>
       </c>
       <c r="D79" t="n">
-        <v>4575.5</v>
+        <v>4091.8</v>
       </c>
       <c r="E79" t="n">
-        <v>12870.5</v>
+        <v>8295</v>
       </c>
       <c r="F79" t="n">
-        <v>7625.5</v>
+        <v>8602.299999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>24861.7</v>
+        <v>17236.2</v>
       </c>
       <c r="H79" t="n">
-        <v>41074.1</v>
+        <v>39407.5</v>
       </c>
       <c r="I79" t="n">
-        <v>120142.7</v>
+        <v>79068.60000000001</v>
       </c>
       <c r="J79" t="n">
-        <v>20632.8</v>
+        <v>15111.7</v>
       </c>
       <c r="K79" t="n">
-        <v>44993.2</v>
+        <v>24360.4</v>
       </c>
       <c r="L79" t="n">
-        <v>65573</v>
+        <v>66768.3</v>
       </c>
       <c r="M79" t="n">
-        <v>191568.5</v>
+        <v>125995.6</v>
       </c>
       <c r="N79" t="n">
-        <v>251046.3</v>
+        <v>241502.6</v>
       </c>
       <c r="O79" t="n">
-        <v>709717.2</v>
+        <v>458670.9</v>
       </c>
       <c r="P79" t="n">
-        <v>78196.3</v>
+        <v>78490.10000000001</v>
       </c>
       <c r="Q79" t="n">
-        <v>226578.8</v>
+        <v>148382.4</v>
       </c>
       <c r="R79" t="n">
-        <v>18666.9</v>
+        <v>17889.3</v>
       </c>
       <c r="S79" t="n">
-        <v>47659</v>
+        <v>28992.1</v>
       </c>
       <c r="T79" t="n">
-        <v>17576.3</v>
+        <v>17692.2</v>
       </c>
       <c r="U79" t="n">
-        <v>51448.6</v>
+        <v>33872.3</v>
       </c>
       <c r="V79" t="n">
-        <v>23947.1</v>
+        <v>23053.1</v>
       </c>
       <c r="W79" t="n">
-        <v>68911.2</v>
+        <v>44964.1</v>
       </c>
       <c r="X79" t="n">
-        <v>8334.200000000001</v>
+        <v>7529</v>
       </c>
       <c r="Y79" t="n">
-        <v>23459</v>
+        <v>15124.8</v>
       </c>
       <c r="Z79" t="n">
-        <v>19801</v>
+        <v>14439.9</v>
       </c>
       <c r="AA79" t="n">
-        <v>43009.1</v>
+        <v>23208.2</v>
       </c>
       <c r="AB79" t="n">
-        <v>134825.2</v>
+        <v>131139</v>
       </c>
       <c r="AC79" t="n">
-        <v>393767.5</v>
+        <v>258942.3</v>
       </c>
       <c r="AD79" t="n">
-        <v>96420.10000000001</v>
+        <v>95923.7</v>
       </c>
       <c r="AE79" t="n">
-        <v>272940.5</v>
+        <v>176520.4</v>
       </c>
       <c r="AF79" t="n">
-        <v>19186</v>
+        <v>18864.5</v>
       </c>
       <c r="AG79" t="n">
-        <v>57473.5</v>
+        <v>38287.5</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>10771.1</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>4091.8</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>8602.300000000001</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>39407.40000000001</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>15111.7</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>66768.3</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>241502.6</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>78490</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>17889.3</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>17692.2</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>23053</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>7528.999999999999</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>14439.9</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>131139</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>95923.7</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>18864.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>10771.2</v>
+        <v>11231.6</v>
       </c>
       <c r="C80" t="n">
-        <v>20087.4</v>
+        <v>31319.1</v>
       </c>
       <c r="D80" t="n">
-        <v>4091.8</v>
+        <v>4575.5</v>
       </c>
       <c r="E80" t="n">
-        <v>8295</v>
+        <v>12870.5</v>
       </c>
       <c r="F80" t="n">
-        <v>8602.299999999999</v>
+        <v>7625.5</v>
       </c>
       <c r="G80" t="n">
-        <v>17236.2</v>
+        <v>24861.7</v>
       </c>
       <c r="H80" t="n">
-        <v>39407.5</v>
+        <v>41074.1</v>
       </c>
       <c r="I80" t="n">
-        <v>79068.60000000001</v>
+        <v>120142.7</v>
       </c>
       <c r="J80" t="n">
-        <v>15111.7</v>
+        <v>20632.8</v>
       </c>
       <c r="K80" t="n">
-        <v>24360.4</v>
+        <v>44993.2</v>
       </c>
       <c r="L80" t="n">
-        <v>66768.3</v>
+        <v>65573</v>
       </c>
       <c r="M80" t="n">
-        <v>125995.6</v>
+        <v>191568.5</v>
       </c>
       <c r="N80" t="n">
-        <v>241502.6</v>
+        <v>251046.3</v>
       </c>
       <c r="O80" t="n">
-        <v>458670.9</v>
+        <v>709717.2</v>
       </c>
       <c r="P80" t="n">
-        <v>78490.10000000001</v>
+        <v>78196.3</v>
       </c>
       <c r="Q80" t="n">
-        <v>148382.4</v>
+        <v>226578.8</v>
       </c>
       <c r="R80" t="n">
-        <v>17889.3</v>
+        <v>18666.9</v>
       </c>
       <c r="S80" t="n">
-        <v>28992.1</v>
+        <v>47659</v>
       </c>
       <c r="T80" t="n">
-        <v>17692.2</v>
+        <v>17576.3</v>
       </c>
       <c r="U80" t="n">
-        <v>33872.3</v>
+        <v>51448.6</v>
       </c>
       <c r="V80" t="n">
-        <v>23053.1</v>
+        <v>23947.1</v>
       </c>
       <c r="W80" t="n">
-        <v>44964.1</v>
+        <v>68911.2</v>
       </c>
       <c r="X80" t="n">
-        <v>7529</v>
+        <v>8334.200000000001</v>
       </c>
       <c r="Y80" t="n">
-        <v>15124.8</v>
+        <v>23459</v>
       </c>
       <c r="Z80" t="n">
-        <v>14439.9</v>
+        <v>19801</v>
       </c>
       <c r="AA80" t="n">
-        <v>23208.2</v>
+        <v>43009.1</v>
       </c>
       <c r="AB80" t="n">
-        <v>131139</v>
+        <v>134825.2</v>
       </c>
       <c r="AC80" t="n">
-        <v>258942.3</v>
+        <v>393767.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>95923.7</v>
+        <v>96420.10000000001</v>
       </c>
       <c r="AE80" t="n">
-        <v>176520.4</v>
+        <v>272940.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>18864.5</v>
+        <v>19186</v>
       </c>
       <c r="AG80" t="n">
-        <v>38287.5</v>
+        <v>57473.5</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>11231.7</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>4575.5</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>7625.5</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>41074.09999999999</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>20632.8</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>65572.89999999999</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>251046.2999999999</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>78196.39999999999</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>18666.9</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>17576.3</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>23947.1</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>8334.200000000001</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>19800.9</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>134825.2</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>96420.10000000001</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>19186</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -8113,12 +11625,60 @@
       </c>
       <c r="AG81" t="n">
         <v>76250.60000000001</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>11147.2</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>5032.599999999999</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>8530.100000000002</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>41543.3</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>28583.7</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>72568.20000000001</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>276798</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>85279.90000000002</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>22989.10000000001</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>18996.2</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>26739.7</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>9179</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>27464.50000000001</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>141603.5</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>107730.1</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>18777.10000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -8215,219 +11775,363 @@
         <v>20979</v>
       </c>
       <c r="AG82" t="n">
+        <v>20979</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>7669.7</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>2614.6</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>9244.9</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>39915.2</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>10747.7</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>52914.9</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>205244.8</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>63517.6</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>9273.4</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>15260.3</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>18758.7</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>7263.7</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>10222.5</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>122606.3</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>72415.89999999999</v>
+      </c>
+      <c r="AW82" t="n">
         <v>20979</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>10938.5</v>
+        <v>10266.4</v>
       </c>
       <c r="C83" t="n">
-        <v>28874.6</v>
+        <v>17936.1</v>
       </c>
       <c r="D83" t="n">
-        <v>4281.6</v>
+        <v>3303.7</v>
       </c>
       <c r="E83" t="n">
-        <v>10199.9</v>
+        <v>5918.3</v>
       </c>
       <c r="F83" t="n">
-        <v>8948.299999999999</v>
+        <v>9909.6</v>
       </c>
       <c r="G83" t="n">
-        <v>28102.7</v>
+        <v>19154.5</v>
       </c>
       <c r="H83" t="n">
-        <v>42942.2</v>
+        <v>40102.7</v>
       </c>
       <c r="I83" t="n">
-        <v>122960</v>
+        <v>80017.8</v>
       </c>
       <c r="J83" t="n">
-        <v>23065.3</v>
+        <v>16668.1</v>
       </c>
       <c r="K83" t="n">
-        <v>50481.1</v>
+        <v>27415.8</v>
       </c>
       <c r="L83" t="n">
-        <v>68388.10000000001</v>
+        <v>68078.5</v>
       </c>
       <c r="M83" t="n">
-        <v>189381.5</v>
+        <v>120993.4</v>
       </c>
       <c r="N83" t="n">
-        <v>264355.7</v>
+        <v>248347.7</v>
       </c>
       <c r="O83" t="n">
-        <v>717948.2</v>
+        <v>453592.5</v>
       </c>
       <c r="P83" t="n">
-        <v>80570.60000000001</v>
+        <v>79015.89999999999</v>
       </c>
       <c r="Q83" t="n">
-        <v>223104</v>
+        <v>142533.5</v>
       </c>
       <c r="R83" t="n">
-        <v>19760.1</v>
+        <v>18943.4</v>
       </c>
       <c r="S83" t="n">
-        <v>47976.9</v>
+        <v>28216.8</v>
       </c>
       <c r="T83" t="n">
-        <v>19086.9</v>
+        <v>18522.5</v>
       </c>
       <c r="U83" t="n">
-        <v>52869.8</v>
+        <v>33782.9</v>
       </c>
       <c r="V83" t="n">
-        <v>25182.8</v>
+        <v>23746.3</v>
       </c>
       <c r="W83" t="n">
-        <v>67687.8</v>
+        <v>42505</v>
       </c>
       <c r="X83" t="n">
-        <v>8144.1</v>
+        <v>7292.9</v>
       </c>
       <c r="Y83" t="n">
-        <v>22700.7</v>
+        <v>14556.6</v>
       </c>
       <c r="Z83" t="n">
-        <v>22158.1</v>
+        <v>15934.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>48315.2</v>
+        <v>26157.1</v>
       </c>
       <c r="AB83" t="n">
-        <v>142300.1</v>
+        <v>134883.4</v>
       </c>
       <c r="AC83" t="n">
-        <v>399789.9</v>
+        <v>257489.7</v>
       </c>
       <c r="AD83" t="n">
-        <v>99897.5</v>
+        <v>97529.8</v>
       </c>
       <c r="AE83" t="n">
-        <v>269843.2</v>
+        <v>169945.7</v>
       </c>
       <c r="AF83" t="n">
-        <v>21435.4</v>
+        <v>20576.2</v>
       </c>
       <c r="AG83" t="n">
-        <v>62990.6</v>
+        <v>41555.3</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>10266.4</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>3303.7</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>9909.6</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>40102.60000000001</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>16668.1</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>68078.5</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>248347.7</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>79015.89999999999</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>18943.4</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>18522.6</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>23746.3</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>7292.900000000001</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>15934.6</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>134883.4</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>97529.80000000002</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>20576.3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>10266.4</v>
+        <v>10938.5</v>
       </c>
       <c r="C84" t="n">
-        <v>17936.1</v>
+        <v>28874.6</v>
       </c>
       <c r="D84" t="n">
-        <v>3303.7</v>
+        <v>4281.6</v>
       </c>
       <c r="E84" t="n">
-        <v>5918.3</v>
+        <v>10199.9</v>
       </c>
       <c r="F84" t="n">
-        <v>9909.6</v>
+        <v>8948.299999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>19154.5</v>
+        <v>28102.7</v>
       </c>
       <c r="H84" t="n">
-        <v>40102.7</v>
+        <v>42942.2</v>
       </c>
       <c r="I84" t="n">
-        <v>80017.8</v>
+        <v>122960</v>
       </c>
       <c r="J84" t="n">
-        <v>16668.1</v>
+        <v>23065.3</v>
       </c>
       <c r="K84" t="n">
-        <v>27415.8</v>
+        <v>50481.1</v>
       </c>
       <c r="L84" t="n">
-        <v>68078.5</v>
+        <v>68388.10000000001</v>
       </c>
       <c r="M84" t="n">
-        <v>120993.4</v>
+        <v>189381.5</v>
       </c>
       <c r="N84" t="n">
-        <v>248347.7</v>
+        <v>264355.7</v>
       </c>
       <c r="O84" t="n">
-        <v>453592.5</v>
+        <v>717948.2</v>
       </c>
       <c r="P84" t="n">
-        <v>79015.89999999999</v>
+        <v>80570.60000000001</v>
       </c>
       <c r="Q84" t="n">
-        <v>142533.5</v>
+        <v>223104</v>
       </c>
       <c r="R84" t="n">
-        <v>18943.4</v>
+        <v>19760.1</v>
       </c>
       <c r="S84" t="n">
-        <v>28216.8</v>
+        <v>47976.9</v>
       </c>
       <c r="T84" t="n">
-        <v>18522.5</v>
+        <v>19086.9</v>
       </c>
       <c r="U84" t="n">
-        <v>33782.9</v>
+        <v>52869.8</v>
       </c>
       <c r="V84" t="n">
-        <v>23746.3</v>
+        <v>25182.8</v>
       </c>
       <c r="W84" t="n">
-        <v>42505</v>
+        <v>67687.8</v>
       </c>
       <c r="X84" t="n">
-        <v>7292.9</v>
+        <v>8144.1</v>
       </c>
       <c r="Y84" t="n">
-        <v>14556.6</v>
+        <v>22700.7</v>
       </c>
       <c r="Z84" t="n">
-        <v>15934.5</v>
+        <v>22158.1</v>
       </c>
       <c r="AA84" t="n">
-        <v>26157.1</v>
+        <v>48315.2</v>
       </c>
       <c r="AB84" t="n">
-        <v>134883.4</v>
+        <v>142300.1</v>
       </c>
       <c r="AC84" t="n">
-        <v>257489.7</v>
+        <v>399789.9</v>
       </c>
       <c r="AD84" t="n">
-        <v>97529.8</v>
+        <v>99897.5</v>
       </c>
       <c r="AE84" t="n">
-        <v>169945.7</v>
+        <v>269843.2</v>
       </c>
       <c r="AF84" t="n">
-        <v>20576.2</v>
+        <v>21435.4</v>
       </c>
       <c r="AG84" t="n">
-        <v>41555.3</v>
+        <v>62990.6</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>10938.5</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>4281.599999999999</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>8948.200000000001</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>42942.2</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>23065.3</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>68388.10000000001</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>264355.7</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>80570.5</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>19760.1</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>19086.9</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>25182.8</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>8144.1</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>22158.1</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>142300.2</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>99897.5</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>21435.3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -8525,12 +12229,60 @@
       </c>
       <c r="AG85" t="n">
         <v>83617.7</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>11708.3</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>5085.5</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>10141.4</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>44153.60000000001</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>30915.4</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>77036.29999999999</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>295618.8</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>89798.90000000002</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>24467.8</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>20555.5</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>28398.3</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>9766.899999999998</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>29715.7</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>152183.7999999999</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>113719.2</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>20627.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -8627,219 +12379,363 @@
         <v>22932.2</v>
       </c>
       <c r="AG86" t="n">
+        <v>22932.2</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>9891.5</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>3795.2</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>10979</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>44379.2</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>11932</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>68552</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>247985</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>80867.10000000001</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>11926.4</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>19212.5</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>24108.9</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>7961.1</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>11373.8</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>144179</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>92432.2</v>
+      </c>
+      <c r="AW86" t="n">
         <v>22932.2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>12473.4</v>
+        <v>12321.8</v>
       </c>
       <c r="C87" t="n">
-        <v>34686.7</v>
+        <v>22213.2</v>
       </c>
       <c r="D87" t="n">
-        <v>4648.5</v>
+        <v>3981.4</v>
       </c>
       <c r="E87" t="n">
-        <v>12425.1</v>
+        <v>7776.6</v>
       </c>
       <c r="F87" t="n">
-        <v>10306.4</v>
+        <v>11622.3</v>
       </c>
       <c r="G87" t="n">
-        <v>32907.7</v>
+        <v>22601.3</v>
       </c>
       <c r="H87" t="n">
-        <v>45492.3</v>
+        <v>43657.9</v>
       </c>
       <c r="I87" t="n">
-        <v>133529.3</v>
+        <v>88037.10000000001</v>
       </c>
       <c r="J87" t="n">
-        <v>24084.5</v>
+        <v>17936.2</v>
       </c>
       <c r="K87" t="n">
-        <v>53952.6</v>
+        <v>29868.1</v>
       </c>
       <c r="L87" t="n">
-        <v>77510.8</v>
+        <v>80178.3</v>
       </c>
       <c r="M87" t="n">
-        <v>226241.1</v>
+        <v>148730.3</v>
       </c>
       <c r="N87" t="n">
-        <v>289919.3</v>
+        <v>281528</v>
       </c>
       <c r="O87" t="n">
-        <v>819432.3</v>
+        <v>529513</v>
       </c>
       <c r="P87" t="n">
-        <v>92925</v>
+        <v>93559.89999999999</v>
       </c>
       <c r="Q87" t="n">
-        <v>267352</v>
+        <v>174427.1</v>
       </c>
       <c r="R87" t="n">
-        <v>21042.2</v>
+        <v>21157.2</v>
       </c>
       <c r="S87" t="n">
-        <v>54125.8</v>
+        <v>33083.6</v>
       </c>
       <c r="T87" t="n">
-        <v>18635.8</v>
+        <v>19978.8</v>
       </c>
       <c r="U87" t="n">
-        <v>57827.1</v>
+        <v>39191.3</v>
       </c>
       <c r="V87" t="n">
-        <v>28116.4</v>
+        <v>26987.5</v>
       </c>
       <c r="W87" t="n">
-        <v>79212.8</v>
+        <v>51096.3</v>
       </c>
       <c r="X87" t="n">
-        <v>8897.200000000001</v>
+        <v>7922.3</v>
       </c>
       <c r="Y87" t="n">
-        <v>24780.7</v>
+        <v>15883.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>23100.5</v>
+        <v>17139</v>
       </c>
       <c r="AA87" t="n">
-        <v>51613.3</v>
+        <v>28512.8</v>
       </c>
       <c r="AB87" t="n">
-        <v>153296.9</v>
+        <v>150088.4</v>
       </c>
       <c r="AC87" t="n">
-        <v>447564.3</v>
+        <v>294267.4</v>
       </c>
       <c r="AD87" t="n">
-        <v>113521.9</v>
+        <v>114300.6</v>
       </c>
       <c r="AE87" t="n">
-        <v>320254.7</v>
+        <v>206732.7</v>
       </c>
       <c r="AF87" t="n">
-        <v>23297.6</v>
+        <v>22402.7</v>
       </c>
       <c r="AG87" t="n">
-        <v>68632.5</v>
+        <v>45334.9</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>12321.7</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>3981.400000000001</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>11622.3</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>43657.90000000001</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>17936.1</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>80178.29999999999</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>281528</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>93560</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>21157.2</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>19978.8</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>26987.4</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>7922.4</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>17139</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>150088.4</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>114300.5</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>22402.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>12321.8</v>
+        <v>12473.4</v>
       </c>
       <c r="C88" t="n">
-        <v>22213.2</v>
+        <v>34686.7</v>
       </c>
       <c r="D88" t="n">
-        <v>3981.4</v>
+        <v>4648.5</v>
       </c>
       <c r="E88" t="n">
-        <v>7776.6</v>
+        <v>12425.1</v>
       </c>
       <c r="F88" t="n">
-        <v>11622.3</v>
+        <v>10306.4</v>
       </c>
       <c r="G88" t="n">
-        <v>22601.3</v>
+        <v>32907.7</v>
       </c>
       <c r="H88" t="n">
-        <v>43657.9</v>
+        <v>45492.3</v>
       </c>
       <c r="I88" t="n">
-        <v>88037.10000000001</v>
+        <v>133529.3</v>
       </c>
       <c r="J88" t="n">
-        <v>17936.2</v>
+        <v>24084.5</v>
       </c>
       <c r="K88" t="n">
-        <v>29868.1</v>
+        <v>53952.6</v>
       </c>
       <c r="L88" t="n">
-        <v>80178.3</v>
+        <v>77510.8</v>
       </c>
       <c r="M88" t="n">
-        <v>148730.3</v>
+        <v>226241.1</v>
       </c>
       <c r="N88" t="n">
-        <v>281528</v>
+        <v>289919.3</v>
       </c>
       <c r="O88" t="n">
-        <v>529513</v>
+        <v>819432.3</v>
       </c>
       <c r="P88" t="n">
-        <v>93559.89999999999</v>
+        <v>92925</v>
       </c>
       <c r="Q88" t="n">
-        <v>174427.1</v>
+        <v>267352</v>
       </c>
       <c r="R88" t="n">
-        <v>21157.2</v>
+        <v>21042.2</v>
       </c>
       <c r="S88" t="n">
-        <v>33083.6</v>
+        <v>54125.8</v>
       </c>
       <c r="T88" t="n">
-        <v>19978.8</v>
+        <v>18635.8</v>
       </c>
       <c r="U88" t="n">
-        <v>39191.3</v>
+        <v>57827.1</v>
       </c>
       <c r="V88" t="n">
-        <v>26987.5</v>
+        <v>28116.4</v>
       </c>
       <c r="W88" t="n">
-        <v>51096.3</v>
+        <v>79212.8</v>
       </c>
       <c r="X88" t="n">
-        <v>7922.3</v>
+        <v>8897.200000000001</v>
       </c>
       <c r="Y88" t="n">
-        <v>15883.5</v>
+        <v>24780.7</v>
       </c>
       <c r="Z88" t="n">
-        <v>17139</v>
+        <v>23100.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>28512.8</v>
+        <v>51613.3</v>
       </c>
       <c r="AB88" t="n">
-        <v>150088.4</v>
+        <v>153296.9</v>
       </c>
       <c r="AC88" t="n">
-        <v>294267.4</v>
+        <v>447564.3</v>
       </c>
       <c r="AD88" t="n">
-        <v>114300.6</v>
+        <v>113521.9</v>
       </c>
       <c r="AE88" t="n">
-        <v>206732.7</v>
+        <v>320254.7</v>
       </c>
       <c r="AF88" t="n">
-        <v>22402.7</v>
+        <v>23297.6</v>
       </c>
       <c r="AG88" t="n">
-        <v>45334.9</v>
+        <v>68632.5</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>12473.5</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>4648.5</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>10306.4</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>45492.19999999998</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>24084.5</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>77510.80000000002</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>289919.3</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>92924.89999999999</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>21042.2</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>18635.8</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>28116.5</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>8897.200000000001</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>23100.5</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>153296.9</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>113522</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>23297.6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -8937,6 +12833,54 @@
       </c>
       <c r="AG89" t="n">
         <v>91205.60000000001</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>12374.5</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>5427.499999999998</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>11048.8</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>47171.90000000002</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>32822.4</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>87556.10000000001</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>324237.3999999999</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>105223.3</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>26012.7</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>19733.7</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>31279.89999999999</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>10569.6</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>31472.2</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>162115.4</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>130649.8</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>22573.10000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/国民经济核算/国内生产总值(现价).xlsx
+++ b/data_quarter/zb/国民经济核算/国内生产总值(现价).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW89"/>
+  <dimension ref="A1:AG89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,86 +594,6 @@
           <t>金融业增加值_累计值</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>交通运输、仓储和邮政业增加值</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>住宿和餐饮业增加值</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>信息传输、软件和信息技术服务业增加值</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>其他行业增加值</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>农林牧渔业增加值</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>制造业增加值</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>国内生产总值</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>工业增加值</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业增加值</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>房地产业增加值</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>批发和零售业增加值</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>租赁和商务服务业增加值</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>第一产业增加值</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>第三产业增加值</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>第二产业增加值</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>金融业增加值</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -765,313 +685,187 @@
       <c r="AG2" t="n">
         <v>1237.7</v>
       </c>
-      <c r="AH2" t="n">
-        <v>1379.4</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>570.5</v>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="n">
-        <v>3586.7</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1947.5</v>
-      </c>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="n">
-        <v>21329.9</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>8798.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>777.1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>931.4</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>2101.2</v>
-      </c>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="n">
-        <v>1908.3</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9873.9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>9547.799999999999</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1237.7</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年B</t>
+          <t>2000年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1571.7</v>
+        <v>1370</v>
       </c>
       <c r="C3" t="n">
-        <v>2951.1</v>
+        <v>4321.1</v>
       </c>
       <c r="D3" t="n">
-        <v>536.5</v>
+        <v>523.2</v>
       </c>
       <c r="E3" t="n">
-        <v>1107</v>
+        <v>1630.2</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>3465.5</v>
+        <v>3518.7</v>
       </c>
       <c r="I3" t="n">
-        <v>7052.1</v>
+        <v>10570.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3209.7</v>
+        <v>4196.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5157.2</v>
+        <v>9353.4</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>24043.4</v>
+        <v>25712.5</v>
       </c>
       <c r="O3" t="n">
-        <v>45373.3</v>
+        <v>71085.89999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>9799.6</v>
+        <v>10502.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>18598.1</v>
+        <v>29100.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1359</v>
+        <v>1417.4</v>
       </c>
       <c r="S3" t="n">
-        <v>2136.1</v>
+        <v>3553.5</v>
       </c>
       <c r="T3" t="n">
-        <v>903</v>
+        <v>1068.9</v>
       </c>
       <c r="U3" t="n">
-        <v>1834.4</v>
+        <v>2903.3</v>
       </c>
       <c r="V3" t="n">
-        <v>2073.3</v>
+        <v>1943.5</v>
       </c>
       <c r="W3" t="n">
-        <v>4174.6</v>
+        <v>6118</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>3158.2</v>
+        <v>4140.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>5066.5</v>
+        <v>9207.200000000001</v>
       </c>
       <c r="AB3" t="n">
-        <v>9758</v>
+        <v>9685.299999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>19631.8</v>
+        <v>29317.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>11127.2</v>
+        <v>11886.6</v>
       </c>
       <c r="AE3" t="n">
-        <v>20675</v>
+        <v>32561.6</v>
       </c>
       <c r="AF3" t="n">
-        <v>1125.2</v>
+        <v>1171.8</v>
       </c>
       <c r="AG3" t="n">
-        <v>2362.8</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1571.7</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>536.5</v>
-      </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="n">
-        <v>3465.400000000001</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>3209.7</v>
-      </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="n">
-        <v>24043.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9799.599999999999</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>1359</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>903.0000000000001</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>2073.400000000001</v>
-      </c>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="n">
-        <v>3158.2</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9757.9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>11127.2</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>1125.1</v>
+        <v>3534.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年C</t>
+          <t>2000年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1370</v>
+        <v>1571.7</v>
       </c>
       <c r="C4" t="n">
-        <v>4321.1</v>
+        <v>2951.1</v>
       </c>
       <c r="D4" t="n">
-        <v>523.2</v>
+        <v>536.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1630.2</v>
+        <v>1107</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>3518.7</v>
+        <v>3465.5</v>
       </c>
       <c r="I4" t="n">
-        <v>10570.9</v>
+        <v>7052.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4196.1</v>
+        <v>3209.7</v>
       </c>
       <c r="K4" t="n">
-        <v>9353.4</v>
+        <v>5157.2</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>25712.5</v>
+        <v>24043.4</v>
       </c>
       <c r="O4" t="n">
-        <v>71085.89999999999</v>
+        <v>45373.3</v>
       </c>
       <c r="P4" t="n">
-        <v>10502.8</v>
+        <v>9799.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>29100.9</v>
+        <v>18598.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1417.4</v>
+        <v>1359</v>
       </c>
       <c r="S4" t="n">
-        <v>3553.5</v>
+        <v>2136.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1068.9</v>
+        <v>903</v>
       </c>
       <c r="U4" t="n">
-        <v>2903.3</v>
+        <v>1834.4</v>
       </c>
       <c r="V4" t="n">
-        <v>1943.5</v>
+        <v>2073.3</v>
       </c>
       <c r="W4" t="n">
-        <v>6118</v>
+        <v>4174.6</v>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>4140.6</v>
+        <v>3158.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>9207.200000000001</v>
+        <v>5066.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>9685.299999999999</v>
+        <v>9758</v>
       </c>
       <c r="AC4" t="n">
-        <v>29317.1</v>
+        <v>19631.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>11886.6</v>
+        <v>11127.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>32561.6</v>
+        <v>20675</v>
       </c>
       <c r="AF4" t="n">
-        <v>1171.8</v>
+        <v>1125.2</v>
       </c>
       <c r="AG4" t="n">
-        <v>3534.7</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1370</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>523.2</v>
-      </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="n">
-        <v>3518.799999999999</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>4196.2</v>
-      </c>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="n">
-        <v>25712.59999999999</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10502.8</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>1417.4</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>1068.9</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>1943.4</v>
-      </c>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="n">
-        <v>4140.700000000001</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9685.299999999999</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>11886.6</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>1171.9</v>
+        <v>2362.8</v>
       </c>
     </row>
     <row r="5">
@@ -1164,48 +958,6 @@
       <c r="AG5" t="n">
         <v>4842.2</v>
       </c>
-      <c r="AH5" t="n">
-        <v>1840.799999999999</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>516.1000000000001</v>
-      </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="n">
-        <v>3522</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>5590.200000000001</v>
-      </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="n">
-        <v>29194.20000000001</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>11157.6</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>1980.5</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1237.599999999999</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>2041.8</v>
-      </c>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="n">
-        <v>5510.199999999999</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>10582</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>13102.1</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>1307.5</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1297,313 +1049,187 @@
       <c r="AG6" t="n">
         <v>1343.4</v>
       </c>
-      <c r="AH6" t="n">
-        <v>1604.1</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>638.6</v>
-      </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="n">
-        <v>4342.6</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>2061.6</v>
-      </c>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="n">
-        <v>24086.4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9838</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>834.2</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1071.9</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>2351.9</v>
-      </c>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="n">
-        <v>2015.3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>11429.7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>10641.4</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>1343.4</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年B</t>
+          <t>2001年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1764.6</v>
+        <v>1521.2</v>
       </c>
       <c r="C7" t="n">
-        <v>3368.7</v>
+        <v>4889.9</v>
       </c>
       <c r="D7" t="n">
-        <v>599.6</v>
+        <v>588</v>
       </c>
       <c r="E7" t="n">
-        <v>1238.2</v>
+        <v>1826.2</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>4188.1</v>
+        <v>4234.9</v>
       </c>
       <c r="I7" t="n">
-        <v>8530.700000000001</v>
+        <v>12765.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3297</v>
+        <v>4524</v>
       </c>
       <c r="K7" t="n">
-        <v>5358.5</v>
+        <v>9882.5</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>26726.6</v>
+        <v>28333.3</v>
       </c>
       <c r="O7" t="n">
-        <v>50813</v>
+        <v>79146.3</v>
       </c>
       <c r="P7" t="n">
-        <v>10874.8</v>
+        <v>11294</v>
       </c>
       <c r="Q7" t="n">
-        <v>20712.8</v>
+        <v>32006.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1472.7</v>
+        <v>1532.2</v>
       </c>
       <c r="S7" t="n">
-        <v>2307</v>
+        <v>3839.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1012.9</v>
+        <v>1213</v>
       </c>
       <c r="U7" t="n">
-        <v>2084.8</v>
+        <v>3297.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2307.7</v>
+        <v>2161.4</v>
       </c>
       <c r="W7" t="n">
-        <v>4659.7</v>
+        <v>6821.1</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>3235</v>
+        <v>4453.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>5250.4</v>
+        <v>9704.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>11179</v>
+        <v>11089.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>22608.7</v>
+        <v>33698.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>12312.6</v>
+        <v>12790</v>
       </c>
       <c r="AE7" t="n">
-        <v>22954</v>
+        <v>35743.9</v>
       </c>
       <c r="AF7" t="n">
-        <v>1209.2</v>
+        <v>1264.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>2552.6</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1764.6</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>599.6</v>
-      </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="n">
-        <v>4188.1</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>3296.9</v>
-      </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="n">
-        <v>26726.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10874.8</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>1472.8</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>1012.9</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>2307.8</v>
-      </c>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="n">
-        <v>3235.099999999999</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>11179</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>12312.6</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>1209.2</v>
+        <v>3817.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年C</t>
+          <t>2001年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1521.2</v>
+        <v>1764.6</v>
       </c>
       <c r="C8" t="n">
-        <v>4889.9</v>
+        <v>3368.7</v>
       </c>
       <c r="D8" t="n">
-        <v>588</v>
+        <v>599.6</v>
       </c>
       <c r="E8" t="n">
-        <v>1826.2</v>
+        <v>1238.2</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>4234.9</v>
+        <v>4188.1</v>
       </c>
       <c r="I8" t="n">
-        <v>12765.6</v>
+        <v>8530.700000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>4524</v>
+        <v>3297</v>
       </c>
       <c r="K8" t="n">
-        <v>9882.5</v>
+        <v>5358.5</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>28333.3</v>
+        <v>26726.6</v>
       </c>
       <c r="O8" t="n">
-        <v>79146.3</v>
+        <v>50813</v>
       </c>
       <c r="P8" t="n">
-        <v>11294</v>
+        <v>10874.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>32006.8</v>
+        <v>20712.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1532.2</v>
+        <v>1472.7</v>
       </c>
       <c r="S8" t="n">
-        <v>3839.2</v>
+        <v>2307</v>
       </c>
       <c r="T8" t="n">
-        <v>1213</v>
+        <v>1012.9</v>
       </c>
       <c r="U8" t="n">
-        <v>3297.8</v>
+        <v>2084.8</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.4</v>
+        <v>2307.7</v>
       </c>
       <c r="W8" t="n">
-        <v>6821.1</v>
+        <v>4659.7</v>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>4453.8</v>
+        <v>3235</v>
       </c>
       <c r="AA8" t="n">
-        <v>9704.1</v>
+        <v>5250.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>11089.6</v>
+        <v>11179</v>
       </c>
       <c r="AC8" t="n">
-        <v>33698.3</v>
+        <v>22608.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>12790</v>
+        <v>12312.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>35743.9</v>
+        <v>22954</v>
       </c>
       <c r="AF8" t="n">
-        <v>1264.6</v>
+        <v>1209.2</v>
       </c>
       <c r="AG8" t="n">
-        <v>3817.2</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1521.2</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>588</v>
-      </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="n">
-        <v>4234.9</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>4524</v>
-      </c>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="n">
-        <v>28333.3</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11294</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>1532.2</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>1213</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>2161.400000000001</v>
-      </c>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="n">
-        <v>4453.700000000001</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>11089.6</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>12789.9</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>1264.6</v>
+        <v>2552.6</v>
       </c>
     </row>
     <row r="9">
@@ -1696,48 +1322,6 @@
       <c r="AG9" t="n">
         <v>5202.8</v>
       </c>
-      <c r="AH9" t="n">
-        <v>1981.400000000001</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>573.8999999999999</v>
-      </c>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="n">
-        <v>4216.999999999998</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>5897.5</v>
-      </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="n">
-        <v>31716.8</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11847.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>2106.3</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1408</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>2299.699999999999</v>
-      </c>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="n">
-        <v>5798.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>12002.89999999999</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>13915.5</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>1385.6</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1829,313 +1413,187 @@
       <c r="AG10" t="n">
         <v>1434.3</v>
       </c>
-      <c r="AH10" t="n">
-        <v>1722.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>728.6</v>
-      </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="n">
-        <v>5072.7</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>2206.3</v>
-      </c>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="n">
-        <v>26295</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10438</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>914.6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>1201.4</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>2576.7</v>
-      </c>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="n">
-        <v>2147.6</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>12827.6</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>11319.7</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>1434.3</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2002年B</t>
+          <t>2002年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1901.9</v>
+        <v>1677.5</v>
       </c>
       <c r="C11" t="n">
-        <v>3624.4</v>
+        <v>5301.9</v>
       </c>
       <c r="D11" t="n">
-        <v>674.9</v>
+        <v>669.2</v>
       </c>
       <c r="E11" t="n">
-        <v>1403.5</v>
+        <v>2072.7</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>4867.7</v>
+        <v>4943.4</v>
       </c>
       <c r="I11" t="n">
-        <v>9940.299999999999</v>
+        <v>14883.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3463.1</v>
+        <v>4820.1</v>
       </c>
       <c r="K11" t="n">
-        <v>5669.5</v>
+        <v>10489.5</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>29194.8</v>
+        <v>31257.3</v>
       </c>
       <c r="O11" t="n">
-        <v>55489.8</v>
+        <v>86747.10000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>11716.1</v>
+        <v>12378.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>22154.1</v>
+        <v>34532.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1621.2</v>
+        <v>1685.3</v>
       </c>
       <c r="S11" t="n">
-        <v>2535.8</v>
+        <v>4221.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1142.3</v>
+        <v>1381.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2343.7</v>
+        <v>3725.5</v>
       </c>
       <c r="V11" t="n">
-        <v>2516.2</v>
+        <v>2361.2</v>
       </c>
       <c r="W11" t="n">
-        <v>5092.9</v>
+        <v>7454.1</v>
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>3385.8</v>
+        <v>4731.2</v>
       </c>
       <c r="AA11" t="n">
-        <v>5533.4</v>
+        <v>10264.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>12509.2</v>
+        <v>12502.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>25336.8</v>
+        <v>37838.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>13299.8</v>
+        <v>14024</v>
       </c>
       <c r="AE11" t="n">
-        <v>24619.5</v>
+        <v>38643.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>1291.3</v>
+        <v>1340.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>2725.6</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1901.9</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>674.9</v>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="n">
-        <v>4867.599999999999</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>3463.2</v>
-      </c>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="n">
-        <v>29194.8</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>11716.1</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>1621.2</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>1142.3</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>2516.2</v>
-      </c>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="n">
-        <v>3385.8</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>12509.2</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>13299.8</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>1291.3</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2002年C</t>
+          <t>2002年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1677.5</v>
+        <v>1901.9</v>
       </c>
       <c r="C12" t="n">
-        <v>5301.9</v>
+        <v>3624.4</v>
       </c>
       <c r="D12" t="n">
-        <v>669.2</v>
+        <v>674.9</v>
       </c>
       <c r="E12" t="n">
-        <v>2072.7</v>
+        <v>1403.5</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>4943.4</v>
+        <v>4867.7</v>
       </c>
       <c r="I12" t="n">
-        <v>14883.7</v>
+        <v>9940.299999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>4820.1</v>
+        <v>3463.1</v>
       </c>
       <c r="K12" t="n">
-        <v>10489.5</v>
+        <v>5669.5</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>31257.3</v>
+        <v>29194.8</v>
       </c>
       <c r="O12" t="n">
-        <v>86747.10000000001</v>
+        <v>55489.8</v>
       </c>
       <c r="P12" t="n">
-        <v>12378.4</v>
+        <v>11716.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>34532.5</v>
+        <v>22154.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1685.3</v>
+        <v>1621.2</v>
       </c>
       <c r="S12" t="n">
-        <v>4221.1</v>
+        <v>2535.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1381.9</v>
+        <v>1142.3</v>
       </c>
       <c r="U12" t="n">
-        <v>3725.5</v>
+        <v>2343.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2361.2</v>
+        <v>2516.2</v>
       </c>
       <c r="W12" t="n">
-        <v>7454.1</v>
+        <v>5092.9</v>
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>4731.2</v>
+        <v>3385.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>10264.7</v>
+        <v>5533.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>12502.1</v>
+        <v>12509.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>37838.9</v>
+        <v>25336.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>14024</v>
+        <v>13299.8</v>
       </c>
       <c r="AE12" t="n">
-        <v>38643.5</v>
+        <v>24619.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>1340.4</v>
+        <v>1291.3</v>
       </c>
       <c r="AG12" t="n">
-        <v>4066</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1677.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>669.1999999999998</v>
-      </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="n">
-        <v>4943.400000000001</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>4820</v>
-      </c>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="n">
-        <v>31257.3</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>12378.4</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>1685.3</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1381.8</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>2361.200000000001</v>
-      </c>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="n">
-        <v>4731.300000000001</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>12502.1</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>14024</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>1340.4</v>
+        <v>2725.6</v>
       </c>
     </row>
     <row r="13">
@@ -2228,48 +1686,6 @@
       <c r="AG13" t="n">
         <v>5555.8</v>
       </c>
-      <c r="AH13" t="n">
-        <v>2192.400000000001</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>652.1000000000004</v>
-      </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="n">
-        <v>4934.899999999998</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>6046.200000000001</v>
-      </c>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="n">
-        <v>34970.29999999999</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>13242.4</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>2261</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>1609</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>2542.699999999999</v>
-      </c>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="n">
-        <v>5925.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>13584.2</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>15460.6</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>1489.8</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2361,313 +1777,187 @@
       <c r="AG14" t="n">
         <v>1588.8</v>
       </c>
-      <c r="AH14" t="n">
-        <v>1840.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>817.9</v>
-      </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="n">
-        <v>5893.4</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>2292.1</v>
-      </c>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="n">
-        <v>29825.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12127.9</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>1056.5</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>1390.2</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>2818</v>
-      </c>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="n">
-        <v>2222.5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>14456.8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>13146.2</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>1588.8</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2003年B</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1941</v>
+        <v>1793.6</v>
       </c>
       <c r="C15" t="n">
-        <v>3781.6</v>
+        <v>5575.2</v>
       </c>
       <c r="D15" t="n">
-        <v>738.8</v>
+        <v>801.2</v>
       </c>
       <c r="E15" t="n">
-        <v>1556.7</v>
+        <v>2357.9</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>5514.4</v>
+        <v>5426.7</v>
       </c>
       <c r="I15" t="n">
-        <v>11407.9</v>
+        <v>16834.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3537.3</v>
+        <v>5154.5</v>
       </c>
       <c r="K15" t="n">
-        <v>5829.5</v>
+        <v>10984</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>32537.3</v>
+        <v>35291.9</v>
       </c>
       <c r="O15" t="n">
-        <v>62362.8</v>
+        <v>97654.7</v>
       </c>
       <c r="P15" t="n">
-        <v>13398.5</v>
+        <v>14303.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>25526.4</v>
+        <v>39830.3</v>
       </c>
       <c r="R15" t="n">
-        <v>1864</v>
+        <v>2040.4</v>
       </c>
       <c r="S15" t="n">
-        <v>2920.5</v>
+        <v>4960.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1351.2</v>
+        <v>1557.5</v>
       </c>
       <c r="U15" t="n">
-        <v>2741.4</v>
+        <v>4298.9</v>
       </c>
       <c r="V15" t="n">
-        <v>2784.6</v>
+        <v>2752.9</v>
       </c>
       <c r="W15" t="n">
-        <v>5602.6</v>
+        <v>8355.5</v>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
-        <v>3447.2</v>
+        <v>5046.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>5669.7</v>
+        <v>10715.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>13870.6</v>
+        <v>13947.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>28327.3</v>
+        <v>42274.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>15219.6</v>
+        <v>16298.4</v>
       </c>
       <c r="AE15" t="n">
-        <v>28365.8</v>
+        <v>44664.1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1407.4</v>
+        <v>1461.2</v>
       </c>
       <c r="AG15" t="n">
-        <v>2996.2</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1941.1</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>738.8000000000001</v>
-      </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="n">
-        <v>5514.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>3537.4</v>
-      </c>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="n">
-        <v>32537.3</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>13398.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>1864</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>1351.2</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>2784.6</v>
-      </c>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="n">
-        <v>3447.2</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>13870.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>15219.6</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>1407.4</v>
+        <v>4457.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2003年C</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1793.6</v>
+        <v>1941</v>
       </c>
       <c r="C16" t="n">
-        <v>5575.2</v>
+        <v>3781.6</v>
       </c>
       <c r="D16" t="n">
-        <v>801.2</v>
+        <v>738.8</v>
       </c>
       <c r="E16" t="n">
-        <v>2357.9</v>
+        <v>1556.7</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>5426.7</v>
+        <v>5514.4</v>
       </c>
       <c r="I16" t="n">
-        <v>16834.6</v>
+        <v>11407.9</v>
       </c>
       <c r="J16" t="n">
-        <v>5154.5</v>
+        <v>3537.3</v>
       </c>
       <c r="K16" t="n">
-        <v>10984</v>
+        <v>5829.5</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>35291.9</v>
+        <v>32537.3</v>
       </c>
       <c r="O16" t="n">
-        <v>97654.7</v>
+        <v>62362.8</v>
       </c>
       <c r="P16" t="n">
-        <v>14303.9</v>
+        <v>13398.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>39830.3</v>
+        <v>25526.4</v>
       </c>
       <c r="R16" t="n">
-        <v>2040.4</v>
+        <v>1864</v>
       </c>
       <c r="S16" t="n">
-        <v>4960.9</v>
+        <v>2920.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1557.5</v>
+        <v>1351.2</v>
       </c>
       <c r="U16" t="n">
-        <v>4298.9</v>
+        <v>2741.4</v>
       </c>
       <c r="V16" t="n">
-        <v>2752.9</v>
+        <v>2784.6</v>
       </c>
       <c r="W16" t="n">
-        <v>8355.5</v>
+        <v>5602.6</v>
       </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>5046.1</v>
+        <v>3447.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>10715.9</v>
+        <v>5669.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>13947.3</v>
+        <v>13870.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>42274.7</v>
+        <v>28327.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>16298.4</v>
+        <v>15219.6</v>
       </c>
       <c r="AE16" t="n">
-        <v>44664.1</v>
+        <v>28365.8</v>
       </c>
       <c r="AF16" t="n">
-        <v>1461.2</v>
+        <v>1407.4</v>
       </c>
       <c r="AG16" t="n">
-        <v>4457.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1793.6</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>801.2</v>
-      </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="n">
-        <v>5426.699999999999</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>5154.5</v>
-      </c>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="n">
-        <v>35291.89999999999</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>14303.9</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>2040.4</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>1557.5</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>2752.9</v>
-      </c>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="n">
-        <v>5046.2</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>13947.4</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>16298.3</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>1461.3</v>
+        <v>2996.2</v>
       </c>
     </row>
     <row r="17">
@@ -2760,48 +2050,6 @@
       <c r="AG17" t="n">
         <v>6045.7</v>
       </c>
-      <c r="AH17" t="n">
-        <v>2339.6</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>768.1999999999998</v>
-      </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="n">
-        <v>5919.200000000001</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>6396.599999999999</v>
-      </c>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="n">
-        <v>39767.3</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>15531.89999999999</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>2549.900000000001</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1858.1</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>2815.700000000001</v>
-      </c>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="n">
-        <v>6254.300000000001</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>15481.3</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>18031.7</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>1588.2</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2893,313 +2141,187 @@
       <c r="AG18" t="n">
         <v>1764.3</v>
       </c>
-      <c r="AH18" t="n">
-        <v>2159.8</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>898.1</v>
-      </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="n">
-        <v>7090.2</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>2698.4</v>
-      </c>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="n">
-        <v>34544.6</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>14093.6</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>1242.8</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1628.1</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>2969.4</v>
-      </c>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="n">
-        <v>2615.6</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>16637</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>15292.1</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>1764.3</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2375.7</v>
+        <v>2137.3</v>
       </c>
       <c r="C19" t="n">
-        <v>4535.4</v>
+        <v>6672.8</v>
       </c>
       <c r="D19" t="n">
-        <v>896.7</v>
+        <v>927.6</v>
       </c>
       <c r="E19" t="n">
-        <v>1794.9</v>
+        <v>2722.4</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>6684.4</v>
+        <v>6412.7</v>
       </c>
       <c r="I19" t="n">
-        <v>13774.5</v>
+        <v>20187.3</v>
       </c>
       <c r="J19" t="n">
-        <v>4360.7</v>
+        <v>6494.9</v>
       </c>
       <c r="K19" t="n">
-        <v>7059.1</v>
+        <v>13554</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>38700.8</v>
+        <v>41855</v>
       </c>
       <c r="O19" t="n">
-        <v>73245.39999999999</v>
+        <v>115100.4</v>
       </c>
       <c r="P19" t="n">
-        <v>15965.7</v>
+        <v>17019.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>30059.3</v>
+        <v>47078.9</v>
       </c>
       <c r="R19" t="n">
-        <v>2170.6</v>
+        <v>2406.8</v>
       </c>
       <c r="S19" t="n">
-        <v>3413.4</v>
+        <v>5820.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1603</v>
+        <v>1800.2</v>
       </c>
       <c r="U19" t="n">
-        <v>3231</v>
+        <v>5031.2</v>
       </c>
       <c r="V19" t="n">
-        <v>3128.7</v>
+        <v>3084</v>
       </c>
       <c r="W19" t="n">
-        <v>6098.2</v>
+        <v>9182.200000000001</v>
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
-        <v>4250.5</v>
+        <v>6358.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>6866.1</v>
+        <v>13224.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>16364.9</v>
+        <v>16124.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>33001.9</v>
+        <v>49126.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>18085.4</v>
+        <v>19372.1</v>
       </c>
       <c r="AE19" t="n">
-        <v>33377.4</v>
+        <v>52749.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>1515.3</v>
+        <v>1571.9</v>
       </c>
       <c r="AG19" t="n">
-        <v>3279.6</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2375.599999999999</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>896.8000000000001</v>
-      </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="n">
-        <v>6684.3</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>4360.700000000001</v>
-      </c>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="n">
-        <v>38700.8</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>15965.7</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>2170.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>1602.9</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>3128.8</v>
-      </c>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="n">
-        <v>4250.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>16364.9</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>18085.3</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>1515.3</v>
+        <v>4851.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2137.3</v>
+        <v>2375.7</v>
       </c>
       <c r="C20" t="n">
-        <v>6672.8</v>
+        <v>4535.4</v>
       </c>
       <c r="D20" t="n">
-        <v>927.6</v>
+        <v>896.7</v>
       </c>
       <c r="E20" t="n">
-        <v>2722.4</v>
+        <v>1794.9</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>6412.7</v>
+        <v>6684.4</v>
       </c>
       <c r="I20" t="n">
-        <v>20187.3</v>
+        <v>13774.5</v>
       </c>
       <c r="J20" t="n">
-        <v>6494.9</v>
+        <v>4360.7</v>
       </c>
       <c r="K20" t="n">
-        <v>13554</v>
+        <v>7059.1</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>41855</v>
+        <v>38700.8</v>
       </c>
       <c r="O20" t="n">
-        <v>115100.4</v>
+        <v>73245.39999999999</v>
       </c>
       <c r="P20" t="n">
-        <v>17019.6</v>
+        <v>15965.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>47078.9</v>
+        <v>30059.3</v>
       </c>
       <c r="R20" t="n">
-        <v>2406.8</v>
+        <v>2170.6</v>
       </c>
       <c r="S20" t="n">
-        <v>5820.2</v>
+        <v>3413.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1800.2</v>
+        <v>1603</v>
       </c>
       <c r="U20" t="n">
-        <v>5031.2</v>
+        <v>3231</v>
       </c>
       <c r="V20" t="n">
-        <v>3084</v>
+        <v>3128.7</v>
       </c>
       <c r="W20" t="n">
-        <v>9182.200000000001</v>
+        <v>6098.2</v>
       </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
-        <v>6358.6</v>
+        <v>4250.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>13224.7</v>
+        <v>6866.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>16124.3</v>
+        <v>16364.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>49126.2</v>
+        <v>33001.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>19372.1</v>
+        <v>18085.4</v>
       </c>
       <c r="AE20" t="n">
-        <v>52749.5</v>
+        <v>33377.4</v>
       </c>
       <c r="AF20" t="n">
-        <v>1571.9</v>
+        <v>1515.3</v>
       </c>
       <c r="AG20" t="n">
-        <v>4851.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>2137.400000000001</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>927.5</v>
-      </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="n">
-        <v>6412.799999999999</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>6494.9</v>
-      </c>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="n">
-        <v>41855</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17019.6</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>2406.8</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>1800.2</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>3084.000000000001</v>
-      </c>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="n">
-        <v>6358.6</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>16124.3</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>19372.1</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>1571.9</v>
+        <v>3279.6</v>
       </c>
     </row>
     <row r="21">
@@ -3292,48 +2414,6 @@
       <c r="AG21" t="n">
         <v>6600.2</v>
       </c>
-      <c r="AH21" t="n">
-        <v>2633.7</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>942.4000000000001</v>
-      </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="n">
-        <v>6567.299999999999</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>7856.700000000001</v>
-      </c>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="n">
-        <v>46739.80000000002</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>18695.99999999999</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>2900.3</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>2120.900000000001</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>3273.599999999999</v>
-      </c>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="n">
-        <v>7679.599999999999</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>17524.7</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>21535.5</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>1748.7</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3425,313 +2505,187 @@
       <c r="AG22" t="n">
         <v>1935.9</v>
       </c>
-      <c r="AH22" t="n">
-        <v>2554.9</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1048.4</v>
-      </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="n">
-        <v>8381.200000000001</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>2986.8</v>
-      </c>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="n">
-        <v>40453.3</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>16766.2</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>1451.8</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>1988.4</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>3339.7</v>
-      </c>
-      <c r="AS22" t="inlineStr"/>
-      <c r="AT22" t="n">
-        <v>2884</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>19410.3</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>18159</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>1935.9</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2867.6</v>
+        <v>2540.5</v>
       </c>
       <c r="C23" t="n">
-        <v>5422.5</v>
+        <v>7963</v>
       </c>
       <c r="D23" t="n">
-        <v>1035.4</v>
+        <v>1052.5</v>
       </c>
       <c r="E23" t="n">
-        <v>2083.8</v>
+        <v>3136.3</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>7739</v>
+        <v>7569.6</v>
       </c>
       <c r="I23" t="n">
-        <v>16120.2</v>
+        <v>23689.9</v>
       </c>
       <c r="J23" t="n">
-        <v>4571</v>
+        <v>6690.4</v>
       </c>
       <c r="K23" t="n">
-        <v>7557.8</v>
+        <v>14248.3</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>44793.1</v>
+        <v>48047.8</v>
       </c>
       <c r="O23" t="n">
-        <v>85246.39999999999</v>
+        <v>133294.1</v>
       </c>
       <c r="P23" t="n">
-        <v>18925</v>
+        <v>20073.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>35691.1</v>
+        <v>55764.3</v>
       </c>
       <c r="R23" t="n">
-        <v>2568.9</v>
+        <v>2773.6</v>
       </c>
       <c r="S23" t="n">
-        <v>4020.8</v>
+        <v>6794.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1945.6</v>
+        <v>2098.7</v>
       </c>
       <c r="U23" t="n">
-        <v>3933.9</v>
+        <v>6032.6</v>
       </c>
       <c r="V23" t="n">
-        <v>3459.1</v>
+        <v>3446.8</v>
       </c>
       <c r="W23" t="n">
-        <v>6798.8</v>
+        <v>10245.6</v>
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
-        <v>4438.6</v>
+        <v>6527.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>7322.6</v>
+        <v>13850.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>18929.2</v>
+        <v>18746</v>
       </c>
       <c r="AC23" t="n">
-        <v>38339.5</v>
+        <v>57085.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>21425.3</v>
+        <v>22774</v>
       </c>
       <c r="AE23" t="n">
-        <v>39584.3</v>
+        <v>62358.3</v>
       </c>
       <c r="AF23" t="n">
-        <v>1681.5</v>
+        <v>1802.4</v>
       </c>
       <c r="AG23" t="n">
-        <v>3617.4</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>2867.6</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1035.4</v>
-      </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="n">
-        <v>7739</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>4571</v>
-      </c>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="n">
-        <v>44793.09999999999</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>18924.9</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>2569</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>1945.5</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>3459.1</v>
-      </c>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="n">
-        <v>4438.6</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>18929.2</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>21425.3</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>1681.5</v>
+        <v>5419.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2540.5</v>
+        <v>2867.6</v>
       </c>
       <c r="C24" t="n">
-        <v>7963</v>
+        <v>5422.5</v>
       </c>
       <c r="D24" t="n">
-        <v>1052.5</v>
+        <v>1035.4</v>
       </c>
       <c r="E24" t="n">
-        <v>3136.3</v>
+        <v>2083.8</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>7569.6</v>
+        <v>7739</v>
       </c>
       <c r="I24" t="n">
-        <v>23689.9</v>
+        <v>16120.2</v>
       </c>
       <c r="J24" t="n">
-        <v>6690.4</v>
+        <v>4571</v>
       </c>
       <c r="K24" t="n">
-        <v>14248.3</v>
+        <v>7557.8</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>48047.8</v>
+        <v>44793.1</v>
       </c>
       <c r="O24" t="n">
-        <v>133294.1</v>
+        <v>85246.39999999999</v>
       </c>
       <c r="P24" t="n">
-        <v>20073.1</v>
+        <v>18925</v>
       </c>
       <c r="Q24" t="n">
-        <v>55764.3</v>
+        <v>35691.1</v>
       </c>
       <c r="R24" t="n">
-        <v>2773.6</v>
+        <v>2568.9</v>
       </c>
       <c r="S24" t="n">
-        <v>6794.4</v>
+        <v>4020.8</v>
       </c>
       <c r="T24" t="n">
-        <v>2098.7</v>
+        <v>1945.6</v>
       </c>
       <c r="U24" t="n">
-        <v>6032.6</v>
+        <v>3933.9</v>
       </c>
       <c r="V24" t="n">
-        <v>3446.8</v>
+        <v>3459.1</v>
       </c>
       <c r="W24" t="n">
-        <v>10245.6</v>
+        <v>6798.8</v>
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
-        <v>6527.7</v>
+        <v>4438.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>13850.3</v>
+        <v>7322.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>18746</v>
+        <v>18929.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>57085.5</v>
+        <v>38339.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>22774</v>
+        <v>21425.3</v>
       </c>
       <c r="AE24" t="n">
-        <v>62358.3</v>
+        <v>39584.3</v>
       </c>
       <c r="AF24" t="n">
-        <v>1802.4</v>
+        <v>1681.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>5419.8</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>2540.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1052.5</v>
-      </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="n">
-        <v>7569.700000000001</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>6690.499999999999</v>
-      </c>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="n">
-        <v>48047.70000000001</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>20073.2</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>2773.599999999999</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>2098.7</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>3446.8</v>
-      </c>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="n">
-        <v>6527.699999999999</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>18746</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>22774</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>1802.4</v>
+        <v>3617.4</v>
       </c>
     </row>
     <row r="25">
@@ -3824,48 +2778,6 @@
       <c r="AG25" t="n">
         <v>7486</v>
       </c>
-      <c r="AH25" t="n">
-        <v>2705.799999999999</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1059.4</v>
-      </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="n">
-        <v>8052.199999999997</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>8167.900000000001</v>
-      </c>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="n">
-        <v>54024.79999999999</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>22194</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>3606.1</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>2450.1</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>3722.9</v>
-      </c>
-      <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="n">
-        <v>7956.400000000001</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>20344.5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>25723.89999999999</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>2066.2</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -3957,313 +2869,187 @@
       <c r="AG26" t="n">
         <v>2466.3</v>
       </c>
-      <c r="AH26" t="n">
-        <v>2868.8</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1178.2</v>
-      </c>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="n">
-        <v>9594</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>3133.1</v>
-      </c>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="n">
-        <v>47078.9</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>19734.7</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>1753.1</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>2410.3</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>3940.4</v>
-      </c>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="n">
-        <v>3012.7</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>22648</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>21418.2</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>2466.3</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3161.8</v>
+        <v>2899.7</v>
       </c>
       <c r="C27" t="n">
-        <v>6030.5</v>
+        <v>8930.200000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>1158.1</v>
+        <v>1212.2</v>
       </c>
       <c r="E27" t="n">
-        <v>2336.3</v>
+        <v>3548.5</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>9023.6</v>
+        <v>8842</v>
       </c>
       <c r="I27" t="n">
-        <v>18617.6</v>
+        <v>27459.6</v>
       </c>
       <c r="J27" t="n">
-        <v>4907.4</v>
+        <v>7129.6</v>
       </c>
       <c r="K27" t="n">
-        <v>8040.5</v>
+        <v>15170.2</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>52673.3</v>
+        <v>56064.7</v>
       </c>
       <c r="O27" t="n">
-        <v>99752.2</v>
+        <v>155816.8</v>
       </c>
       <c r="P27" t="n">
-        <v>22619.9</v>
+        <v>23720.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>42354.6</v>
+        <v>66075.3</v>
       </c>
       <c r="R27" t="n">
-        <v>3036.7</v>
+        <v>3301.6</v>
       </c>
       <c r="S27" t="n">
-        <v>4789.8</v>
+        <v>8091.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2401.4</v>
+        <v>2489.8</v>
       </c>
       <c r="U27" t="n">
-        <v>4811.7</v>
+        <v>7301.5</v>
       </c>
       <c r="V27" t="n">
-        <v>4094.7</v>
+        <v>4088.1</v>
       </c>
       <c r="W27" t="n">
-        <v>8035.1</v>
+        <v>12123.1</v>
       </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
-        <v>4750</v>
+        <v>6937.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>7762.7</v>
+        <v>14700.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>22348.5</v>
+        <v>22190.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>44996.5</v>
+        <v>67187</v>
       </c>
       <c r="AD27" t="n">
-        <v>25574.7</v>
+        <v>26936.6</v>
       </c>
       <c r="AE27" t="n">
-        <v>46992.9</v>
+        <v>73929.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>2269.7</v>
+        <v>2381</v>
       </c>
       <c r="AG27" t="n">
-        <v>4736</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>3161.7</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1158.1</v>
-      </c>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="n">
-        <v>9023.599999999999</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>4907.4</v>
-      </c>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="n">
-        <v>52673.3</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>22619.9</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>3036.7</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>2401.4</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>4094.7</v>
-      </c>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="n">
-        <v>4750</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>22348.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>25574.7</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>2269.7</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2899.7</v>
+        <v>3161.8</v>
       </c>
       <c r="C28" t="n">
-        <v>8930.200000000001</v>
+        <v>6030.5</v>
       </c>
       <c r="D28" t="n">
-        <v>1212.2</v>
+        <v>1158.1</v>
       </c>
       <c r="E28" t="n">
-        <v>3548.5</v>
+        <v>2336.3</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>8842</v>
+        <v>9023.6</v>
       </c>
       <c r="I28" t="n">
-        <v>27459.6</v>
+        <v>18617.6</v>
       </c>
       <c r="J28" t="n">
-        <v>7129.6</v>
+        <v>4907.4</v>
       </c>
       <c r="K28" t="n">
-        <v>15170.2</v>
+        <v>8040.5</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>56064.7</v>
+        <v>52673.3</v>
       </c>
       <c r="O28" t="n">
-        <v>155816.8</v>
+        <v>99752.2</v>
       </c>
       <c r="P28" t="n">
-        <v>23720.7</v>
+        <v>22619.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>66075.3</v>
+        <v>42354.6</v>
       </c>
       <c r="R28" t="n">
-        <v>3301.6</v>
+        <v>3036.7</v>
       </c>
       <c r="S28" t="n">
-        <v>8091.4</v>
+        <v>4789.8</v>
       </c>
       <c r="T28" t="n">
-        <v>2489.8</v>
+        <v>2401.4</v>
       </c>
       <c r="U28" t="n">
-        <v>7301.5</v>
+        <v>4811.7</v>
       </c>
       <c r="V28" t="n">
-        <v>4088.1</v>
+        <v>4094.7</v>
       </c>
       <c r="W28" t="n">
-        <v>12123.1</v>
+        <v>8035.1</v>
       </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
-        <v>6937.7</v>
+        <v>4750</v>
       </c>
       <c r="AA28" t="n">
-        <v>14700.4</v>
+        <v>7762.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>22190.4</v>
+        <v>22348.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>67187</v>
+        <v>44996.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>26936.6</v>
+        <v>25574.7</v>
       </c>
       <c r="AE28" t="n">
-        <v>73929.5</v>
+        <v>46992.9</v>
       </c>
       <c r="AF28" t="n">
-        <v>2381</v>
+        <v>2269.7</v>
       </c>
       <c r="AG28" t="n">
-        <v>7117</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>2899.700000000001</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1212.2</v>
-      </c>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="n">
-        <v>8842</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>7129.700000000001</v>
-      </c>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="n">
-        <v>56064.59999999999</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>23720.7</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>3301.599999999999</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>2489.8</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>4088</v>
-      </c>
-      <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="n">
-        <v>6937.7</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>22190.5</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>26936.6</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>2381</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="29">
@@ -4356,48 +3142,6 @@
       <c r="AG29" t="n">
         <v>9972.299999999999</v>
       </c>
-      <c r="AH29" t="n">
-        <v>3256.099999999999</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>1244.1</v>
-      </c>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="n">
-        <v>9451.200000000004</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>8866.200000000001</v>
-      </c>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="n">
-        <v>63621.70000000001</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>26160.5</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>4358.700000000001</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>3019.4</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>4410.300000000001</v>
-      </c>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="n">
-        <v>8616.6</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>24575.2</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>30429.7</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>2855.299999999999</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -4489,313 +3233,187 @@
       <c r="AG30" t="n">
         <v>3730.7</v>
       </c>
-      <c r="AH30" t="n">
-        <v>3354.3</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1322.3</v>
-      </c>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="n">
-        <v>11222.3</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>3606.9</v>
-      </c>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="n">
-        <v>57159.3</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>23903.3</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>2167.4</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>2986.9</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>4865.2</v>
-      </c>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="n">
-        <v>3473</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>27703.2</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>25983.1</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>3730.7</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3814.9</v>
+        <v>3448.8</v>
       </c>
       <c r="C31" t="n">
-        <v>7169.2</v>
+        <v>10618</v>
       </c>
       <c r="D31" t="n">
-        <v>1295.8</v>
+        <v>1366.5</v>
       </c>
       <c r="E31" t="n">
-        <v>2618.1</v>
+        <v>3984.6</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>10706.5</v>
+        <v>10825.1</v>
       </c>
       <c r="I31" t="n">
-        <v>21928.8</v>
+        <v>32754</v>
       </c>
       <c r="J31" t="n">
-        <v>5683.1</v>
+        <v>8572</v>
       </c>
       <c r="K31" t="n">
-        <v>9290</v>
+        <v>17862</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>64781.6</v>
+        <v>69482.10000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>121940.9</v>
+        <v>191423.1</v>
       </c>
       <c r="P31" t="n">
-        <v>27482.4</v>
+        <v>28741.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>51385.7</v>
+        <v>80127.60000000001</v>
       </c>
       <c r="R31" t="n">
-        <v>3745.1</v>
+        <v>4024.2</v>
       </c>
       <c r="S31" t="n">
-        <v>5912.5</v>
+        <v>9936.700000000001</v>
       </c>
       <c r="T31" t="n">
-        <v>3227.7</v>
+        <v>3419.3</v>
       </c>
       <c r="U31" t="n">
-        <v>6214.6</v>
+        <v>9633.9</v>
       </c>
       <c r="V31" t="n">
-        <v>5136.7</v>
+        <v>5186.4</v>
       </c>
       <c r="W31" t="n">
-        <v>10001.9</v>
+        <v>15188.2</v>
       </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
-        <v>5510.1</v>
+        <v>8352.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>8983.1</v>
+        <v>17335.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>28145.3</v>
+        <v>28469.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>55848.5</v>
+        <v>84317.89999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>31126.2</v>
+        <v>32660.2</v>
       </c>
       <c r="AE31" t="n">
-        <v>57109.3</v>
+        <v>89769.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>3689.4</v>
+        <v>3898.1</v>
       </c>
       <c r="AG31" t="n">
-        <v>7420.2</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>3814.9</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>1295.8</v>
-      </c>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="n">
-        <v>10706.5</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>5683.1</v>
-      </c>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="n">
-        <v>64781.59999999999</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>27482.4</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>3745.1</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>3227.7</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>5136.7</v>
-      </c>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="n">
-        <v>5510.1</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>28145.3</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>31126.2</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>3689.5</v>
+        <v>11318.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3448.8</v>
+        <v>3814.9</v>
       </c>
       <c r="C32" t="n">
-        <v>10618</v>
+        <v>7169.2</v>
       </c>
       <c r="D32" t="n">
-        <v>1366.5</v>
+        <v>1295.8</v>
       </c>
       <c r="E32" t="n">
-        <v>3984.6</v>
+        <v>2618.1</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>10825.1</v>
+        <v>10706.5</v>
       </c>
       <c r="I32" t="n">
-        <v>32754</v>
+        <v>21928.8</v>
       </c>
       <c r="J32" t="n">
-        <v>8572</v>
+        <v>5683.1</v>
       </c>
       <c r="K32" t="n">
-        <v>17862</v>
+        <v>9290</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>69482.10000000001</v>
+        <v>64781.6</v>
       </c>
       <c r="O32" t="n">
-        <v>191423.1</v>
+        <v>121940.9</v>
       </c>
       <c r="P32" t="n">
-        <v>28741.8</v>
+        <v>27482.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>80127.60000000001</v>
+        <v>51385.7</v>
       </c>
       <c r="R32" t="n">
-        <v>4024.2</v>
+        <v>3745.1</v>
       </c>
       <c r="S32" t="n">
-        <v>9936.700000000001</v>
+        <v>5912.5</v>
       </c>
       <c r="T32" t="n">
-        <v>3419.3</v>
+        <v>3227.7</v>
       </c>
       <c r="U32" t="n">
-        <v>9633.9</v>
+        <v>6214.6</v>
       </c>
       <c r="V32" t="n">
-        <v>5186.4</v>
+        <v>5136.7</v>
       </c>
       <c r="W32" t="n">
-        <v>15188.2</v>
+        <v>10001.9</v>
       </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
-        <v>8352.6</v>
+        <v>5510.1</v>
       </c>
       <c r="AA32" t="n">
-        <v>17335.7</v>
+        <v>8983.1</v>
       </c>
       <c r="AB32" t="n">
-        <v>28469.4</v>
+        <v>28145.3</v>
       </c>
       <c r="AC32" t="n">
-        <v>84317.89999999999</v>
+        <v>55848.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>32660.2</v>
+        <v>31126.2</v>
       </c>
       <c r="AE32" t="n">
-        <v>89769.5</v>
+        <v>57109.3</v>
       </c>
       <c r="AF32" t="n">
-        <v>3898.1</v>
+        <v>3689.4</v>
       </c>
       <c r="AG32" t="n">
-        <v>11318.2</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>3448.8</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1366.5</v>
-      </c>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="n">
-        <v>10825.2</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>8572</v>
-      </c>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="n">
-        <v>69482.20000000001</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>28741.90000000001</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>4024.200000000001</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>3419.299999999999</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>5186.300000000001</v>
-      </c>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="n">
-        <v>8352.6</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>28469.39999999999</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>32660.2</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>3898.000000000001</v>
+        <v>7420.2</v>
       </c>
     </row>
     <row r="33">
@@ -4888,48 +3506,6 @@
       <c r="AG33" t="n">
         <v>15200</v>
       </c>
-      <c r="AH33" t="n">
-        <v>3987.1</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1563.5</v>
-      </c>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="n">
-        <v>11807.5</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>10621.7</v>
-      </c>
-      <c r="AM33" t="inlineStr"/>
-      <c r="AN33" t="n">
-        <v>78669.19999999998</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>31563.2</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>5411.299999999999</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>4080.1</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>5752.899999999998</v>
-      </c>
-      <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="n">
-        <v>10338.4</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>31469.8</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>36861</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>3881.799999999999</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -5021,313 +3597,187 @@
       <c r="AG34" t="n">
         <v>4516.8</v>
       </c>
-      <c r="AH34" t="n">
-        <v>3892.4</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1602.3</v>
-      </c>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="n">
-        <v>13539.4</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>4536.9</v>
-      </c>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="n">
-        <v>69373.60000000001</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>29039.5</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>2699.7</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>3514.9</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>6031.9</v>
-      </c>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="n">
-        <v>4367.5</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>33392.9</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>31613.2</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>4516.8</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4383.3</v>
+        <v>3984.7</v>
       </c>
       <c r="C35" t="n">
-        <v>8275.6</v>
+        <v>12260.4</v>
       </c>
       <c r="D35" t="n">
-        <v>1535.2</v>
+        <v>1647.8</v>
       </c>
       <c r="E35" t="n">
-        <v>3137.5</v>
+        <v>4785.3</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>12874</v>
+        <v>13031.6</v>
       </c>
       <c r="I35" t="n">
-        <v>26413.4</v>
+        <v>39445</v>
       </c>
       <c r="J35" t="n">
-        <v>7046.5</v>
+        <v>10084.2</v>
       </c>
       <c r="K35" t="n">
-        <v>11583.4</v>
+        <v>21667.6</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>78711.8</v>
+        <v>82460.10000000001</v>
       </c>
       <c r="O35" t="n">
-        <v>148085.5</v>
+        <v>230545.6</v>
       </c>
       <c r="P35" t="n">
-        <v>33719.7</v>
+        <v>34146.8</v>
       </c>
       <c r="Q35" t="n">
-        <v>62759.2</v>
+        <v>96905.89999999999</v>
       </c>
       <c r="R35" t="n">
-        <v>4677.4</v>
+        <v>4898.1</v>
       </c>
       <c r="S35" t="n">
-        <v>7377.1</v>
+        <v>12275.1</v>
       </c>
       <c r="T35" t="n">
-        <v>3615</v>
+        <v>3445.7</v>
       </c>
       <c r="U35" t="n">
-        <v>7129.9</v>
+        <v>10575.6</v>
       </c>
       <c r="V35" t="n">
-        <v>6459</v>
+        <v>6613.8</v>
       </c>
       <c r="W35" t="n">
-        <v>12490.9</v>
+        <v>19104.7</v>
       </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
-        <v>6831.2</v>
+        <v>9825.299999999999</v>
       </c>
       <c r="AA35" t="n">
-        <v>11198.7</v>
+        <v>21024</v>
       </c>
       <c r="AB35" t="n">
-        <v>33632.3</v>
+        <v>33739.9</v>
       </c>
       <c r="AC35" t="n">
-        <v>67025.2</v>
+        <v>100765.1</v>
       </c>
       <c r="AD35" t="n">
-        <v>38248.4</v>
+        <v>38895</v>
       </c>
       <c r="AE35" t="n">
-        <v>69861.60000000001</v>
+        <v>108756.6</v>
       </c>
       <c r="AF35" t="n">
-        <v>4401.7</v>
+        <v>4607.4</v>
       </c>
       <c r="AG35" t="n">
-        <v>8918.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>4383.200000000001</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>1535.2</v>
-      </c>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="n">
-        <v>12874</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>7046.5</v>
-      </c>
-      <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="n">
-        <v>78711.89999999999</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>33719.7</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>4677.400000000001</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>3615</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>6459</v>
-      </c>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="n">
-        <v>6831.200000000001</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>33632.3</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>38248.40000000001</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>4401.7</v>
+        <v>13526</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3984.7</v>
+        <v>4383.3</v>
       </c>
       <c r="C36" t="n">
-        <v>12260.4</v>
+        <v>8275.6</v>
       </c>
       <c r="D36" t="n">
-        <v>1647.8</v>
+        <v>1535.2</v>
       </c>
       <c r="E36" t="n">
-        <v>4785.3</v>
+        <v>3137.5</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>13031.6</v>
+        <v>12874</v>
       </c>
       <c r="I36" t="n">
-        <v>39445</v>
+        <v>26413.4</v>
       </c>
       <c r="J36" t="n">
-        <v>10084.2</v>
+        <v>7046.5</v>
       </c>
       <c r="K36" t="n">
-        <v>21667.6</v>
+        <v>11583.4</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>82460.10000000001</v>
+        <v>78711.8</v>
       </c>
       <c r="O36" t="n">
-        <v>230545.6</v>
+        <v>148085.5</v>
       </c>
       <c r="P36" t="n">
-        <v>34146.8</v>
+        <v>33719.7</v>
       </c>
       <c r="Q36" t="n">
-        <v>96905.89999999999</v>
+        <v>62759.2</v>
       </c>
       <c r="R36" t="n">
-        <v>4898.1</v>
+        <v>4677.4</v>
       </c>
       <c r="S36" t="n">
-        <v>12275.1</v>
+        <v>7377.1</v>
       </c>
       <c r="T36" t="n">
-        <v>3445.7</v>
+        <v>3615</v>
       </c>
       <c r="U36" t="n">
-        <v>10575.6</v>
+        <v>7129.9</v>
       </c>
       <c r="V36" t="n">
-        <v>6613.8</v>
+        <v>6459</v>
       </c>
       <c r="W36" t="n">
-        <v>19104.7</v>
+        <v>12490.9</v>
       </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
-        <v>9825.299999999999</v>
+        <v>6831.2</v>
       </c>
       <c r="AA36" t="n">
-        <v>21024</v>
+        <v>11198.7</v>
       </c>
       <c r="AB36" t="n">
-        <v>33739.9</v>
+        <v>33632.3</v>
       </c>
       <c r="AC36" t="n">
-        <v>100765.1</v>
+        <v>67025.2</v>
       </c>
       <c r="AD36" t="n">
-        <v>38895</v>
+        <v>38248.4</v>
       </c>
       <c r="AE36" t="n">
-        <v>108756.6</v>
+        <v>69861.60000000001</v>
       </c>
       <c r="AF36" t="n">
-        <v>4607.4</v>
+        <v>4401.7</v>
       </c>
       <c r="AG36" t="n">
-        <v>13526</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>3984.799999999999</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>1647.8</v>
-      </c>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="n">
-        <v>13031.6</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>10084.2</v>
-      </c>
-      <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="n">
-        <v>82460.10000000001</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>34146.7</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>4898</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>3445.700000000001</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>6613.800000000001</v>
-      </c>
-      <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="n">
-        <v>9825.299999999999</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>33739.90000000001</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>38895</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>4607.5</v>
+        <v>8918.5</v>
       </c>
     </row>
     <row r="37">
@@ -5420,48 +3870,6 @@
       <c r="AG37" t="n">
         <v>18345.6</v>
       </c>
-      <c r="AH37" t="n">
-        <v>4107.200000000001</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1830.8</v>
-      </c>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="n">
-        <v>13724.3</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>11760.5</v>
-      </c>
-      <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="n">
-        <v>88698.99999999997</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>34818.10000000001</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>6532.499999999998</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>4024.699999999999</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>7081.5</v>
-      </c>
-      <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="n">
-        <v>11440.1</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>36062.39999999999</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>41196.29999999999</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>4819.599999999999</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -5553,313 +3961,187 @@
       <c r="AG38" t="n">
         <v>5277.7</v>
       </c>
-      <c r="AH38" t="n">
-        <v>3702.5</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1689.5</v>
-      </c>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="n">
-        <v>15252.1</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>4544.7</v>
-      </c>
-      <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="n">
-        <v>73979.2</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>29382.8</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>3294.1</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>4098.8</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>6737</v>
-      </c>
-      <c r="AS38" t="inlineStr"/>
-      <c r="AT38" t="n">
-        <v>4364.8</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>37065.4</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>32549</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>5277.7</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4137.7</v>
+        <v>4266.8</v>
       </c>
       <c r="C39" t="n">
-        <v>7840.3</v>
+        <v>12107.1</v>
       </c>
       <c r="D39" t="n">
-        <v>1616.3</v>
+        <v>1722.7</v>
       </c>
       <c r="E39" t="n">
-        <v>3305.7</v>
+        <v>5028.4</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>14502.3</v>
+        <v>14654.8</v>
       </c>
       <c r="I39" t="n">
-        <v>29754.4</v>
+        <v>44409.3</v>
       </c>
       <c r="J39" t="n">
-        <v>7104.3</v>
+        <v>10281.5</v>
       </c>
       <c r="K39" t="n">
-        <v>11649</v>
+        <v>21930.6</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>83865.8</v>
+        <v>89846.89999999999</v>
       </c>
       <c r="O39" t="n">
-        <v>157845</v>
+        <v>247691.9</v>
       </c>
       <c r="P39" t="n">
-        <v>33842.3</v>
+        <v>35371.7</v>
       </c>
       <c r="Q39" t="n">
-        <v>63225.1</v>
+        <v>98596.8</v>
       </c>
       <c r="R39" t="n">
-        <v>5684.8</v>
+        <v>6096.7</v>
       </c>
       <c r="S39" t="n">
-        <v>8978.9</v>
+        <v>15075.6</v>
       </c>
       <c r="T39" t="n">
-        <v>4691.5</v>
+        <v>4643.5</v>
       </c>
       <c r="U39" t="n">
-        <v>8790.299999999999</v>
+        <v>13433.8</v>
       </c>
       <c r="V39" t="n">
-        <v>7011.1</v>
+        <v>7259.1</v>
       </c>
       <c r="W39" t="n">
-        <v>13748.1</v>
+        <v>21007.2</v>
       </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
-        <v>6868.3</v>
+        <v>9994.799999999999</v>
       </c>
       <c r="AA39" t="n">
-        <v>11233.1</v>
+        <v>21227.9</v>
       </c>
       <c r="AB39" t="n">
-        <v>37618.9</v>
+        <v>38539.1</v>
       </c>
       <c r="AC39" t="n">
-        <v>74684.3</v>
+        <v>113223.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>39378.6</v>
+        <v>41313</v>
       </c>
       <c r="AE39" t="n">
-        <v>71927.60000000001</v>
+        <v>113240.6</v>
       </c>
       <c r="AF39" t="n">
-        <v>5275.5</v>
+        <v>5550</v>
       </c>
       <c r="AG39" t="n">
-        <v>10553.2</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>4137.8</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1616.2</v>
-      </c>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="n">
-        <v>14502.3</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>7104.3</v>
-      </c>
-      <c r="AM39" t="inlineStr"/>
-      <c r="AN39" t="n">
-        <v>83865.8</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>33842.3</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>5684.799999999999</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>4691.499999999999</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>7011.1</v>
-      </c>
-      <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="n">
-        <v>6868.3</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>37618.9</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>39378.60000000001</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>5275.500000000001</v>
+        <v>16103.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4266.8</v>
+        <v>4137.7</v>
       </c>
       <c r="C40" t="n">
-        <v>12107.1</v>
+        <v>7840.3</v>
       </c>
       <c r="D40" t="n">
-        <v>1722.7</v>
+        <v>1616.3</v>
       </c>
       <c r="E40" t="n">
-        <v>5028.4</v>
+        <v>3305.7</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>14654.8</v>
+        <v>14502.3</v>
       </c>
       <c r="I40" t="n">
-        <v>44409.3</v>
+        <v>29754.4</v>
       </c>
       <c r="J40" t="n">
-        <v>10281.5</v>
+        <v>7104.3</v>
       </c>
       <c r="K40" t="n">
-        <v>21930.6</v>
+        <v>11649</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>89846.89999999999</v>
+        <v>83865.8</v>
       </c>
       <c r="O40" t="n">
-        <v>247691.9</v>
+        <v>157845</v>
       </c>
       <c r="P40" t="n">
-        <v>35371.7</v>
+        <v>33842.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>98596.8</v>
+        <v>63225.1</v>
       </c>
       <c r="R40" t="n">
-        <v>6096.7</v>
+        <v>5684.8</v>
       </c>
       <c r="S40" t="n">
-        <v>15075.6</v>
+        <v>8978.9</v>
       </c>
       <c r="T40" t="n">
-        <v>4643.5</v>
+        <v>4691.5</v>
       </c>
       <c r="U40" t="n">
-        <v>13433.8</v>
+        <v>8790.299999999999</v>
       </c>
       <c r="V40" t="n">
-        <v>7259.1</v>
+        <v>7011.1</v>
       </c>
       <c r="W40" t="n">
-        <v>21007.2</v>
+        <v>13748.1</v>
       </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="n">
-        <v>9994.799999999999</v>
+        <v>6868.3</v>
       </c>
       <c r="AA40" t="n">
-        <v>21227.9</v>
+        <v>11233.1</v>
       </c>
       <c r="AB40" t="n">
-        <v>38539.1</v>
+        <v>37618.9</v>
       </c>
       <c r="AC40" t="n">
-        <v>113223.4</v>
+        <v>74684.3</v>
       </c>
       <c r="AD40" t="n">
-        <v>41313</v>
+        <v>39378.6</v>
       </c>
       <c r="AE40" t="n">
-        <v>113240.6</v>
+        <v>71927.60000000001</v>
       </c>
       <c r="AF40" t="n">
-        <v>5550</v>
+        <v>5275.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>16103.1</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>4266.8</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1722.7</v>
-      </c>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="n">
-        <v>14654.9</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>10281.6</v>
-      </c>
-      <c r="AM40" t="inlineStr"/>
-      <c r="AN40" t="n">
-        <v>89846.89999999999</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>35371.7</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>6096.700000000001</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>4643.5</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>7259.1</v>
-      </c>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="n">
-        <v>9994.800000000001</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>38539.09999999999</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>41313</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>5549.9</v>
+        <v>10553.2</v>
       </c>
     </row>
     <row r="41">
@@ -5952,48 +4234,6 @@
       <c r="AG41" t="n">
         <v>21836.8</v>
       </c>
-      <c r="AH41" t="n">
-        <v>4415.300000000001</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>1928.6</v>
-      </c>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="n">
-        <v>15593.3</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>12729.1</v>
-      </c>
-      <c r="AM41" t="inlineStr"/>
-      <c r="AN41" t="n">
-        <v>100825.8</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>39495.8</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>7605.9</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>5326.700000000001</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>7997.399999999998</v>
-      </c>
-      <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="n">
-        <v>12355.9</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>41541.70000000001</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>46928.19999999998</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>5733.699999999999</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -6085,313 +4325,187 @@
       <c r="AG42" t="n">
         <v>6282.9</v>
       </c>
-      <c r="AH42" t="n">
-        <v>4200</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>1814.8</v>
-      </c>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="n">
-        <v>17107.9</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>5020.8</v>
-      </c>
-      <c r="AM42" t="inlineStr"/>
-      <c r="AN42" t="n">
-        <v>87501.3</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>35588.2</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>3939</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>5289.4</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>8258.4</v>
-      </c>
-      <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="n">
-        <v>4826</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>43311.1</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>39364.2</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>6282.9</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4763.8</v>
+        <v>4853.8</v>
       </c>
       <c r="C43" t="n">
-        <v>8963.799999999999</v>
+        <v>13817.6</v>
       </c>
       <c r="D43" t="n">
-        <v>1768.8</v>
+        <v>1956.7</v>
       </c>
       <c r="E43" t="n">
-        <v>3583.6</v>
+        <v>5540.3</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>16705.8</v>
+        <v>16954.3</v>
       </c>
       <c r="I43" t="n">
-        <v>33813.7</v>
+        <v>50768</v>
       </c>
       <c r="J43" t="n">
-        <v>8044.6</v>
+        <v>11957</v>
       </c>
       <c r="K43" t="n">
-        <v>13065.4</v>
+        <v>25022.4</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>99347.39999999999</v>
+        <v>105963.7</v>
       </c>
       <c r="O43" t="n">
-        <v>186848.7</v>
+        <v>292812.4</v>
       </c>
       <c r="P43" t="n">
-        <v>40837.7</v>
+        <v>41795.8</v>
       </c>
       <c r="Q43" t="n">
-        <v>76425.89999999999</v>
+        <v>118221.6</v>
       </c>
       <c r="R43" t="n">
-        <v>6771.5</v>
+        <v>7302</v>
       </c>
       <c r="S43" t="n">
-        <v>10710.5</v>
+        <v>18012.5</v>
       </c>
       <c r="T43" t="n">
-        <v>5624.9</v>
+        <v>5623.2</v>
       </c>
       <c r="U43" t="n">
-        <v>10914.3</v>
+        <v>16537.5</v>
       </c>
       <c r="V43" t="n">
-        <v>8646.5</v>
+        <v>9001.5</v>
       </c>
       <c r="W43" t="n">
-        <v>16904.9</v>
+        <v>25906.4</v>
       </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="n">
-        <v>7785.6</v>
+        <v>11633.8</v>
       </c>
       <c r="AA43" t="n">
-        <v>12611.6</v>
+        <v>24245.4</v>
       </c>
       <c r="AB43" t="n">
-        <v>44139.5</v>
+        <v>45423.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>87450.60000000001</v>
+        <v>132874</v>
       </c>
       <c r="AD43" t="n">
-        <v>47422.3</v>
+        <v>48906.4</v>
       </c>
       <c r="AE43" t="n">
-        <v>86786.5</v>
+        <v>135693</v>
       </c>
       <c r="AF43" t="n">
-        <v>6183.8</v>
+        <v>6519.6</v>
       </c>
       <c r="AG43" t="n">
-        <v>12466.7</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>4763.799999999999</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>1768.8</v>
-      </c>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="n">
-        <v>16705.8</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>8044.599999999999</v>
-      </c>
-      <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="n">
-        <v>99347.40000000001</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>40837.7</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>6771.5</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>5624.9</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>8646.500000000002</v>
-      </c>
-      <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="n">
-        <v>7785.6</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>44139.50000000001</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>47422.3</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>6183.800000000001</v>
+        <v>18986.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4853.8</v>
+        <v>4763.8</v>
       </c>
       <c r="C44" t="n">
-        <v>13817.6</v>
+        <v>8963.799999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>1956.7</v>
+        <v>1768.8</v>
       </c>
       <c r="E44" t="n">
-        <v>5540.3</v>
+        <v>3583.6</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>16954.3</v>
+        <v>16705.8</v>
       </c>
       <c r="I44" t="n">
-        <v>50768</v>
+        <v>33813.7</v>
       </c>
       <c r="J44" t="n">
-        <v>11957</v>
+        <v>8044.6</v>
       </c>
       <c r="K44" t="n">
-        <v>25022.4</v>
+        <v>13065.4</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>105963.7</v>
+        <v>99347.39999999999</v>
       </c>
       <c r="O44" t="n">
-        <v>292812.4</v>
+        <v>186848.7</v>
       </c>
       <c r="P44" t="n">
-        <v>41795.8</v>
+        <v>40837.7</v>
       </c>
       <c r="Q44" t="n">
-        <v>118221.6</v>
+        <v>76425.89999999999</v>
       </c>
       <c r="R44" t="n">
-        <v>7302</v>
+        <v>6771.5</v>
       </c>
       <c r="S44" t="n">
-        <v>18012.5</v>
+        <v>10710.5</v>
       </c>
       <c r="T44" t="n">
-        <v>5623.2</v>
+        <v>5624.9</v>
       </c>
       <c r="U44" t="n">
-        <v>16537.5</v>
+        <v>10914.3</v>
       </c>
       <c r="V44" t="n">
-        <v>9001.5</v>
+        <v>8646.5</v>
       </c>
       <c r="W44" t="n">
-        <v>25906.4</v>
+        <v>16904.9</v>
       </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="n">
-        <v>11633.8</v>
+        <v>7785.6</v>
       </c>
       <c r="AA44" t="n">
-        <v>24245.4</v>
+        <v>12611.6</v>
       </c>
       <c r="AB44" t="n">
-        <v>45423.5</v>
+        <v>44139.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>132874</v>
+        <v>87450.60000000001</v>
       </c>
       <c r="AD44" t="n">
-        <v>48906.4</v>
+        <v>47422.3</v>
       </c>
       <c r="AE44" t="n">
-        <v>135693</v>
+        <v>86786.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>6519.6</v>
+        <v>6183.8</v>
       </c>
       <c r="AG44" t="n">
-        <v>18986.3</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>4853.800000000001</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>1956.7</v>
-      </c>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="n">
-        <v>16954.3</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>11957</v>
-      </c>
-      <c r="AM44" t="inlineStr"/>
-      <c r="AN44" t="n">
-        <v>105963.7</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>41795.70000000001</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>7302</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>5623.200000000001</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>9001.5</v>
-      </c>
-      <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="n">
-        <v>11633.8</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>45423.39999999999</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>48906.5</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>6519.599999999999</v>
+        <v>12466.7</v>
       </c>
     </row>
     <row r="45">
@@ -6484,48 +4598,6 @@
       <c r="AG45" t="n">
         <v>25733.1</v>
       </c>
-      <c r="AH45" t="n">
-        <v>4965.999999999998</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>2171.7</v>
-      </c>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="n">
-        <v>17886.7</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>14596.6</v>
-      </c>
-      <c r="AM45" t="inlineStr"/>
-      <c r="AN45" t="n">
-        <v>119306.9</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>46901.5</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>9246.799999999999</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>6789.099999999999</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>10001.5</v>
-      </c>
-      <c r="AS45" t="inlineStr"/>
-      <c r="AT45" t="n">
-        <v>14185.4</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>49187.89999999999</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>55933.5</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>6746.799999999999</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -6617,313 +4689,187 @@
       <c r="AG46" t="n">
         <v>7805.7</v>
       </c>
-      <c r="AH46" t="n">
-        <v>4865.6</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>1996</v>
-      </c>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="n">
-        <v>20057.7</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>5808.3</v>
-      </c>
-      <c r="AM46" t="inlineStr"/>
-      <c r="AN46" t="n">
-        <v>104469.9</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>42670.3</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>4749</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>6541.9</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>9975.299999999999</v>
-      </c>
-      <c r="AS46" t="inlineStr"/>
-      <c r="AT46" t="n">
-        <v>5592.8</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>51683.2</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>47194</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>7805.7</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5518.1</v>
+        <v>5685.7</v>
       </c>
       <c r="C47" t="n">
-        <v>10383.7</v>
+        <v>16069.4</v>
       </c>
       <c r="D47" t="n">
-        <v>1961.9</v>
+        <v>2186.3</v>
       </c>
       <c r="E47" t="n">
-        <v>3957.9</v>
+        <v>6144.2</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>19922.1</v>
+        <v>20181.9</v>
       </c>
       <c r="I47" t="n">
-        <v>39979.8</v>
+        <v>60161.7</v>
       </c>
       <c r="J47" t="n">
-        <v>9440.9</v>
+        <v>14219.6</v>
       </c>
       <c r="K47" t="n">
-        <v>15249.2</v>
+        <v>29468.8</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>118895.9</v>
+        <v>126562.2</v>
       </c>
       <c r="O47" t="n">
-        <v>223365.8</v>
+        <v>349928</v>
       </c>
       <c r="P47" t="n">
-        <v>48964.6</v>
+        <v>49915.8</v>
       </c>
       <c r="Q47" t="n">
-        <v>91634.89999999999</v>
+        <v>141550.7</v>
       </c>
       <c r="R47" t="n">
-        <v>8178</v>
+        <v>8970.4</v>
       </c>
       <c r="S47" t="n">
-        <v>12927</v>
+        <v>21897.4</v>
       </c>
       <c r="T47" t="n">
-        <v>6809.9</v>
+        <v>6773.7</v>
       </c>
       <c r="U47" t="n">
-        <v>13351.8</v>
+        <v>20125.5</v>
       </c>
       <c r="V47" t="n">
-        <v>10534.6</v>
+        <v>11040.3</v>
       </c>
       <c r="W47" t="n">
-        <v>20509.9</v>
+        <v>31550.2</v>
       </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="n">
-        <v>9143.299999999999</v>
+        <v>13855.6</v>
       </c>
       <c r="AA47" t="n">
-        <v>14736.1</v>
+        <v>28591.7</v>
       </c>
       <c r="AB47" t="n">
-        <v>52868.6</v>
+        <v>54084</v>
       </c>
       <c r="AC47" t="n">
-        <v>104551.8</v>
+        <v>158635.9</v>
       </c>
       <c r="AD47" t="n">
-        <v>56884</v>
+        <v>58622.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>104077.9</v>
+        <v>162700.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>7565.9</v>
+        <v>7588.4</v>
       </c>
       <c r="AG47" t="n">
-        <v>15371.6</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>5518.1</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>1961.9</v>
-      </c>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="n">
-        <v>19922.1</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>9440.900000000001</v>
-      </c>
-      <c r="AM47" t="inlineStr"/>
-      <c r="AN47" t="n">
-        <v>118895.9</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>48964.59999999999</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>8178</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>6809.9</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>10534.6</v>
-      </c>
-      <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="n">
-        <v>9143.299999999999</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>52868.60000000001</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>56883.89999999999</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>7565.900000000001</v>
+        <v>22960.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5685.7</v>
+        <v>5518.1</v>
       </c>
       <c r="C48" t="n">
-        <v>16069.4</v>
+        <v>10383.7</v>
       </c>
       <c r="D48" t="n">
-        <v>2186.3</v>
+        <v>1961.9</v>
       </c>
       <c r="E48" t="n">
-        <v>6144.2</v>
+        <v>3957.9</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>20181.9</v>
+        <v>19922.1</v>
       </c>
       <c r="I48" t="n">
-        <v>60161.7</v>
+        <v>39979.8</v>
       </c>
       <c r="J48" t="n">
-        <v>14219.6</v>
+        <v>9440.9</v>
       </c>
       <c r="K48" t="n">
-        <v>29468.8</v>
+        <v>15249.2</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>126562.2</v>
+        <v>118895.9</v>
       </c>
       <c r="O48" t="n">
-        <v>349928</v>
+        <v>223365.8</v>
       </c>
       <c r="P48" t="n">
-        <v>49915.8</v>
+        <v>48964.6</v>
       </c>
       <c r="Q48" t="n">
-        <v>141550.7</v>
+        <v>91634.89999999999</v>
       </c>
       <c r="R48" t="n">
-        <v>8970.4</v>
+        <v>8178</v>
       </c>
       <c r="S48" t="n">
-        <v>21897.4</v>
+        <v>12927</v>
       </c>
       <c r="T48" t="n">
-        <v>6773.7</v>
+        <v>6809.9</v>
       </c>
       <c r="U48" t="n">
-        <v>20125.5</v>
+        <v>13351.8</v>
       </c>
       <c r="V48" t="n">
-        <v>11040.3</v>
+        <v>10534.6</v>
       </c>
       <c r="W48" t="n">
-        <v>31550.2</v>
+        <v>20509.9</v>
       </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="n">
-        <v>13855.6</v>
+        <v>9143.299999999999</v>
       </c>
       <c r="AA48" t="n">
-        <v>28591.7</v>
+        <v>14736.1</v>
       </c>
       <c r="AB48" t="n">
-        <v>54084</v>
+        <v>52868.6</v>
       </c>
       <c r="AC48" t="n">
-        <v>158635.9</v>
+        <v>104551.8</v>
       </c>
       <c r="AD48" t="n">
-        <v>58622.5</v>
+        <v>56884</v>
       </c>
       <c r="AE48" t="n">
-        <v>162700.5</v>
+        <v>104077.9</v>
       </c>
       <c r="AF48" t="n">
-        <v>7588.4</v>
+        <v>7565.9</v>
       </c>
       <c r="AG48" t="n">
-        <v>22960.1</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>5685.699999999999</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>2186.3</v>
-      </c>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="n">
-        <v>20181.89999999999</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>14219.6</v>
-      </c>
-      <c r="AM48" t="inlineStr"/>
-      <c r="AN48" t="n">
-        <v>126562.2</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>49915.80000000002</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>8970.400000000001</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>6773.700000000001</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>11040.3</v>
-      </c>
-      <c r="AS48" t="inlineStr"/>
-      <c r="AT48" t="n">
-        <v>13855.6</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>54084.09999999999</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>58622.60000000001</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>7588.499999999998</v>
+        <v>15371.6</v>
       </c>
     </row>
     <row r="49">
@@ -7016,48 +4962,6 @@
       <c r="AG49" t="n">
         <v>30747.2</v>
       </c>
-      <c r="AH49" t="n">
-        <v>5772.6</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>2421.2</v>
-      </c>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="n">
-        <v>20920.5</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>16653.8</v>
-      </c>
-      <c r="AM49" t="inlineStr"/>
-      <c r="AN49" t="n">
-        <v>138012.2</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>53588.39999999999</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>11029.1</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>7655.200000000001</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>12184.3</v>
-      </c>
-      <c r="AS49" t="inlineStr"/>
-      <c r="AT49" t="n">
-        <v>16189.8</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>57487.70000000001</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>64334.60000000001</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>7787.100000000002</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -7149,313 +5053,187 @@
       <c r="AG50" t="n">
         <v>8846.700000000001</v>
       </c>
-      <c r="AH50" t="n">
-        <v>5284.2</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>2230.9</v>
-      </c>
-      <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="n">
-        <v>23314.8</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>6685.4</v>
-      </c>
-      <c r="AM50" t="inlineStr"/>
-      <c r="AN50" t="n">
-        <v>117357.6</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>47151</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>5426.7</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>6890.2</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>11527.6</v>
-      </c>
-      <c r="AS50" t="inlineStr"/>
-      <c r="AT50" t="n">
-        <v>6446</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>58595.5</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>52316.2</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>8846.700000000001</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>6030.5</v>
+        <v>6117.8</v>
       </c>
       <c r="C51" t="n">
-        <v>11314.7</v>
+        <v>17432.5</v>
       </c>
       <c r="D51" t="n">
-        <v>2181.6</v>
+        <v>2433.5</v>
       </c>
       <c r="E51" t="n">
-        <v>4412.5</v>
+        <v>6846</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>23026.4</v>
+        <v>22981.5</v>
       </c>
       <c r="I51" t="n">
-        <v>46341.2</v>
+        <v>69322.8</v>
       </c>
       <c r="J51" t="n">
-        <v>10238.5</v>
+        <v>15070.2</v>
       </c>
       <c r="K51" t="n">
-        <v>16923.9</v>
+        <v>31994.1</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>131320.6</v>
+        <v>138089.6</v>
       </c>
       <c r="O51" t="n">
-        <v>248678.3</v>
+        <v>386767.9</v>
       </c>
       <c r="P51" t="n">
-        <v>52495.9</v>
+        <v>52451.1</v>
       </c>
       <c r="Q51" t="n">
-        <v>99647</v>
+        <v>152098</v>
       </c>
       <c r="R51" t="n">
-        <v>9228.4</v>
+        <v>10096</v>
       </c>
       <c r="S51" t="n">
-        <v>14655</v>
+        <v>24751</v>
       </c>
       <c r="T51" t="n">
-        <v>7397.6</v>
+        <v>7677.6</v>
       </c>
       <c r="U51" t="n">
-        <v>14287.8</v>
+        <v>21965.3</v>
       </c>
       <c r="V51" t="n">
-        <v>12014.9</v>
+        <v>12452.9</v>
       </c>
       <c r="W51" t="n">
-        <v>23542.5</v>
+        <v>35995.4</v>
       </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="n">
-        <v>9911.4</v>
+        <v>14656</v>
       </c>
       <c r="AA51" t="n">
-        <v>16357.3</v>
+        <v>31013.4</v>
       </c>
       <c r="AB51" t="n">
-        <v>59976.1</v>
+        <v>61177.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>118571.6</v>
+        <v>179749</v>
       </c>
       <c r="AD51" t="n">
-        <v>61433.2</v>
+        <v>62256.2</v>
       </c>
       <c r="AE51" t="n">
-        <v>113749.4</v>
+        <v>176005.6</v>
       </c>
       <c r="AF51" t="n">
-        <v>8707</v>
+        <v>8809</v>
       </c>
       <c r="AG51" t="n">
-        <v>17553.7</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>6030.500000000001</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>2181.6</v>
-      </c>
-      <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="n">
-        <v>23026.4</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>10238.5</v>
-      </c>
-      <c r="AM51" t="inlineStr"/>
-      <c r="AN51" t="n">
-        <v>131320.7</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>52496</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>9228.299999999999</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>7397.599999999999</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>12014.9</v>
-      </c>
-      <c r="AS51" t="inlineStr"/>
-      <c r="AT51" t="n">
-        <v>9911.299999999999</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>59976.10000000001</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>61433.2</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>8707</v>
+        <v>26362.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6117.8</v>
+        <v>6030.5</v>
       </c>
       <c r="C52" t="n">
-        <v>17432.5</v>
+        <v>11314.7</v>
       </c>
       <c r="D52" t="n">
-        <v>2433.5</v>
+        <v>2181.6</v>
       </c>
       <c r="E52" t="n">
-        <v>6846</v>
+        <v>4412.5</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>22981.5</v>
+        <v>23026.4</v>
       </c>
       <c r="I52" t="n">
-        <v>69322.8</v>
+        <v>46341.2</v>
       </c>
       <c r="J52" t="n">
-        <v>15070.2</v>
+        <v>10238.5</v>
       </c>
       <c r="K52" t="n">
-        <v>31994.1</v>
+        <v>16923.9</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>138089.6</v>
+        <v>131320.6</v>
       </c>
       <c r="O52" t="n">
-        <v>386767.9</v>
+        <v>248678.3</v>
       </c>
       <c r="P52" t="n">
-        <v>52451.1</v>
+        <v>52495.9</v>
       </c>
       <c r="Q52" t="n">
-        <v>152098</v>
+        <v>99647</v>
       </c>
       <c r="R52" t="n">
-        <v>10096</v>
+        <v>9228.4</v>
       </c>
       <c r="S52" t="n">
-        <v>24751</v>
+        <v>14655</v>
       </c>
       <c r="T52" t="n">
-        <v>7677.6</v>
+        <v>7397.6</v>
       </c>
       <c r="U52" t="n">
-        <v>21965.3</v>
+        <v>14287.8</v>
       </c>
       <c r="V52" t="n">
-        <v>12452.9</v>
+        <v>12014.9</v>
       </c>
       <c r="W52" t="n">
-        <v>35995.4</v>
+        <v>23542.5</v>
       </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="n">
-        <v>14656</v>
+        <v>9911.4</v>
       </c>
       <c r="AA52" t="n">
-        <v>31013.4</v>
+        <v>16357.3</v>
       </c>
       <c r="AB52" t="n">
-        <v>61177.4</v>
+        <v>59976.1</v>
       </c>
       <c r="AC52" t="n">
-        <v>179749</v>
+        <v>118571.6</v>
       </c>
       <c r="AD52" t="n">
-        <v>62256.2</v>
+        <v>61433.2</v>
       </c>
       <c r="AE52" t="n">
-        <v>176005.6</v>
+        <v>113749.4</v>
       </c>
       <c r="AF52" t="n">
-        <v>8809</v>
+        <v>8707</v>
       </c>
       <c r="AG52" t="n">
-        <v>26362.8</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>6117.799999999999</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>2433.5</v>
-      </c>
-      <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="n">
-        <v>22981.60000000001</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>15070.2</v>
-      </c>
-      <c r="AM52" t="inlineStr"/>
-      <c r="AN52" t="n">
-        <v>138089.6</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>52451</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>10096</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>7677.5</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>12452.9</v>
-      </c>
-      <c r="AS52" t="inlineStr"/>
-      <c r="AT52" t="n">
-        <v>14656.1</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>61177.39999999999</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>62256.20000000001</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>8809.099999999999</v>
+        <v>17553.7</v>
       </c>
     </row>
     <row r="53">
@@ -7548,48 +5326,6 @@
       <c r="AG53" t="n">
         <v>35272.2</v>
       </c>
-      <c r="AH53" t="n">
-        <v>6330.700000000001</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>2690.9</v>
-      </c>
-      <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="n">
-        <v>23718.8</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>18587.1</v>
-      </c>
-      <c r="AM53" t="inlineStr"/>
-      <c r="AN53" t="n">
-        <v>151812.1</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>56803.39999999999</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>12145.1</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>8786.600000000002</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>13840.1</v>
-      </c>
-      <c r="AS53" t="inlineStr"/>
-      <c r="AT53" t="n">
-        <v>18071.2</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>65107.20000000001</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>68633.5</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>8909.399999999998</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -7681,313 +5417,187 @@
       <c r="AG54" t="n">
         <v>10406.7</v>
       </c>
-      <c r="AH54" t="n">
-        <v>5816.3</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>2394.5</v>
-      </c>
-      <c r="AJ54" t="inlineStr"/>
-      <c r="AK54" t="n">
-        <v>26357.4</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>7130.2</v>
-      </c>
-      <c r="AM54" t="inlineStr"/>
-      <c r="AN54" t="n">
-        <v>129449.6</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>50127.3</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>6022.1</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>8214.799999999999</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>12980.3</v>
-      </c>
-      <c r="AS54" t="inlineStr"/>
-      <c r="AT54" t="n">
-        <v>6869.1</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>66719.3</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>55861.2</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>10406.7</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6529.6</v>
+        <v>6768.6</v>
       </c>
       <c r="C55" t="n">
-        <v>12345.9</v>
+        <v>19114.5</v>
       </c>
       <c r="D55" t="n">
-        <v>2341.1</v>
+        <v>2608.7</v>
       </c>
       <c r="E55" t="n">
-        <v>4735.6</v>
+        <v>7344.3</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>26240.1</v>
+        <v>26233</v>
       </c>
       <c r="I55" t="n">
-        <v>52597.4</v>
+        <v>78830.39999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>10748.2</v>
+        <v>16367</v>
       </c>
       <c r="K55" t="n">
-        <v>17878.4</v>
+        <v>34245.4</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>143518.7</v>
+        <v>152222.7</v>
       </c>
       <c r="O55" t="n">
-        <v>272968.2</v>
+        <v>425190.9</v>
       </c>
       <c r="P55" t="n">
-        <v>55266.2</v>
+        <v>55882.1</v>
       </c>
       <c r="Q55" t="n">
-        <v>105393.6</v>
+        <v>161275.6</v>
       </c>
       <c r="R55" t="n">
-        <v>10181.8</v>
+        <v>11188</v>
       </c>
       <c r="S55" t="n">
-        <v>16203.9</v>
+        <v>27391.9</v>
       </c>
       <c r="T55" t="n">
-        <v>8513.5</v>
+        <v>8761.299999999999</v>
       </c>
       <c r="U55" t="n">
-        <v>16728.3</v>
+        <v>25489.5</v>
       </c>
       <c r="V55" t="n">
-        <v>13512.2</v>
+        <v>14094.2</v>
       </c>
       <c r="W55" t="n">
-        <v>26492.5</v>
+        <v>40586.7</v>
       </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="n">
-        <v>10389.7</v>
+        <v>15904.9</v>
       </c>
       <c r="AA55" t="n">
-        <v>17258.8</v>
+        <v>33163.7</v>
       </c>
       <c r="AB55" t="n">
-        <v>67998.60000000001</v>
+        <v>69569.10000000001</v>
       </c>
       <c r="AC55" t="n">
-        <v>134717.9</v>
+        <v>204287</v>
       </c>
       <c r="AD55" t="n">
-        <v>65130.3</v>
+        <v>66748.7</v>
       </c>
       <c r="AE55" t="n">
-        <v>120991.5</v>
+        <v>187740.2</v>
       </c>
       <c r="AF55" t="n">
-        <v>10186</v>
+        <v>10319.9</v>
       </c>
       <c r="AG55" t="n">
-        <v>20592.7</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>6529.599999999999</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>2341.1</v>
-      </c>
-      <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="n">
-        <v>26240</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>10748.2</v>
-      </c>
-      <c r="AM55" t="inlineStr"/>
-      <c r="AN55" t="n">
-        <v>143518.6</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>55266.3</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>10181.8</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>8513.5</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>13512.2</v>
-      </c>
-      <c r="AS55" t="inlineStr"/>
-      <c r="AT55" t="n">
-        <v>10389.7</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>67998.59999999999</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>65130.3</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>10186</v>
+        <v>30912.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6768.6</v>
+        <v>6529.6</v>
       </c>
       <c r="C56" t="n">
-        <v>19114.5</v>
+        <v>12345.9</v>
       </c>
       <c r="D56" t="n">
-        <v>2608.7</v>
+        <v>2341.1</v>
       </c>
       <c r="E56" t="n">
-        <v>7344.3</v>
+        <v>4735.6</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>26233</v>
+        <v>26240.1</v>
       </c>
       <c r="I56" t="n">
-        <v>78830.39999999999</v>
+        <v>52597.4</v>
       </c>
       <c r="J56" t="n">
-        <v>16367</v>
+        <v>10748.2</v>
       </c>
       <c r="K56" t="n">
-        <v>34245.4</v>
+        <v>17878.4</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>152222.7</v>
+        <v>143518.7</v>
       </c>
       <c r="O56" t="n">
-        <v>425190.9</v>
+        <v>272968.2</v>
       </c>
       <c r="P56" t="n">
-        <v>55882.1</v>
+        <v>55266.2</v>
       </c>
       <c r="Q56" t="n">
-        <v>161275.6</v>
+        <v>105393.6</v>
       </c>
       <c r="R56" t="n">
-        <v>11188</v>
+        <v>10181.8</v>
       </c>
       <c r="S56" t="n">
-        <v>27391.9</v>
+        <v>16203.9</v>
       </c>
       <c r="T56" t="n">
-        <v>8761.299999999999</v>
+        <v>8513.5</v>
       </c>
       <c r="U56" t="n">
-        <v>25489.5</v>
+        <v>16728.3</v>
       </c>
       <c r="V56" t="n">
-        <v>14094.2</v>
+        <v>13512.2</v>
       </c>
       <c r="W56" t="n">
-        <v>40586.7</v>
+        <v>26492.5</v>
       </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="n">
-        <v>15904.9</v>
+        <v>10389.7</v>
       </c>
       <c r="AA56" t="n">
-        <v>33163.7</v>
+        <v>17258.8</v>
       </c>
       <c r="AB56" t="n">
-        <v>69569.10000000001</v>
+        <v>67998.60000000001</v>
       </c>
       <c r="AC56" t="n">
-        <v>204287</v>
+        <v>134717.9</v>
       </c>
       <c r="AD56" t="n">
-        <v>66748.7</v>
+        <v>65130.3</v>
       </c>
       <c r="AE56" t="n">
-        <v>187740.2</v>
+        <v>120991.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>10319.9</v>
+        <v>10186</v>
       </c>
       <c r="AG56" t="n">
-        <v>30912.6</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>6768.6</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>2608.7</v>
-      </c>
-      <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="n">
-        <v>26232.99999999999</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>16367</v>
-      </c>
-      <c r="AM56" t="inlineStr"/>
-      <c r="AN56" t="n">
-        <v>152222.7</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>55882</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>11188</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>8761.200000000001</v>
-      </c>
-      <c r="AR56" t="n">
-        <v>14094.2</v>
-      </c>
-      <c r="AS56" t="inlineStr"/>
-      <c r="AT56" t="n">
-        <v>15904.9</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>69569.10000000001</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>66748.70000000001</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>10319.9</v>
+        <v>20592.7</v>
       </c>
     </row>
     <row r="57">
@@ -8080,48 +5690,6 @@
       <c r="AG57" t="n">
         <v>41293.4</v>
       </c>
-      <c r="AH57" t="n">
-        <v>6928.200000000001</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>2883.999999999999</v>
-      </c>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="n">
-        <v>27016.90000000001</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>20447</v>
-      </c>
-      <c r="AM57" t="inlineStr"/>
-      <c r="AN57" t="n">
-        <v>167772.2999999999</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>61057.60000000001</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>13504.9</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>9850.900000000001</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>15702.2</v>
-      </c>
-      <c r="AS57" t="inlineStr"/>
-      <c r="AT57" t="n">
-        <v>19864.4</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>73696.5</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>74211.39999999999</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>10380.8</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -8213,313 +5781,187 @@
       <c r="AG58" t="n">
         <v>11815.1</v>
       </c>
-      <c r="AH58" t="n">
-        <v>6317.1</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>2634.1</v>
-      </c>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="n">
-        <v>29628.4</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>7428.5</v>
-      </c>
-      <c r="AM58" t="inlineStr"/>
-      <c r="AN58" t="n">
-        <v>140759.8</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>52659.5</v>
-      </c>
-      <c r="AP58" t="n">
-        <v>6764.7</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>8876.9</v>
-      </c>
-      <c r="AR58" t="n">
-        <v>14635.5</v>
-      </c>
-      <c r="AS58" t="inlineStr"/>
-      <c r="AT58" t="n">
-        <v>7140</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>74492.39999999999</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>59127.4</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>11815.1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7197</v>
+        <v>7411</v>
       </c>
       <c r="C59" t="n">
-        <v>13514.1</v>
+        <v>20925.1</v>
       </c>
       <c r="D59" t="n">
-        <v>2577.1</v>
+        <v>2858</v>
       </c>
       <c r="E59" t="n">
-        <v>5211.2</v>
+        <v>8069.2</v>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>29595.8</v>
+        <v>29775.4</v>
       </c>
       <c r="I59" t="n">
-        <v>59224.2</v>
+        <v>88999.60000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>11500.6</v>
+        <v>17371</v>
       </c>
       <c r="K59" t="n">
-        <v>18929.1</v>
+        <v>36300.1</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>156489.6</v>
+        <v>165484.7</v>
       </c>
       <c r="O59" t="n">
-        <v>297249.5</v>
+        <v>462734.2</v>
       </c>
       <c r="P59" t="n">
-        <v>58432.3</v>
+        <v>58904</v>
       </c>
       <c r="Q59" t="n">
-        <v>111091.8</v>
+        <v>169995.8</v>
       </c>
       <c r="R59" t="n">
-        <v>11355.4</v>
+        <v>12400</v>
       </c>
       <c r="S59" t="n">
-        <v>18120.1</v>
+        <v>30520.2</v>
       </c>
       <c r="T59" t="n">
-        <v>9188.6</v>
+        <v>9332.5</v>
       </c>
       <c r="U59" t="n">
-        <v>18065.5</v>
+        <v>27398</v>
       </c>
       <c r="V59" t="n">
-        <v>15265.1</v>
+        <v>15812.2</v>
       </c>
       <c r="W59" t="n">
-        <v>29900.6</v>
+        <v>45712.8</v>
       </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="n">
-        <v>11109.4</v>
+        <v>16854.9</v>
       </c>
       <c r="AA59" t="n">
-        <v>18249.4</v>
+        <v>35104.3</v>
       </c>
       <c r="AB59" t="n">
-        <v>75921.89999999999</v>
+        <v>77658.7</v>
       </c>
       <c r="AC59" t="n">
-        <v>150414.3</v>
+        <v>228073</v>
       </c>
       <c r="AD59" t="n">
-        <v>69458.3</v>
+        <v>70971.10000000001</v>
       </c>
       <c r="AE59" t="n">
-        <v>128585.8</v>
+        <v>199556.9</v>
       </c>
       <c r="AF59" t="n">
-        <v>11377.7</v>
+        <v>11620.7</v>
       </c>
       <c r="AG59" t="n">
-        <v>23192.8</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>7197</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>2577.1</v>
-      </c>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="n">
-        <v>29595.8</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>11500.6</v>
-      </c>
-      <c r="AM59" t="inlineStr"/>
-      <c r="AN59" t="n">
-        <v>156489.7</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>58432.3</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>11355.4</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>9188.6</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>15265.1</v>
-      </c>
-      <c r="AS59" t="inlineStr"/>
-      <c r="AT59" t="n">
-        <v>11109.4</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>75921.89999999999</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>69458.39999999999</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>11377.7</v>
+        <v>34813.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7411</v>
+        <v>7197</v>
       </c>
       <c r="C60" t="n">
-        <v>20925.1</v>
+        <v>13514.1</v>
       </c>
       <c r="D60" t="n">
-        <v>2858</v>
+        <v>2577.1</v>
       </c>
       <c r="E60" t="n">
-        <v>8069.2</v>
+        <v>5211.2</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>29775.4</v>
+        <v>29595.8</v>
       </c>
       <c r="I60" t="n">
-        <v>88999.60000000001</v>
+        <v>59224.2</v>
       </c>
       <c r="J60" t="n">
-        <v>17371</v>
+        <v>11500.6</v>
       </c>
       <c r="K60" t="n">
-        <v>36300.1</v>
+        <v>18929.1</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>165484.7</v>
+        <v>156489.6</v>
       </c>
       <c r="O60" t="n">
-        <v>462734.2</v>
+        <v>297249.5</v>
       </c>
       <c r="P60" t="n">
-        <v>58904</v>
+        <v>58432.3</v>
       </c>
       <c r="Q60" t="n">
-        <v>169995.8</v>
+        <v>111091.8</v>
       </c>
       <c r="R60" t="n">
-        <v>12400</v>
+        <v>11355.4</v>
       </c>
       <c r="S60" t="n">
-        <v>30520.2</v>
+        <v>18120.1</v>
       </c>
       <c r="T60" t="n">
-        <v>9332.5</v>
+        <v>9188.6</v>
       </c>
       <c r="U60" t="n">
-        <v>27398</v>
+        <v>18065.5</v>
       </c>
       <c r="V60" t="n">
-        <v>15812.2</v>
+        <v>15265.1</v>
       </c>
       <c r="W60" t="n">
-        <v>45712.8</v>
+        <v>29900.6</v>
       </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="n">
-        <v>16854.9</v>
+        <v>11109.4</v>
       </c>
       <c r="AA60" t="n">
-        <v>35104.3</v>
+        <v>18249.4</v>
       </c>
       <c r="AB60" t="n">
-        <v>77658.7</v>
+        <v>75921.89999999999</v>
       </c>
       <c r="AC60" t="n">
-        <v>228073</v>
+        <v>150414.3</v>
       </c>
       <c r="AD60" t="n">
-        <v>70971.10000000001</v>
+        <v>69458.3</v>
       </c>
       <c r="AE60" t="n">
-        <v>199556.9</v>
+        <v>128585.8</v>
       </c>
       <c r="AF60" t="n">
-        <v>11620.7</v>
+        <v>11377.7</v>
       </c>
       <c r="AG60" t="n">
-        <v>34813.5</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>7410.999999999998</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>2858</v>
-      </c>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="n">
-        <v>29775.40000000001</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>17371</v>
-      </c>
-      <c r="AM60" t="inlineStr"/>
-      <c r="AN60" t="n">
-        <v>165484.7</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>58903.99999999999</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>12400.1</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>9332.5</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>15812.2</v>
-      </c>
-      <c r="AS60" t="inlineStr"/>
-      <c r="AT60" t="n">
-        <v>16854.9</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>77658.70000000001</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>70971.09999999999</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>11620.7</v>
+        <v>23192.8</v>
       </c>
     </row>
     <row r="61">
@@ -8612,48 +6054,6 @@
       <c r="AG61" t="n">
         <v>46853.4</v>
       </c>
-      <c r="AH61" t="n">
-        <v>7609.300000000003</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>3159.500000000001</v>
-      </c>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="n">
-        <v>30618.89999999999</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>21172.1</v>
-      </c>
-      <c r="AM61" t="inlineStr"/>
-      <c r="AN61" t="n">
-        <v>180828.9</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>63201.60000000001</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>14881.5</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>10688.4</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>17457.6</v>
-      </c>
-      <c r="AS61" t="inlineStr"/>
-      <c r="AT61" t="n">
-        <v>20522</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>82581</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>77725.89999999999</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>12039.9</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -8757,355 +6157,211 @@
       <c r="AG62" t="n">
         <v>14110.4</v>
       </c>
-      <c r="AH62" t="n">
-        <v>6810.5</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>2876.2</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>4485.1</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>24987.9</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>7686.8</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>45066.6</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>151137.9</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>53471.1</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>7350.9</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>9457.4</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>15649.5</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>4252</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>7373.2</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>83258.8</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>60505.9</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>14110.4</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7702.4</v>
+        <v>7909.4</v>
       </c>
       <c r="C63" t="n">
-        <v>14512.8</v>
+        <v>22422.2</v>
       </c>
       <c r="D63" t="n">
-        <v>2815.2</v>
+        <v>3145.9</v>
       </c>
       <c r="E63" t="n">
-        <v>5691.4</v>
+        <v>8837.299999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>4524</v>
+        <v>4048.6</v>
       </c>
       <c r="G63" t="n">
-        <v>9009.1</v>
+        <v>13057.8</v>
       </c>
       <c r="H63" t="n">
-        <v>24872.6</v>
+        <v>25519.1</v>
       </c>
       <c r="I63" t="n">
-        <v>49860.5</v>
+        <v>75379.60000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>12296.2</v>
+        <v>17739.2</v>
       </c>
       <c r="K63" t="n">
-        <v>19983</v>
+        <v>37722.2</v>
       </c>
       <c r="L63" t="n">
-        <v>50493.3</v>
+        <v>49819.8</v>
       </c>
       <c r="M63" t="n">
-        <v>95559.89999999999</v>
+        <v>145379.7</v>
       </c>
       <c r="N63" t="n">
-        <v>168549.7</v>
+        <v>176597.7</v>
       </c>
       <c r="O63" t="n">
-        <v>319687.6</v>
+        <v>496285.3</v>
       </c>
       <c r="P63" t="n">
-        <v>59327.9</v>
+        <v>58993</v>
       </c>
       <c r="Q63" t="n">
-        <v>112799</v>
+        <v>171792</v>
       </c>
       <c r="R63" t="n">
-        <v>11972.9</v>
+        <v>12883.5</v>
       </c>
       <c r="S63" t="n">
-        <v>19323.9</v>
+        <v>32207.4</v>
       </c>
       <c r="T63" t="n">
-        <v>10459.3</v>
+        <v>10651.9</v>
       </c>
       <c r="U63" t="n">
-        <v>19916.7</v>
+        <v>30568.5</v>
       </c>
       <c r="V63" t="n">
-        <v>16318.6</v>
+        <v>16978.4</v>
       </c>
       <c r="W63" t="n">
-        <v>31968.1</v>
+        <v>48946.5</v>
       </c>
       <c r="X63" t="n">
-        <v>4282.6</v>
+        <v>4671.2</v>
       </c>
       <c r="Y63" t="n">
-        <v>8534.6</v>
+        <v>13205.8</v>
       </c>
       <c r="Z63" t="n">
-        <v>11852.2</v>
+        <v>17173.1</v>
       </c>
       <c r="AA63" t="n">
-        <v>19225.5</v>
+        <v>36398.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>85747.39999999999</v>
+        <v>87897.89999999999</v>
       </c>
       <c r="AC63" t="n">
-        <v>169006.2</v>
+        <v>256904.1</v>
       </c>
       <c r="AD63" t="n">
-        <v>70950</v>
+        <v>71526.7</v>
       </c>
       <c r="AE63" t="n">
-        <v>131455.9</v>
+        <v>202982.7</v>
       </c>
       <c r="AF63" t="n">
-        <v>13978</v>
+        <v>14057.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>28088.4</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>7702.299999999999</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>2815.2</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>4524</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>24872.6</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>12296.2</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>50493.3</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>168549.7</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>59327.9</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>11973</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>10459.3</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>16318.6</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>4282.6</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>11852.3</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>85747.40000000001</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>70950</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>13978</v>
+        <v>42145.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>7909.4</v>
+        <v>7702.4</v>
       </c>
       <c r="C64" t="n">
-        <v>22422.2</v>
+        <v>14512.8</v>
       </c>
       <c r="D64" t="n">
-        <v>3145.9</v>
+        <v>2815.2</v>
       </c>
       <c r="E64" t="n">
-        <v>8837.299999999999</v>
+        <v>5691.4</v>
       </c>
       <c r="F64" t="n">
-        <v>4048.6</v>
+        <v>4524</v>
       </c>
       <c r="G64" t="n">
-        <v>13057.8</v>
+        <v>9009.1</v>
       </c>
       <c r="H64" t="n">
-        <v>25519.1</v>
+        <v>24872.6</v>
       </c>
       <c r="I64" t="n">
-        <v>75379.60000000001</v>
+        <v>49860.5</v>
       </c>
       <c r="J64" t="n">
-        <v>17739.2</v>
+        <v>12296.2</v>
       </c>
       <c r="K64" t="n">
-        <v>37722.2</v>
+        <v>19983</v>
       </c>
       <c r="L64" t="n">
-        <v>49819.8</v>
+        <v>50493.3</v>
       </c>
       <c r="M64" t="n">
-        <v>145379.7</v>
+        <v>95559.89999999999</v>
       </c>
       <c r="N64" t="n">
-        <v>176597.7</v>
+        <v>168549.7</v>
       </c>
       <c r="O64" t="n">
-        <v>496285.3</v>
+        <v>319687.6</v>
       </c>
       <c r="P64" t="n">
-        <v>58993</v>
+        <v>59327.9</v>
       </c>
       <c r="Q64" t="n">
-        <v>171792</v>
+        <v>112799</v>
       </c>
       <c r="R64" t="n">
-        <v>12883.5</v>
+        <v>11972.9</v>
       </c>
       <c r="S64" t="n">
-        <v>32207.4</v>
+        <v>19323.9</v>
       </c>
       <c r="T64" t="n">
-        <v>10651.9</v>
+        <v>10459.3</v>
       </c>
       <c r="U64" t="n">
-        <v>30568.5</v>
+        <v>19916.7</v>
       </c>
       <c r="V64" t="n">
-        <v>16978.4</v>
+        <v>16318.6</v>
       </c>
       <c r="W64" t="n">
-        <v>48946.5</v>
+        <v>31968.1</v>
       </c>
       <c r="X64" t="n">
-        <v>4671.2</v>
+        <v>4282.6</v>
       </c>
       <c r="Y64" t="n">
-        <v>13205.8</v>
+        <v>8534.6</v>
       </c>
       <c r="Z64" t="n">
-        <v>17173.1</v>
+        <v>11852.2</v>
       </c>
       <c r="AA64" t="n">
-        <v>36398.5</v>
+        <v>19225.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>87897.89999999999</v>
+        <v>85747.39999999999</v>
       </c>
       <c r="AC64" t="n">
-        <v>256904.1</v>
+        <v>169006.2</v>
       </c>
       <c r="AD64" t="n">
-        <v>71526.7</v>
+        <v>70950</v>
       </c>
       <c r="AE64" t="n">
-        <v>202982.7</v>
+        <v>131455.9</v>
       </c>
       <c r="AF64" t="n">
-        <v>14057.5</v>
+        <v>13978</v>
       </c>
       <c r="AG64" t="n">
-        <v>42145.9</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>7909.400000000001</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>3145.9</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>4048.699999999999</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>25519.10000000001</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>17739.2</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>49819.80000000002</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>176597.7</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>58993</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>12883.5</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>10651.8</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>16978.4</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>4671.199999999999</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>17173</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>87897.89999999999</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>71526.80000000002</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>14057.5</v>
+        <v>28088.4</v>
       </c>
     </row>
     <row r="65">
@@ -9210,54 +6466,6 @@
       <c r="AG65" t="n">
         <v>56299.8</v>
       </c>
-      <c r="AH65" t="n">
-        <v>8097.299999999999</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>3468.800000000001</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>4459</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>25870.29999999999</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>22130.4</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>54056.29999999999</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>192572.9</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>63176.89999999999</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>15553.9</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>12005.3</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>18773.10000000001</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>4883.900000000001</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>21376.1</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>92840.60000000001</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>78356.20000000001</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>14153.9</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -9361,355 +6569,211 @@
       <c r="AG66" t="n">
         <v>15340.4</v>
       </c>
-      <c r="AH66" t="n">
-        <v>7180.5</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>3181.6</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>5128.8</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>28368.1</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>8665.5</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>45784</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>162410</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>53666.4</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>7763</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>11283</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>16847.5</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>4985.3</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>8312.700000000001</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>92990.5</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>61106.8</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>15340.4</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>8295</v>
+        <v>8591.6</v>
       </c>
       <c r="C67" t="n">
-        <v>15475.5</v>
+        <v>24067.1</v>
       </c>
       <c r="D67" t="n">
-        <v>3112.3</v>
+        <v>3473.2</v>
       </c>
       <c r="E67" t="n">
-        <v>6293.8</v>
+        <v>9767.1</v>
       </c>
       <c r="F67" t="n">
-        <v>5130.7</v>
+        <v>4662.3</v>
       </c>
       <c r="G67" t="n">
-        <v>10259.5</v>
+        <v>14921.8</v>
       </c>
       <c r="H67" t="n">
-        <v>28265.4</v>
+        <v>28822.1</v>
       </c>
       <c r="I67" t="n">
-        <v>56633.5</v>
+        <v>85455.5</v>
       </c>
       <c r="J67" t="n">
-        <v>13045.5</v>
+        <v>18162.2</v>
       </c>
       <c r="K67" t="n">
-        <v>21711</v>
+        <v>39873.2</v>
       </c>
       <c r="L67" t="n">
-        <v>52378.3</v>
+        <v>52468.3</v>
       </c>
       <c r="M67" t="n">
-        <v>98162.3</v>
+        <v>150630.6</v>
       </c>
       <c r="N67" t="n">
-        <v>181408.2</v>
+        <v>191010.6</v>
       </c>
       <c r="O67" t="n">
-        <v>343818.2</v>
+        <v>534828.9</v>
       </c>
       <c r="P67" t="n">
-        <v>60839.2</v>
+        <v>61902.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>114505.6</v>
+        <v>176408.1</v>
       </c>
       <c r="R67" t="n">
-        <v>12943.8</v>
+        <v>13870.6</v>
       </c>
       <c r="S67" t="n">
-        <v>20706.8</v>
+        <v>34577.4</v>
       </c>
       <c r="T67" t="n">
-        <v>12209.7</v>
+        <v>12615.3</v>
       </c>
       <c r="U67" t="n">
-        <v>23492.7</v>
+        <v>36108</v>
       </c>
       <c r="V67" t="n">
-        <v>17679.8</v>
+        <v>18513</v>
       </c>
       <c r="W67" t="n">
-        <v>34527.4</v>
+        <v>53040.3</v>
       </c>
       <c r="X67" t="n">
-        <v>5075.1</v>
+        <v>5452.4</v>
       </c>
       <c r="Y67" t="n">
-        <v>10060.4</v>
+        <v>15512.8</v>
       </c>
       <c r="Z67" t="n">
-        <v>12555.9</v>
+        <v>17542.4</v>
       </c>
       <c r="AA67" t="n">
-        <v>20868.7</v>
+        <v>38411</v>
       </c>
       <c r="AB67" t="n">
-        <v>95435.8</v>
+        <v>98067.8</v>
       </c>
       <c r="AC67" t="n">
-        <v>188426.3</v>
+        <v>286494.1</v>
       </c>
       <c r="AD67" t="n">
-        <v>73416.5</v>
+        <v>75400.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>134523.3</v>
+        <v>209923.7</v>
       </c>
       <c r="AF67" t="n">
-        <v>14811.7</v>
+        <v>14945.4</v>
       </c>
       <c r="AG67" t="n">
-        <v>30152.1</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>8295</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>3112.2</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>5130.7</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>28265.4</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>13045.5</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>52378.3</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>181408.2</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>60839.2</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>12943.8</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>12209.7</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>17679.9</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>5075.099999999999</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>12556</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>95435.79999999999</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>73416.49999999999</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>14811.7</v>
+        <v>45097.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>8591.6</v>
+        <v>8295</v>
       </c>
       <c r="C68" t="n">
-        <v>24067.1</v>
+        <v>15475.5</v>
       </c>
       <c r="D68" t="n">
-        <v>3473.2</v>
+        <v>3112.3</v>
       </c>
       <c r="E68" t="n">
-        <v>9767.1</v>
+        <v>6293.8</v>
       </c>
       <c r="F68" t="n">
-        <v>4662.3</v>
+        <v>5130.7</v>
       </c>
       <c r="G68" t="n">
-        <v>14921.8</v>
+        <v>10259.5</v>
       </c>
       <c r="H68" t="n">
-        <v>28822.1</v>
+        <v>28265.4</v>
       </c>
       <c r="I68" t="n">
-        <v>85455.5</v>
+        <v>56633.5</v>
       </c>
       <c r="J68" t="n">
-        <v>18162.2</v>
+        <v>13045.5</v>
       </c>
       <c r="K68" t="n">
-        <v>39873.2</v>
+        <v>21711</v>
       </c>
       <c r="L68" t="n">
-        <v>52468.3</v>
+        <v>52378.3</v>
       </c>
       <c r="M68" t="n">
-        <v>150630.6</v>
+        <v>98162.3</v>
       </c>
       <c r="N68" t="n">
-        <v>191010.6</v>
+        <v>181408.2</v>
       </c>
       <c r="O68" t="n">
-        <v>534828.9</v>
+        <v>343818.2</v>
       </c>
       <c r="P68" t="n">
-        <v>61902.5</v>
+        <v>60839.2</v>
       </c>
       <c r="Q68" t="n">
-        <v>176408.1</v>
+        <v>114505.6</v>
       </c>
       <c r="R68" t="n">
-        <v>13870.6</v>
+        <v>12943.8</v>
       </c>
       <c r="S68" t="n">
-        <v>34577.4</v>
+        <v>20706.8</v>
       </c>
       <c r="T68" t="n">
-        <v>12615.3</v>
+        <v>12209.7</v>
       </c>
       <c r="U68" t="n">
-        <v>36108</v>
+        <v>23492.7</v>
       </c>
       <c r="V68" t="n">
-        <v>18513</v>
+        <v>17679.8</v>
       </c>
       <c r="W68" t="n">
-        <v>53040.3</v>
+        <v>34527.4</v>
       </c>
       <c r="X68" t="n">
-        <v>5452.4</v>
+        <v>5075.1</v>
       </c>
       <c r="Y68" t="n">
-        <v>15512.8</v>
+        <v>10060.4</v>
       </c>
       <c r="Z68" t="n">
-        <v>17542.4</v>
+        <v>12555.9</v>
       </c>
       <c r="AA68" t="n">
-        <v>38411</v>
+        <v>20868.7</v>
       </c>
       <c r="AB68" t="n">
-        <v>98067.8</v>
+        <v>95435.8</v>
       </c>
       <c r="AC68" t="n">
-        <v>286494.1</v>
+        <v>188426.3</v>
       </c>
       <c r="AD68" t="n">
-        <v>75400.5</v>
+        <v>73416.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>209923.7</v>
+        <v>134523.3</v>
       </c>
       <c r="AF68" t="n">
-        <v>14945.4</v>
+        <v>14811.7</v>
       </c>
       <c r="AG68" t="n">
-        <v>45097.5</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>8591.599999999999</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>3473.3</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>4662.299999999999</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>28822</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>18162.2</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>52468.3</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>191010.7</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>61902.5</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>13870.6</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>12615.3</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>18512.9</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>5452.4</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>17542.3</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>98067.79999999999</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>75400.40000000002</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>14945.4</v>
+        <v>30152.1</v>
       </c>
     </row>
     <row r="69">
@@ -9814,54 +6878,6 @@
       <c r="AG69" t="n">
         <v>59964</v>
       </c>
-      <c r="AH69" t="n">
-        <v>8961.599999999999</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>3840.699999999999</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>5202.299999999999</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>29636.10000000001</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>22577.8</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>58878.29999999999</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>211566.2</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>68998.29999999999</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>16921.5</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>13861.4</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>20684.2</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>6015.799999999999</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>21728.2</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>104334</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>85504.09999999998</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>14866.5</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -9965,355 +6981,211 @@
       <c r="AG70" t="n">
         <v>16758.8</v>
       </c>
-      <c r="AH70" t="n">
-        <v>8094.5</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>3536.5</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>5915.2</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>31864.3</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>8595.799999999999</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>51419.7</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>181867.7</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>60909.3</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>8725.299999999999</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>13047</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>18608.9</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>5811.9</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>8205.9</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>104346.3</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>69315.5</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>16758.8</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9397.700000000001</v>
+        <v>9688.700000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>17492.3</v>
+        <v>27181</v>
       </c>
       <c r="D71" t="n">
-        <v>3440.9</v>
+        <v>3838.5</v>
       </c>
       <c r="E71" t="n">
-        <v>6977.4</v>
+        <v>10815.9</v>
       </c>
       <c r="F71" t="n">
-        <v>5977.9</v>
+        <v>5539.8</v>
       </c>
       <c r="G71" t="n">
-        <v>11893.1</v>
+        <v>17432.9</v>
       </c>
       <c r="H71" t="n">
-        <v>31998.1</v>
+        <v>32708</v>
       </c>
       <c r="I71" t="n">
-        <v>63862.4</v>
+        <v>96570.39999999999</v>
       </c>
       <c r="J71" t="n">
-        <v>13204.2</v>
+        <v>18944.2</v>
       </c>
       <c r="K71" t="n">
-        <v>21800</v>
+        <v>40744.2</v>
       </c>
       <c r="L71" t="n">
-        <v>58172.1</v>
+        <v>58632.6</v>
       </c>
       <c r="M71" t="n">
-        <v>109591.7</v>
+        <v>168224.3</v>
       </c>
       <c r="N71" t="n">
-        <v>201950.3</v>
+        <v>212789.3</v>
       </c>
       <c r="O71" t="n">
-        <v>383818</v>
+        <v>596607.3</v>
       </c>
       <c r="P71" t="n">
-        <v>68099.8</v>
+        <v>69327.2</v>
       </c>
       <c r="Q71" t="n">
-        <v>129009.1</v>
+        <v>198336.3</v>
       </c>
       <c r="R71" t="n">
-        <v>14574.4</v>
+        <v>15590.1</v>
       </c>
       <c r="S71" t="n">
-        <v>23299.7</v>
+        <v>38889.8</v>
       </c>
       <c r="T71" t="n">
-        <v>14059</v>
+        <v>14054.9</v>
       </c>
       <c r="U71" t="n">
-        <v>27106</v>
+        <v>41160.8</v>
       </c>
       <c r="V71" t="n">
-        <v>19473.6</v>
+        <v>20342.9</v>
       </c>
       <c r="W71" t="n">
-        <v>38082.6</v>
+        <v>58425.5</v>
       </c>
       <c r="X71" t="n">
-        <v>5868.4</v>
+        <v>6464.6</v>
       </c>
       <c r="Y71" t="n">
-        <v>11680.3</v>
+        <v>18144.9</v>
       </c>
       <c r="Z71" t="n">
-        <v>12644.9</v>
+        <v>18255.8</v>
       </c>
       <c r="AA71" t="n">
-        <v>20850.8</v>
+        <v>39106.6</v>
       </c>
       <c r="AB71" t="n">
-        <v>106982.4</v>
+        <v>109959.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>211328.7</v>
+        <v>321288.2</v>
       </c>
       <c r="AD71" t="n">
-        <v>82323</v>
+        <v>84574.10000000001</v>
       </c>
       <c r="AE71" t="n">
-        <v>151638.4</v>
+        <v>236212.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>15856.3</v>
+        <v>16290.4</v>
       </c>
       <c r="AG71" t="n">
-        <v>32615.1</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>9397.799999999999</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>3440.9</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>5977.900000000001</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>31998.1</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>13204.2</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>58172</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>201950.3</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>68099.8</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>14574.4</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>14059</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>19473.7</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>5868.4</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>12644.9</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>106982.4</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>82322.89999999999</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>15856.3</v>
+        <v>48905.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9688.700000000001</v>
+        <v>9397.700000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>27181</v>
+        <v>17492.3</v>
       </c>
       <c r="D72" t="n">
-        <v>3838.5</v>
+        <v>3440.9</v>
       </c>
       <c r="E72" t="n">
-        <v>10815.9</v>
+        <v>6977.4</v>
       </c>
       <c r="F72" t="n">
-        <v>5539.8</v>
+        <v>5977.9</v>
       </c>
       <c r="G72" t="n">
-        <v>17432.9</v>
+        <v>11893.1</v>
       </c>
       <c r="H72" t="n">
-        <v>32708</v>
+        <v>31998.1</v>
       </c>
       <c r="I72" t="n">
-        <v>96570.39999999999</v>
+        <v>63862.4</v>
       </c>
       <c r="J72" t="n">
-        <v>18944.2</v>
+        <v>13204.2</v>
       </c>
       <c r="K72" t="n">
-        <v>40744.2</v>
+        <v>21800</v>
       </c>
       <c r="L72" t="n">
-        <v>58632.6</v>
+        <v>58172.1</v>
       </c>
       <c r="M72" t="n">
-        <v>168224.3</v>
+        <v>109591.7</v>
       </c>
       <c r="N72" t="n">
-        <v>212789.3</v>
+        <v>201950.3</v>
       </c>
       <c r="O72" t="n">
-        <v>596607.3</v>
+        <v>383818</v>
       </c>
       <c r="P72" t="n">
-        <v>69327.2</v>
+        <v>68099.8</v>
       </c>
       <c r="Q72" t="n">
-        <v>198336.3</v>
+        <v>129009.1</v>
       </c>
       <c r="R72" t="n">
-        <v>15590.1</v>
+        <v>14574.4</v>
       </c>
       <c r="S72" t="n">
-        <v>38889.8</v>
+        <v>23299.7</v>
       </c>
       <c r="T72" t="n">
-        <v>14054.9</v>
+        <v>14059</v>
       </c>
       <c r="U72" t="n">
-        <v>41160.8</v>
+        <v>27106</v>
       </c>
       <c r="V72" t="n">
-        <v>20342.9</v>
+        <v>19473.6</v>
       </c>
       <c r="W72" t="n">
-        <v>58425.5</v>
+        <v>38082.6</v>
       </c>
       <c r="X72" t="n">
-        <v>6464.6</v>
+        <v>5868.4</v>
       </c>
       <c r="Y72" t="n">
-        <v>18144.9</v>
+        <v>11680.3</v>
       </c>
       <c r="Z72" t="n">
-        <v>18255.8</v>
+        <v>12644.9</v>
       </c>
       <c r="AA72" t="n">
-        <v>39106.6</v>
+        <v>20850.8</v>
       </c>
       <c r="AB72" t="n">
-        <v>109959.5</v>
+        <v>106982.4</v>
       </c>
       <c r="AC72" t="n">
-        <v>321288.2</v>
+        <v>211328.7</v>
       </c>
       <c r="AD72" t="n">
-        <v>84574.10000000001</v>
+        <v>82323</v>
       </c>
       <c r="AE72" t="n">
-        <v>236212.5</v>
+        <v>151638.4</v>
       </c>
       <c r="AF72" t="n">
-        <v>16290.4</v>
+        <v>15856.3</v>
       </c>
       <c r="AG72" t="n">
-        <v>48905.5</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>9688.700000000001</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>3838.5</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>5539.800000000001</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>32707.99999999999</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>18944.2</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>58632.59999999999</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>212789.3</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>69327.19999999998</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>15590.1</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>14054.8</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>20342.9</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>6464.600000000002</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>18255.8</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>109959.5</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>84574.10000000001</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>16290.4</v>
+        <v>32615.1</v>
       </c>
     </row>
     <row r="73">
@@ -10418,54 +7290,6 @@
       <c r="AG73" t="n">
         <v>64844.3</v>
       </c>
-      <c r="AH73" t="n">
-        <v>9940.900000000001</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>4240.1</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>6376</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>33433.70000000001</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>23915.8</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>65652.20000000001</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>235428.6</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>76783</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>19015.8</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>15925.2</v>
-      </c>
-      <c r="AR73" t="n">
-        <v>22731.10000000001</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>7128.399999999998</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>22992.9</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>117067.7</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>95368</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>15938.8</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -10569,355 +7393,211 @@
       <c r="AG74" t="n">
         <v>18050.6</v>
       </c>
-      <c r="AH74" t="n">
-        <v>8806.5</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>3887.8</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>7212.2</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>35864.9</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>9005.799999999999</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>56631.9</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>202035.7</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>66905.60000000001</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>10073.8</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>14863.5</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>20485.5</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>6879.5</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>8575.700000000001</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>116861.8</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>76598.2</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>18050.6</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>10174.9</v>
+        <v>10582.3</v>
       </c>
       <c r="C75" t="n">
-        <v>18981.4</v>
+        <v>29563.7</v>
       </c>
       <c r="D75" t="n">
-        <v>3779.6</v>
+        <v>4212.6</v>
       </c>
       <c r="E75" t="n">
-        <v>7667.4</v>
+        <v>11880</v>
       </c>
       <c r="F75" t="n">
-        <v>7309.6</v>
+        <v>6690.9</v>
       </c>
       <c r="G75" t="n">
-        <v>14521.8</v>
+        <v>21212.7</v>
       </c>
       <c r="H75" t="n">
-        <v>35673.1</v>
+        <v>36930.6</v>
       </c>
       <c r="I75" t="n">
-        <v>71537.89999999999</v>
+        <v>108468.5</v>
       </c>
       <c r="J75" t="n">
-        <v>13662.2</v>
+        <v>18961.8</v>
       </c>
       <c r="K75" t="n">
-        <v>22668</v>
+        <v>41629.8</v>
       </c>
       <c r="L75" t="n">
-        <v>64294.9</v>
+        <v>64348.2</v>
       </c>
       <c r="M75" t="n">
-        <v>120926.9</v>
+        <v>185275.1</v>
       </c>
       <c r="N75" t="n">
-        <v>223962.2</v>
+        <v>234474.3</v>
       </c>
       <c r="O75" t="n">
-        <v>425997.9</v>
+        <v>660472.2</v>
       </c>
       <c r="P75" t="n">
-        <v>75122.10000000001</v>
+        <v>76239.60000000001</v>
       </c>
       <c r="Q75" t="n">
-        <v>142027.7</v>
+        <v>218267.2</v>
       </c>
       <c r="R75" t="n">
-        <v>16404.3</v>
+        <v>17294.5</v>
       </c>
       <c r="S75" t="n">
-        <v>26478.2</v>
+        <v>43772.7</v>
       </c>
       <c r="T75" t="n">
-        <v>16176.1</v>
+        <v>15914</v>
       </c>
       <c r="U75" t="n">
-        <v>31039.5</v>
+        <v>46953.5</v>
       </c>
       <c r="V75" t="n">
-        <v>21374.2</v>
+        <v>22334.1</v>
       </c>
       <c r="W75" t="n">
-        <v>41859.7</v>
+        <v>64193.8</v>
       </c>
       <c r="X75" t="n">
-        <v>6885.3</v>
+        <v>7533.3</v>
       </c>
       <c r="Y75" t="n">
-        <v>13764.8</v>
+        <v>21298.1</v>
       </c>
       <c r="Z75" t="n">
-        <v>13003.8</v>
+        <v>18226.9</v>
       </c>
       <c r="AA75" t="n">
-        <v>21579.5</v>
+        <v>39806.4</v>
       </c>
       <c r="AB75" t="n">
-        <v>119857.8</v>
+        <v>123134.9</v>
       </c>
       <c r="AC75" t="n">
-        <v>236719.7</v>
+        <v>359854.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>91100.60000000001</v>
+        <v>93112.5</v>
       </c>
       <c r="AE75" t="n">
-        <v>167698.8</v>
+        <v>260811.3</v>
       </c>
       <c r="AF75" t="n">
-        <v>17401</v>
+        <v>17780.6</v>
       </c>
       <c r="AG75" t="n">
-        <v>35451.6</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>10174.9</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>3779.599999999999</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>7309.599999999999</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>35672.99999999999</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>13662.2</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>64294.99999999999</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>223962.2</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>75122.10000000001</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>16404.4</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>16176</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>21374.2</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>6885.299999999999</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>13003.8</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>119857.9</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>91100.59999999999</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>17401</v>
+        <v>53232.2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>10582.3</v>
+        <v>10174.9</v>
       </c>
       <c r="C76" t="n">
-        <v>29563.7</v>
+        <v>18981.4</v>
       </c>
       <c r="D76" t="n">
-        <v>4212.6</v>
+        <v>3779.6</v>
       </c>
       <c r="E76" t="n">
-        <v>11880</v>
+        <v>7667.4</v>
       </c>
       <c r="F76" t="n">
-        <v>6690.9</v>
+        <v>7309.6</v>
       </c>
       <c r="G76" t="n">
-        <v>21212.7</v>
+        <v>14521.8</v>
       </c>
       <c r="H76" t="n">
-        <v>36930.6</v>
+        <v>35673.1</v>
       </c>
       <c r="I76" t="n">
-        <v>108468.5</v>
+        <v>71537.89999999999</v>
       </c>
       <c r="J76" t="n">
-        <v>18961.8</v>
+        <v>13662.2</v>
       </c>
       <c r="K76" t="n">
-        <v>41629.8</v>
+        <v>22668</v>
       </c>
       <c r="L76" t="n">
-        <v>64348.2</v>
+        <v>64294.9</v>
       </c>
       <c r="M76" t="n">
-        <v>185275.1</v>
+        <v>120926.9</v>
       </c>
       <c r="N76" t="n">
-        <v>234474.3</v>
+        <v>223962.2</v>
       </c>
       <c r="O76" t="n">
-        <v>660472.2</v>
+        <v>425997.9</v>
       </c>
       <c r="P76" t="n">
-        <v>76239.60000000001</v>
+        <v>75122.10000000001</v>
       </c>
       <c r="Q76" t="n">
-        <v>218267.2</v>
+        <v>142027.7</v>
       </c>
       <c r="R76" t="n">
-        <v>17294.5</v>
+        <v>16404.3</v>
       </c>
       <c r="S76" t="n">
-        <v>43772.7</v>
+        <v>26478.2</v>
       </c>
       <c r="T76" t="n">
-        <v>15914</v>
+        <v>16176.1</v>
       </c>
       <c r="U76" t="n">
-        <v>46953.5</v>
+        <v>31039.5</v>
       </c>
       <c r="V76" t="n">
-        <v>22334.1</v>
+        <v>21374.2</v>
       </c>
       <c r="W76" t="n">
-        <v>64193.8</v>
+        <v>41859.7</v>
       </c>
       <c r="X76" t="n">
-        <v>7533.3</v>
+        <v>6885.3</v>
       </c>
       <c r="Y76" t="n">
-        <v>21298.1</v>
+        <v>13764.8</v>
       </c>
       <c r="Z76" t="n">
-        <v>18226.9</v>
+        <v>13003.8</v>
       </c>
       <c r="AA76" t="n">
-        <v>39806.4</v>
+        <v>21579.5</v>
       </c>
       <c r="AB76" t="n">
-        <v>123134.9</v>
+        <v>119857.8</v>
       </c>
       <c r="AC76" t="n">
-        <v>359854.5</v>
+        <v>236719.7</v>
       </c>
       <c r="AD76" t="n">
-        <v>93112.5</v>
+        <v>91100.60000000001</v>
       </c>
       <c r="AE76" t="n">
-        <v>260811.3</v>
+        <v>167698.8</v>
       </c>
       <c r="AF76" t="n">
-        <v>17780.6</v>
+        <v>17401</v>
       </c>
       <c r="AG76" t="n">
-        <v>53232.2</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>10582.3</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>4212.6</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>6690.900000000001</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>36930.60000000001</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>18961.8</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>64348.20000000001</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>234474.2999999999</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>76239.5</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>17294.5</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>15914</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>22334.10000000001</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>7533.299999999999</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>18226.9</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>123134.8</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>93112.5</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>17780.6</v>
+        <v>35451.6</v>
       </c>
     </row>
     <row r="77">
@@ -11022,54 +7702,6 @@
       <c r="AG77" t="n">
         <v>70610.3</v>
       </c>
-      <c r="AH77" t="n">
-        <v>10773.5</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>4640.599999999999</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>7520.799999999999</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>37474.60000000001</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>25928.89999999999</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>70662.10000000001</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>258808.9</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>82822.09999999998</v>
-      </c>
-      <c r="AP77" t="n">
-        <v>21720.3</v>
-      </c>
-      <c r="AQ77" t="n">
-        <v>17669.5</v>
-      </c>
-      <c r="AR77" t="n">
-        <v>24709.89999999999</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>8170.400000000001</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>24938.8</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>129846.3</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>104023.9</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>17378.10000000001</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -11173,355 +7805,211 @@
       <c r="AG78" t="n">
         <v>19423</v>
       </c>
-      <c r="AH78" t="n">
-        <v>9316.299999999999</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>4203.2</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>8633.9</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>39661.2</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>9248.700000000001</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>59227.3</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>217168.3</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>69892.39999999999</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>11102.8</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>16180.1</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>21911.1</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>7595.8</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>8768.299999999999</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>127803.3</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>80596.7</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>19423</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>10771.2</v>
+        <v>11231.6</v>
       </c>
       <c r="C79" t="n">
-        <v>20087.4</v>
+        <v>31319.1</v>
       </c>
       <c r="D79" t="n">
-        <v>4091.8</v>
+        <v>4575.5</v>
       </c>
       <c r="E79" t="n">
-        <v>8295</v>
+        <v>12870.5</v>
       </c>
       <c r="F79" t="n">
-        <v>8602.299999999999</v>
+        <v>7625.5</v>
       </c>
       <c r="G79" t="n">
-        <v>17236.2</v>
+        <v>24861.7</v>
       </c>
       <c r="H79" t="n">
-        <v>39407.5</v>
+        <v>41074.1</v>
       </c>
       <c r="I79" t="n">
-        <v>79068.60000000001</v>
+        <v>120142.7</v>
       </c>
       <c r="J79" t="n">
-        <v>15111.7</v>
+        <v>20632.8</v>
       </c>
       <c r="K79" t="n">
-        <v>24360.4</v>
+        <v>44993.2</v>
       </c>
       <c r="L79" t="n">
-        <v>66768.3</v>
+        <v>65573</v>
       </c>
       <c r="M79" t="n">
-        <v>125995.6</v>
+        <v>191568.5</v>
       </c>
       <c r="N79" t="n">
-        <v>241502.6</v>
+        <v>251046.3</v>
       </c>
       <c r="O79" t="n">
-        <v>458670.9</v>
+        <v>709717.2</v>
       </c>
       <c r="P79" t="n">
-        <v>78490.10000000001</v>
+        <v>78196.3</v>
       </c>
       <c r="Q79" t="n">
-        <v>148382.4</v>
+        <v>226578.8</v>
       </c>
       <c r="R79" t="n">
-        <v>17889.3</v>
+        <v>18666.9</v>
       </c>
       <c r="S79" t="n">
-        <v>28992.1</v>
+        <v>47659</v>
       </c>
       <c r="T79" t="n">
-        <v>17692.2</v>
+        <v>17576.3</v>
       </c>
       <c r="U79" t="n">
-        <v>33872.3</v>
+        <v>51448.6</v>
       </c>
       <c r="V79" t="n">
-        <v>23053.1</v>
+        <v>23947.1</v>
       </c>
       <c r="W79" t="n">
-        <v>44964.1</v>
+        <v>68911.2</v>
       </c>
       <c r="X79" t="n">
-        <v>7529</v>
+        <v>8334.200000000001</v>
       </c>
       <c r="Y79" t="n">
-        <v>15124.8</v>
+        <v>23459</v>
       </c>
       <c r="Z79" t="n">
-        <v>14439.9</v>
+        <v>19801</v>
       </c>
       <c r="AA79" t="n">
-        <v>23208.2</v>
+        <v>43009.1</v>
       </c>
       <c r="AB79" t="n">
-        <v>131139</v>
+        <v>134825.2</v>
       </c>
       <c r="AC79" t="n">
-        <v>258942.3</v>
+        <v>393767.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>95923.7</v>
+        <v>96420.10000000001</v>
       </c>
       <c r="AE79" t="n">
-        <v>176520.4</v>
+        <v>272940.5</v>
       </c>
       <c r="AF79" t="n">
-        <v>18864.5</v>
+        <v>19186</v>
       </c>
       <c r="AG79" t="n">
-        <v>38287.5</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>10771.1</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>4091.8</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>8602.300000000001</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>39407.40000000001</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>15111.7</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>66768.3</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>241502.6</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>78490</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>17889.3</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>17692.2</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>23053</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>7528.999999999999</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>14439.9</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>131139</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>95923.7</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>18864.5</v>
+        <v>57473.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>11231.6</v>
+        <v>10771.2</v>
       </c>
       <c r="C80" t="n">
-        <v>31319.1</v>
+        <v>20087.4</v>
       </c>
       <c r="D80" t="n">
-        <v>4575.5</v>
+        <v>4091.8</v>
       </c>
       <c r="E80" t="n">
-        <v>12870.5</v>
+        <v>8295</v>
       </c>
       <c r="F80" t="n">
-        <v>7625.5</v>
+        <v>8602.299999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>24861.7</v>
+        <v>17236.2</v>
       </c>
       <c r="H80" t="n">
-        <v>41074.1</v>
+        <v>39407.5</v>
       </c>
       <c r="I80" t="n">
-        <v>120142.7</v>
+        <v>79068.60000000001</v>
       </c>
       <c r="J80" t="n">
-        <v>20632.8</v>
+        <v>15111.7</v>
       </c>
       <c r="K80" t="n">
-        <v>44993.2</v>
+        <v>24360.4</v>
       </c>
       <c r="L80" t="n">
-        <v>65573</v>
+        <v>66768.3</v>
       </c>
       <c r="M80" t="n">
-        <v>191568.5</v>
+        <v>125995.6</v>
       </c>
       <c r="N80" t="n">
-        <v>251046.3</v>
+        <v>241502.6</v>
       </c>
       <c r="O80" t="n">
-        <v>709717.2</v>
+        <v>458670.9</v>
       </c>
       <c r="P80" t="n">
-        <v>78196.3</v>
+        <v>78490.10000000001</v>
       </c>
       <c r="Q80" t="n">
-        <v>226578.8</v>
+        <v>148382.4</v>
       </c>
       <c r="R80" t="n">
-        <v>18666.9</v>
+        <v>17889.3</v>
       </c>
       <c r="S80" t="n">
-        <v>47659</v>
+        <v>28992.1</v>
       </c>
       <c r="T80" t="n">
-        <v>17576.3</v>
+        <v>17692.2</v>
       </c>
       <c r="U80" t="n">
-        <v>51448.6</v>
+        <v>33872.3</v>
       </c>
       <c r="V80" t="n">
-        <v>23947.1</v>
+        <v>23053.1</v>
       </c>
       <c r="W80" t="n">
-        <v>68911.2</v>
+        <v>44964.1</v>
       </c>
       <c r="X80" t="n">
-        <v>8334.200000000001</v>
+        <v>7529</v>
       </c>
       <c r="Y80" t="n">
-        <v>23459</v>
+        <v>15124.8</v>
       </c>
       <c r="Z80" t="n">
-        <v>19801</v>
+        <v>14439.9</v>
       </c>
       <c r="AA80" t="n">
-        <v>43009.1</v>
+        <v>23208.2</v>
       </c>
       <c r="AB80" t="n">
-        <v>134825.2</v>
+        <v>131139</v>
       </c>
       <c r="AC80" t="n">
-        <v>393767.5</v>
+        <v>258942.3</v>
       </c>
       <c r="AD80" t="n">
-        <v>96420.10000000001</v>
+        <v>95923.7</v>
       </c>
       <c r="AE80" t="n">
-        <v>272940.5</v>
+        <v>176520.4</v>
       </c>
       <c r="AF80" t="n">
-        <v>19186</v>
+        <v>18864.5</v>
       </c>
       <c r="AG80" t="n">
-        <v>57473.5</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>11231.7</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>4575.5</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>7625.5</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>41074.09999999999</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>20632.8</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>65572.89999999999</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>251046.2999999999</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>78196.39999999999</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>18666.9</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>17576.3</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>23947.1</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>8334.200000000001</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>19800.9</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>134825.2</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>96420.10000000001</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>19186</v>
+        <v>38287.5</v>
       </c>
     </row>
     <row r="81">
@@ -11626,54 +8114,6 @@
       <c r="AG81" t="n">
         <v>76250.60000000001</v>
       </c>
-      <c r="AH81" t="n">
-        <v>11147.2</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>5032.599999999999</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>8530.100000000002</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>41543.3</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>28583.7</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>72568.20000000001</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>276798</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>85279.90000000002</v>
-      </c>
-      <c r="AP81" t="n">
-        <v>22989.10000000001</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>18996.2</v>
-      </c>
-      <c r="AR81" t="n">
-        <v>26739.7</v>
-      </c>
-      <c r="AS81" t="n">
-        <v>9179</v>
-      </c>
-      <c r="AT81" t="n">
-        <v>27464.50000000001</v>
-      </c>
-      <c r="AU81" t="n">
-        <v>141603.5</v>
-      </c>
-      <c r="AV81" t="n">
-        <v>107730.1</v>
-      </c>
-      <c r="AW81" t="n">
-        <v>18777.10000000001</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -11777,355 +8217,211 @@
       <c r="AG82" t="n">
         <v>20979</v>
       </c>
-      <c r="AH82" t="n">
-        <v>7669.7</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>2614.6</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>9244.9</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>39915.2</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>10747.7</v>
-      </c>
-      <c r="AM82" t="n">
-        <v>52914.9</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>205244.8</v>
-      </c>
-      <c r="AO82" t="n">
-        <v>63517.6</v>
-      </c>
-      <c r="AP82" t="n">
-        <v>9273.4</v>
-      </c>
-      <c r="AQ82" t="n">
-        <v>15260.3</v>
-      </c>
-      <c r="AR82" t="n">
-        <v>18758.7</v>
-      </c>
-      <c r="AS82" t="n">
-        <v>7263.7</v>
-      </c>
-      <c r="AT82" t="n">
-        <v>10222.5</v>
-      </c>
-      <c r="AU82" t="n">
-        <v>122606.3</v>
-      </c>
-      <c r="AV82" t="n">
-        <v>72415.89999999999</v>
-      </c>
-      <c r="AW82" t="n">
-        <v>20979</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>10266.4</v>
+        <v>10938.5</v>
       </c>
       <c r="C83" t="n">
-        <v>17936.1</v>
+        <v>28874.6</v>
       </c>
       <c r="D83" t="n">
-        <v>3303.7</v>
+        <v>4281.6</v>
       </c>
       <c r="E83" t="n">
-        <v>5918.3</v>
+        <v>10199.9</v>
       </c>
       <c r="F83" t="n">
-        <v>9909.6</v>
+        <v>8948.299999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>19154.5</v>
+        <v>28102.7</v>
       </c>
       <c r="H83" t="n">
-        <v>40102.7</v>
+        <v>42942.2</v>
       </c>
       <c r="I83" t="n">
-        <v>80017.8</v>
+        <v>122960</v>
       </c>
       <c r="J83" t="n">
-        <v>16668.1</v>
+        <v>23065.3</v>
       </c>
       <c r="K83" t="n">
-        <v>27415.8</v>
+        <v>50481.1</v>
       </c>
       <c r="L83" t="n">
-        <v>68078.5</v>
+        <v>68388.10000000001</v>
       </c>
       <c r="M83" t="n">
-        <v>120993.4</v>
+        <v>189381.5</v>
       </c>
       <c r="N83" t="n">
-        <v>248347.7</v>
+        <v>264355.7</v>
       </c>
       <c r="O83" t="n">
-        <v>453592.5</v>
+        <v>717948.2</v>
       </c>
       <c r="P83" t="n">
-        <v>79015.89999999999</v>
+        <v>80570.60000000001</v>
       </c>
       <c r="Q83" t="n">
-        <v>142533.5</v>
+        <v>223104</v>
       </c>
       <c r="R83" t="n">
-        <v>18943.4</v>
+        <v>19760.1</v>
       </c>
       <c r="S83" t="n">
-        <v>28216.8</v>
+        <v>47976.9</v>
       </c>
       <c r="T83" t="n">
-        <v>18522.5</v>
+        <v>19086.9</v>
       </c>
       <c r="U83" t="n">
-        <v>33782.9</v>
+        <v>52869.8</v>
       </c>
       <c r="V83" t="n">
-        <v>23746.3</v>
+        <v>25182.8</v>
       </c>
       <c r="W83" t="n">
-        <v>42505</v>
+        <v>67687.8</v>
       </c>
       <c r="X83" t="n">
-        <v>7292.9</v>
+        <v>8144.1</v>
       </c>
       <c r="Y83" t="n">
-        <v>14556.6</v>
+        <v>22700.7</v>
       </c>
       <c r="Z83" t="n">
-        <v>15934.5</v>
+        <v>22158.1</v>
       </c>
       <c r="AA83" t="n">
-        <v>26157.1</v>
+        <v>48315.2</v>
       </c>
       <c r="AB83" t="n">
-        <v>134883.4</v>
+        <v>142300.1</v>
       </c>
       <c r="AC83" t="n">
-        <v>257489.7</v>
+        <v>399789.9</v>
       </c>
       <c r="AD83" t="n">
-        <v>97529.8</v>
+        <v>99897.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>169945.7</v>
+        <v>269843.2</v>
       </c>
       <c r="AF83" t="n">
-        <v>20576.2</v>
+        <v>21435.4</v>
       </c>
       <c r="AG83" t="n">
-        <v>41555.3</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>10266.4</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>3303.7</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>9909.6</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>40102.60000000001</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>16668.1</v>
-      </c>
-      <c r="AM83" t="n">
-        <v>68078.5</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>248347.7</v>
-      </c>
-      <c r="AO83" t="n">
-        <v>79015.89999999999</v>
-      </c>
-      <c r="AP83" t="n">
-        <v>18943.4</v>
-      </c>
-      <c r="AQ83" t="n">
-        <v>18522.6</v>
-      </c>
-      <c r="AR83" t="n">
-        <v>23746.3</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>7292.900000000001</v>
-      </c>
-      <c r="AT83" t="n">
-        <v>15934.6</v>
-      </c>
-      <c r="AU83" t="n">
-        <v>134883.4</v>
-      </c>
-      <c r="AV83" t="n">
-        <v>97529.80000000002</v>
-      </c>
-      <c r="AW83" t="n">
-        <v>20576.3</v>
+        <v>62990.6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>10938.5</v>
+        <v>10266.4</v>
       </c>
       <c r="C84" t="n">
-        <v>28874.6</v>
+        <v>17936.1</v>
       </c>
       <c r="D84" t="n">
-        <v>4281.6</v>
+        <v>3303.7</v>
       </c>
       <c r="E84" t="n">
-        <v>10199.9</v>
+        <v>5918.3</v>
       </c>
       <c r="F84" t="n">
-        <v>8948.299999999999</v>
+        <v>9909.6</v>
       </c>
       <c r="G84" t="n">
-        <v>28102.7</v>
+        <v>19154.5</v>
       </c>
       <c r="H84" t="n">
-        <v>42942.2</v>
+        <v>40102.7</v>
       </c>
       <c r="I84" t="n">
-        <v>122960</v>
+        <v>80017.8</v>
       </c>
       <c r="J84" t="n">
-        <v>23065.3</v>
+        <v>16668.1</v>
       </c>
       <c r="K84" t="n">
-        <v>50481.1</v>
+        <v>27415.8</v>
       </c>
       <c r="L84" t="n">
-        <v>68388.10000000001</v>
+        <v>68078.5</v>
       </c>
       <c r="M84" t="n">
-        <v>189381.5</v>
+        <v>120993.4</v>
       </c>
       <c r="N84" t="n">
-        <v>264355.7</v>
+        <v>248347.7</v>
       </c>
       <c r="O84" t="n">
-        <v>717948.2</v>
+        <v>453592.5</v>
       </c>
       <c r="P84" t="n">
-        <v>80570.60000000001</v>
+        <v>79015.89999999999</v>
       </c>
       <c r="Q84" t="n">
-        <v>223104</v>
+        <v>142533.5</v>
       </c>
       <c r="R84" t="n">
-        <v>19760.1</v>
+        <v>18943.4</v>
       </c>
       <c r="S84" t="n">
-        <v>47976.9</v>
+        <v>28216.8</v>
       </c>
       <c r="T84" t="n">
-        <v>19086.9</v>
+        <v>18522.5</v>
       </c>
       <c r="U84" t="n">
-        <v>52869.8</v>
+        <v>33782.9</v>
       </c>
       <c r="V84" t="n">
-        <v>25182.8</v>
+        <v>23746.3</v>
       </c>
       <c r="W84" t="n">
-        <v>67687.8</v>
+        <v>42505</v>
       </c>
       <c r="X84" t="n">
-        <v>8144.1</v>
+        <v>7292.9</v>
       </c>
       <c r="Y84" t="n">
-        <v>22700.7</v>
+        <v>14556.6</v>
       </c>
       <c r="Z84" t="n">
-        <v>22158.1</v>
+        <v>15934.5</v>
       </c>
       <c r="AA84" t="n">
-        <v>48315.2</v>
+        <v>26157.1</v>
       </c>
       <c r="AB84" t="n">
-        <v>142300.1</v>
+        <v>134883.4</v>
       </c>
       <c r="AC84" t="n">
-        <v>399789.9</v>
+        <v>257489.7</v>
       </c>
       <c r="AD84" t="n">
-        <v>99897.5</v>
+        <v>97529.8</v>
       </c>
       <c r="AE84" t="n">
-        <v>269843.2</v>
+        <v>169945.7</v>
       </c>
       <c r="AF84" t="n">
-        <v>21435.4</v>
+        <v>20576.2</v>
       </c>
       <c r="AG84" t="n">
-        <v>62990.6</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>10938.5</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>4281.599999999999</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>8948.200000000001</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>42942.2</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>23065.3</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>68388.10000000001</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>264355.7</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>80570.5</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>19760.1</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>19086.9</v>
-      </c>
-      <c r="AR84" t="n">
-        <v>25182.8</v>
-      </c>
-      <c r="AS84" t="n">
-        <v>8144.1</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>22158.1</v>
-      </c>
-      <c r="AU84" t="n">
-        <v>142300.2</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>99897.5</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>21435.3</v>
+        <v>41555.3</v>
       </c>
     </row>
     <row r="85">
@@ -12230,54 +8526,6 @@
       <c r="AG85" t="n">
         <v>83617.7</v>
       </c>
-      <c r="AH85" t="n">
-        <v>11708.3</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>5085.5</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>10141.4</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>44153.60000000001</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>30915.4</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>77036.29999999999</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>295618.8</v>
-      </c>
-      <c r="AO85" t="n">
-        <v>89798.90000000002</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>24467.8</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>20555.5</v>
-      </c>
-      <c r="AR85" t="n">
-        <v>28398.3</v>
-      </c>
-      <c r="AS85" t="n">
-        <v>9766.899999999998</v>
-      </c>
-      <c r="AT85" t="n">
-        <v>29715.7</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>152183.7999999999</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>113719.2</v>
-      </c>
-      <c r="AW85" t="n">
-        <v>20627.1</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -12286,450 +8534,306 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>9891.5</v>
+        <v>10251.3</v>
       </c>
       <c r="C86" t="n">
-        <v>9891.5</v>
+        <v>10251.3</v>
       </c>
       <c r="D86" t="n">
-        <v>3795.2</v>
+        <v>3831.8</v>
       </c>
       <c r="E86" t="n">
-        <v>3795.2</v>
+        <v>3831.8</v>
       </c>
       <c r="F86" t="n">
-        <v>10979</v>
+        <v>11097.5</v>
       </c>
       <c r="G86" t="n">
-        <v>10979</v>
+        <v>11097.5</v>
       </c>
       <c r="H86" t="n">
-        <v>44379.2</v>
+        <v>44907.8</v>
       </c>
       <c r="I86" t="n">
-        <v>44379.2</v>
+        <v>44907.8</v>
       </c>
       <c r="J86" t="n">
-        <v>11932</v>
+        <v>11941.5</v>
       </c>
       <c r="K86" t="n">
-        <v>11932</v>
+        <v>11941.5</v>
       </c>
       <c r="L86" t="n">
-        <v>68552</v>
+        <v>69160.3</v>
       </c>
       <c r="M86" t="n">
-        <v>68552</v>
+        <v>69160.3</v>
       </c>
       <c r="N86" t="n">
-        <v>247985</v>
+        <v>249200.2</v>
       </c>
       <c r="O86" t="n">
-        <v>247985</v>
+        <v>249200.2</v>
       </c>
       <c r="P86" t="n">
-        <v>80867.10000000001</v>
+        <v>81144.7</v>
       </c>
       <c r="Q86" t="n">
-        <v>80867.10000000001</v>
+        <v>81144.7</v>
       </c>
       <c r="R86" t="n">
-        <v>11926.4</v>
+        <v>11723.5</v>
       </c>
       <c r="S86" t="n">
-        <v>11926.4</v>
+        <v>11723.5</v>
       </c>
       <c r="T86" t="n">
-        <v>19212.5</v>
+        <v>19123.7</v>
       </c>
       <c r="U86" t="n">
-        <v>19212.5</v>
+        <v>19123.7</v>
       </c>
       <c r="V86" t="n">
-        <v>24108.9</v>
+        <v>24041.6</v>
       </c>
       <c r="W86" t="n">
-        <v>24108.9</v>
+        <v>24041.6</v>
       </c>
       <c r="X86" t="n">
-        <v>7961.1</v>
+        <v>8446.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>7961.1</v>
+        <v>8446.5</v>
       </c>
       <c r="Z86" t="n">
-        <v>11373.8</v>
+        <v>11369.3</v>
       </c>
       <c r="AA86" t="n">
-        <v>11373.8</v>
+        <v>11369.3</v>
       </c>
       <c r="AB86" t="n">
-        <v>144179</v>
+        <v>145310.3</v>
       </c>
       <c r="AC86" t="n">
-        <v>144179</v>
+        <v>145310.3</v>
       </c>
       <c r="AD86" t="n">
-        <v>92432.2</v>
+        <v>92520.7</v>
       </c>
       <c r="AE86" t="n">
-        <v>92432.2</v>
+        <v>92520.7</v>
       </c>
       <c r="AF86" t="n">
-        <v>22932.2</v>
+        <v>22690.4</v>
       </c>
       <c r="AG86" t="n">
-        <v>22932.2</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>9891.5</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>3795.2</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>10979</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>44379.2</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>11932</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>68552</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>247985</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>80867.10000000001</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>11926.4</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>19212.5</v>
-      </c>
-      <c r="AR86" t="n">
-        <v>24108.9</v>
-      </c>
-      <c r="AS86" t="n">
-        <v>7961.1</v>
-      </c>
-      <c r="AT86" t="n">
-        <v>11373.8</v>
-      </c>
-      <c r="AU86" t="n">
-        <v>144179</v>
-      </c>
-      <c r="AV86" t="n">
-        <v>92432.2</v>
-      </c>
-      <c r="AW86" t="n">
-        <v>22932.2</v>
+        <v>22690.4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>12321.8</v>
+        <v>12811.9</v>
       </c>
       <c r="C87" t="n">
-        <v>22213.2</v>
+        <v>35732</v>
       </c>
       <c r="D87" t="n">
-        <v>3981.4</v>
+        <v>4694</v>
       </c>
       <c r="E87" t="n">
-        <v>7776.6</v>
+        <v>12546</v>
       </c>
       <c r="F87" t="n">
-        <v>11622.3</v>
+        <v>10405</v>
       </c>
       <c r="G87" t="n">
-        <v>22601.3</v>
+        <v>33296.7</v>
       </c>
       <c r="H87" t="n">
-        <v>43657.9</v>
+        <v>46051.9</v>
       </c>
       <c r="I87" t="n">
-        <v>88037.10000000001</v>
+        <v>135134.3</v>
       </c>
       <c r="J87" t="n">
-        <v>17936.2</v>
+        <v>24150</v>
       </c>
       <c r="K87" t="n">
-        <v>29868.1</v>
+        <v>54073.3</v>
       </c>
       <c r="L87" t="n">
-        <v>80178.3</v>
+        <v>78198.5</v>
       </c>
       <c r="M87" t="n">
-        <v>148730.3</v>
+        <v>228248.5</v>
       </c>
       <c r="N87" t="n">
-        <v>281528</v>
+        <v>291288.1</v>
       </c>
       <c r="O87" t="n">
-        <v>529513</v>
+        <v>823337.5</v>
       </c>
       <c r="P87" t="n">
-        <v>93559.89999999999</v>
+        <v>93386.3</v>
       </c>
       <c r="Q87" t="n">
-        <v>174427.1</v>
+        <v>268602.1</v>
       </c>
       <c r="R87" t="n">
-        <v>21157.2</v>
+        <v>20675.3</v>
       </c>
       <c r="S87" t="n">
-        <v>33083.6</v>
+        <v>53187.1</v>
       </c>
       <c r="T87" t="n">
-        <v>19978.8</v>
+        <v>18569.5</v>
       </c>
       <c r="U87" t="n">
-        <v>39191.3</v>
+        <v>57581.3</v>
       </c>
       <c r="V87" t="n">
-        <v>26987.5</v>
+        <v>28024.3</v>
       </c>
       <c r="W87" t="n">
-        <v>51096.3</v>
+        <v>78962</v>
       </c>
       <c r="X87" t="n">
-        <v>7922.3</v>
+        <v>9437.6</v>
       </c>
       <c r="Y87" t="n">
-        <v>15883.5</v>
+        <v>26284.1</v>
       </c>
       <c r="Z87" t="n">
-        <v>17139</v>
+        <v>23142.6</v>
       </c>
       <c r="AA87" t="n">
-        <v>28512.8</v>
+        <v>51677.3</v>
       </c>
       <c r="AB87" t="n">
-        <v>150088.4</v>
+        <v>154512.7</v>
       </c>
       <c r="AC87" t="n">
-        <v>294267.4</v>
+        <v>451048.5</v>
       </c>
       <c r="AD87" t="n">
-        <v>114300.6</v>
+        <v>113632.9</v>
       </c>
       <c r="AE87" t="n">
-        <v>206732.7</v>
+        <v>320611.7</v>
       </c>
       <c r="AF87" t="n">
-        <v>22402.7</v>
+        <v>23082.2</v>
       </c>
       <c r="AG87" t="n">
-        <v>45334.9</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>12321.7</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>3981.400000000001</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>11622.3</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>43657.90000000001</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>17936.1</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>80178.29999999999</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>281528</v>
-      </c>
-      <c r="AO87" t="n">
-        <v>93560</v>
-      </c>
-      <c r="AP87" t="n">
-        <v>21157.2</v>
-      </c>
-      <c r="AQ87" t="n">
-        <v>19978.8</v>
-      </c>
-      <c r="AR87" t="n">
-        <v>26987.4</v>
-      </c>
-      <c r="AS87" t="n">
-        <v>7922.4</v>
-      </c>
-      <c r="AT87" t="n">
-        <v>17139</v>
-      </c>
-      <c r="AU87" t="n">
-        <v>150088.4</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>114300.5</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>22402.7</v>
+        <v>67938.8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>12473.4</v>
+        <v>12668.9</v>
       </c>
       <c r="C88" t="n">
-        <v>34686.7</v>
+        <v>22920.2</v>
       </c>
       <c r="D88" t="n">
-        <v>4648.5</v>
+        <v>4020.2</v>
       </c>
       <c r="E88" t="n">
-        <v>12425.1</v>
+        <v>7851.9</v>
       </c>
       <c r="F88" t="n">
-        <v>10306.4</v>
+        <v>11794.1</v>
       </c>
       <c r="G88" t="n">
-        <v>32907.7</v>
+        <v>22891.6</v>
       </c>
       <c r="H88" t="n">
-        <v>45492.3</v>
+        <v>44174.6</v>
       </c>
       <c r="I88" t="n">
-        <v>133529.3</v>
+        <v>89082.39999999999</v>
       </c>
       <c r="J88" t="n">
-        <v>24084.5</v>
+        <v>17981.8</v>
       </c>
       <c r="K88" t="n">
-        <v>53952.6</v>
+        <v>29923.3</v>
       </c>
       <c r="L88" t="n">
-        <v>77510.8</v>
+        <v>80889.7</v>
       </c>
       <c r="M88" t="n">
-        <v>226241.1</v>
+        <v>150050</v>
       </c>
       <c r="N88" t="n">
-        <v>289919.3</v>
+        <v>282849.2</v>
       </c>
       <c r="O88" t="n">
-        <v>819432.3</v>
+        <v>532049.4</v>
       </c>
       <c r="P88" t="n">
-        <v>92925</v>
+        <v>94071.10000000001</v>
       </c>
       <c r="Q88" t="n">
-        <v>267352</v>
+        <v>175215.8</v>
       </c>
       <c r="R88" t="n">
-        <v>21042.2</v>
+        <v>20788.3</v>
       </c>
       <c r="S88" t="n">
-        <v>54125.8</v>
+        <v>32511.7</v>
       </c>
       <c r="T88" t="n">
-        <v>18635.8</v>
+        <v>19888.1</v>
       </c>
       <c r="U88" t="n">
-        <v>57827.1</v>
+        <v>39011.7</v>
       </c>
       <c r="V88" t="n">
-        <v>28116.4</v>
+        <v>26896.2</v>
       </c>
       <c r="W88" t="n">
-        <v>79212.8</v>
+        <v>50937.7</v>
       </c>
       <c r="X88" t="n">
-        <v>8897.200000000001</v>
+        <v>8400</v>
       </c>
       <c r="Y88" t="n">
-        <v>24780.7</v>
+        <v>16846.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>23100.5</v>
+        <v>17165.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>51613.3</v>
+        <v>28534.8</v>
       </c>
       <c r="AB88" t="n">
-        <v>153296.9</v>
+        <v>151225.6</v>
       </c>
       <c r="AC88" t="n">
-        <v>447564.3</v>
+        <v>296535.8</v>
       </c>
       <c r="AD88" t="n">
-        <v>113521.9</v>
+        <v>114458.2</v>
       </c>
       <c r="AE88" t="n">
-        <v>320254.7</v>
+        <v>206978.8</v>
       </c>
       <c r="AF88" t="n">
-        <v>23297.6</v>
+        <v>22166.2</v>
       </c>
       <c r="AG88" t="n">
-        <v>68632.5</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>12473.5</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>4648.5</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>10306.4</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>45492.19999999998</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>24084.5</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>77510.80000000002</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>289919.3</v>
-      </c>
-      <c r="AO88" t="n">
-        <v>92924.89999999999</v>
-      </c>
-      <c r="AP88" t="n">
-        <v>21042.2</v>
-      </c>
-      <c r="AQ88" t="n">
-        <v>18635.8</v>
-      </c>
-      <c r="AR88" t="n">
-        <v>28116.5</v>
-      </c>
-      <c r="AS88" t="n">
-        <v>8897.200000000001</v>
-      </c>
-      <c r="AT88" t="n">
-        <v>23100.5</v>
-      </c>
-      <c r="AU88" t="n">
-        <v>153296.9</v>
-      </c>
-      <c r="AV88" t="n">
-        <v>113522</v>
-      </c>
-      <c r="AW88" t="n">
-        <v>23297.6</v>
+        <v>44856.6</v>
       </c>
     </row>
     <row r="89">
@@ -12739,148 +8843,100 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>12374.6</v>
+        <v>12691.8</v>
       </c>
       <c r="C89" t="n">
-        <v>47061.2</v>
+        <v>48423.9</v>
       </c>
       <c r="D89" t="n">
-        <v>5427.5</v>
+        <v>5481</v>
       </c>
       <c r="E89" t="n">
-        <v>17852.6</v>
+        <v>18026.9</v>
       </c>
       <c r="F89" t="n">
-        <v>11048.8</v>
+        <v>11213.7</v>
       </c>
       <c r="G89" t="n">
-        <v>43956.5</v>
+        <v>44510.4</v>
       </c>
       <c r="H89" t="n">
-        <v>47171.9</v>
+        <v>47704.2</v>
       </c>
       <c r="I89" t="n">
-        <v>180701.2</v>
+        <v>182838.4</v>
       </c>
       <c r="J89" t="n">
-        <v>32822.4</v>
+        <v>32921.4</v>
       </c>
       <c r="K89" t="n">
-        <v>86775</v>
+        <v>86994.8</v>
       </c>
       <c r="L89" t="n">
-        <v>87556.10000000001</v>
+        <v>88333</v>
       </c>
       <c r="M89" t="n">
-        <v>313797.2</v>
+        <v>316581.5</v>
       </c>
       <c r="N89" t="n">
-        <v>324237.4</v>
+        <v>325899.4</v>
       </c>
       <c r="O89" t="n">
-        <v>1143669.7</v>
+        <v>1149237</v>
       </c>
       <c r="P89" t="n">
-        <v>105223.3</v>
+        <v>105943.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>372575.3</v>
+        <v>374545.6</v>
       </c>
       <c r="R89" t="n">
-        <v>26012.7</v>
+        <v>25554.1</v>
       </c>
       <c r="S89" t="n">
-        <v>80138.5</v>
+        <v>78741.2</v>
       </c>
       <c r="T89" t="n">
-        <v>19733.7</v>
+        <v>19634.6</v>
       </c>
       <c r="U89" t="n">
-        <v>77560.8</v>
+        <v>77215.89999999999</v>
       </c>
       <c r="V89" t="n">
-        <v>31279.9</v>
+        <v>31185</v>
       </c>
       <c r="W89" t="n">
-        <v>110492.7</v>
+        <v>110147</v>
       </c>
       <c r="X89" t="n">
-        <v>10569.6</v>
+        <v>11200.2</v>
       </c>
       <c r="Y89" t="n">
-        <v>35350.3</v>
+        <v>37484.2</v>
       </c>
       <c r="Z89" t="n">
-        <v>31472.2</v>
+        <v>31539.1</v>
       </c>
       <c r="AA89" t="n">
-        <v>83085.5</v>
+        <v>83216.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>162115.4</v>
+        <v>163427.9</v>
       </c>
       <c r="AC89" t="n">
-        <v>609679.7</v>
+        <v>614476.4</v>
       </c>
       <c r="AD89" t="n">
-        <v>130649.8</v>
+        <v>130932.4</v>
       </c>
       <c r="AE89" t="n">
-        <v>450904.5</v>
+        <v>451544.1</v>
       </c>
       <c r="AF89" t="n">
-        <v>22573.1</v>
+        <v>22369.9</v>
       </c>
       <c r="AG89" t="n">
-        <v>91205.60000000001</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>12374.5</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>5427.499999999998</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>11048.8</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>47171.90000000002</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>32822.4</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>87556.10000000001</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>324237.3999999999</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>105223.3</v>
-      </c>
-      <c r="AP89" t="n">
-        <v>26012.7</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>19733.7</v>
-      </c>
-      <c r="AR89" t="n">
-        <v>31279.89999999999</v>
-      </c>
-      <c r="AS89" t="n">
-        <v>10569.6</v>
-      </c>
-      <c r="AT89" t="n">
-        <v>31472.2</v>
-      </c>
-      <c r="AU89" t="n">
-        <v>162115.4</v>
-      </c>
-      <c r="AV89" t="n">
-        <v>130649.8</v>
-      </c>
-      <c r="AW89" t="n">
-        <v>22573.10000000001</v>
+        <v>90308.7</v>
       </c>
     </row>
   </sheetData>
